--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['63', '90+3', '90+5']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -1014,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1276,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1685,7 +1688,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1891,7 +1894,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2097,7 +2100,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2303,7 +2306,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2715,7 +2718,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2921,7 +2924,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3333,7 +3336,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3539,7 +3542,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3745,7 +3748,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3951,7 +3954,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4363,7 +4366,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4650,7 +4653,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ18">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4853,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4981,7 +4984,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5393,7 +5396,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5599,7 +5602,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -5805,7 +5808,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6011,7 +6014,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6217,7 +6220,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6423,7 +6426,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6629,7 +6632,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6835,7 +6838,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7041,7 +7044,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7247,7 +7250,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7453,7 +7456,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7659,7 +7662,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8071,7 +8074,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8277,7 +8280,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8689,7 +8692,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9101,7 +9104,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9307,7 +9310,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9513,7 +9516,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9800,7 +9803,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR43">
         <v>1.14</v>
@@ -9925,7 +9928,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10003,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ44">
         <v>1.8</v>
@@ -10131,7 +10134,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10337,7 +10340,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10749,7 +10752,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10955,7 +10958,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11161,7 +11164,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11367,7 +11370,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11573,7 +11576,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11985,7 +11988,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12191,7 +12194,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12397,7 +12400,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12603,7 +12606,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13015,7 +13018,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13096,7 +13099,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13221,7 +13224,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13427,7 +13430,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13711,7 +13714,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13839,7 +13842,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14045,7 +14048,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14251,7 +14254,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14457,7 +14460,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14869,7 +14872,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15075,7 +15078,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15281,7 +15284,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15487,7 +15490,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15693,7 +15696,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16389,7 +16392,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16517,7 +16520,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16723,7 +16726,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17216,7 +17219,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -17753,7 +17756,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18165,7 +18168,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18371,7 +18374,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18577,7 +18580,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18783,7 +18786,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19401,7 +19404,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19607,7 +19610,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19764,6 +19767,212 @@
       </c>
       <c r="BP91">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7491906</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45618.6875</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H92" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P92" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q92">
+        <v>1.4</v>
+      </c>
+      <c r="R92">
+        <v>3.5</v>
+      </c>
+      <c r="S92">
+        <v>12</v>
+      </c>
+      <c r="T92">
+        <v>1.17</v>
+      </c>
+      <c r="U92">
+        <v>5</v>
+      </c>
+      <c r="V92">
+        <v>1.8</v>
+      </c>
+      <c r="W92">
+        <v>1.91</v>
+      </c>
+      <c r="X92">
+        <v>3.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.29</v>
+      </c>
+      <c r="Z92">
+        <v>1.1</v>
+      </c>
+      <c r="AA92">
+        <v>11</v>
+      </c>
+      <c r="AB92">
+        <v>21</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1.06</v>
+      </c>
+      <c r="AF92">
+        <v>9.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.25</v>
+      </c>
+      <c r="AH92">
+        <v>3.75</v>
+      </c>
+      <c r="AI92">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92">
+        <v>1.8</v>
+      </c>
+      <c r="AK92">
+        <v>1.02</v>
+      </c>
+      <c r="AL92">
+        <v>1.05</v>
+      </c>
+      <c r="AM92">
+        <v>6.25</v>
+      </c>
+      <c r="AN92">
+        <v>2.5</v>
+      </c>
+      <c r="AO92">
+        <v>0.25</v>
+      </c>
+      <c r="AP92">
+        <v>2.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0.2</v>
+      </c>
+      <c r="AR92">
+        <v>1.83</v>
+      </c>
+      <c r="AS92">
+        <v>0.97</v>
+      </c>
+      <c r="AT92">
+        <v>2.8</v>
+      </c>
+      <c r="AU92">
+        <v>15</v>
+      </c>
+      <c r="AV92">
+        <v>2</v>
+      </c>
+      <c r="AW92">
+        <v>12</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>34</v>
+      </c>
+      <c r="AZ92">
+        <v>3</v>
+      </c>
+      <c r="BA92">
+        <v>8</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>1.07</v>
+      </c>
+      <c r="BE92">
+        <v>12</v>
+      </c>
+      <c r="BF92">
+        <v>8</v>
+      </c>
+      <c r="BG92">
+        <v>1.19</v>
+      </c>
+      <c r="BH92">
+        <v>3.9</v>
+      </c>
+      <c r="BI92">
+        <v>1.35</v>
+      </c>
+      <c r="BJ92">
+        <v>2.88</v>
+      </c>
+      <c r="BK92">
+        <v>1.58</v>
+      </c>
+      <c r="BL92">
+        <v>2.18</v>
+      </c>
+      <c r="BM92">
+        <v>1.91</v>
+      </c>
+      <c r="BN92">
+        <v>1.77</v>
+      </c>
+      <c r="BO92">
+        <v>2.4</v>
+      </c>
+      <c r="BP92">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,24 @@
     <t>['63', '90+3', '90+5']</t>
   </si>
   <si>
+    <t>['30', '32', '52', '71', '82']</t>
+  </si>
+  <si>
+    <t>['53', '78']</t>
+  </si>
+  <si>
+    <t>['7', '40', '66', '77']</t>
+  </si>
+  <si>
+    <t>['17', '50', '82', '86']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -517,9 +535,6 @@
     <t>['17', '30', '72', '75']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -656,6 +671,12 @@
   </si>
   <si>
     <t>['3', '42', '90']</t>
+  </si>
+  <si>
+    <t>['10', '21']</t>
+  </si>
+  <si>
+    <t>['15', '19', '67']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1297,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1688,7 +1709,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1766,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>0.4</v>
@@ -1894,7 +1915,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2100,7 +2121,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2181,7 +2202,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2306,7 +2327,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2387,7 +2408,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2718,7 +2739,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2796,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
         <v>2.67</v>
@@ -2924,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3005,7 +3026,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3336,7 +3357,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3414,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3542,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3748,7 +3769,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3826,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -3954,7 +3975,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4366,7 +4387,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4444,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4859,7 +4880,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4984,7 +5005,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5065,7 +5086,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5271,7 +5292,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
         <v>1.16</v>
@@ -5396,7 +5417,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5474,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>1.8</v>
@@ -5602,7 +5623,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -5808,7 +5829,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5886,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6014,7 +6035,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6220,7 +6241,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6426,7 +6447,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6632,7 +6653,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6713,7 +6734,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6838,7 +6859,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7044,7 +7065,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7125,7 +7146,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7250,7 +7271,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7456,7 +7477,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7662,7 +7683,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7946,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8074,7 +8095,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8152,7 +8173,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8280,7 +8301,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8358,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>0.2</v>
@@ -8567,7 +8588,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -8692,7 +8713,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8979,7 +9000,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9104,7 +9125,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9185,7 +9206,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9310,7 +9331,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9388,7 +9409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9516,7 +9537,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9928,7 +9949,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10134,7 +10155,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10340,7 +10361,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10418,10 +10439,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10752,7 +10773,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10830,7 +10851,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -10958,7 +10979,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11039,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11164,7 +11185,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11370,7 +11391,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11576,7 +11597,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11863,7 +11884,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11988,7 +12009,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12066,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ54">
         <v>2.67</v>
@@ -12194,7 +12215,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12272,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
         <v>0.6</v>
@@ -12400,7 +12421,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12606,7 +12627,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12684,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -12890,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -13018,7 +13039,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13224,7 +13245,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13305,7 +13326,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.26</v>
@@ -13430,7 +13451,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13511,7 +13532,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13842,7 +13863,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13923,7 +13944,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.07</v>
@@ -14048,7 +14069,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14126,10 +14147,10 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -14254,7 +14275,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14460,7 +14481,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14872,7 +14893,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -14953,7 +14974,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15078,7 +15099,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15156,7 +15177,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
         <v>0.4</v>
@@ -15284,7 +15305,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15490,7 +15511,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15696,7 +15717,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16186,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16395,7 +16416,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
         <v>1.82</v>
@@ -16520,7 +16541,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16598,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ76">
         <v>0</v>
@@ -16726,7 +16747,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16804,7 +16825,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.2</v>
@@ -17013,7 +17034,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17216,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ79">
         <v>0.2</v>
@@ -17425,7 +17446,7 @@
         <v>3</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.88</v>
@@ -17756,7 +17777,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -17837,7 +17858,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18043,7 +18064,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ83">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18168,7 +18189,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18374,7 +18395,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18580,7 +18601,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18786,7 +18807,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19404,7 +19425,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19482,7 +19503,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90">
         <v>1.67</v>
@@ -19610,7 +19631,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19783,7 +19804,7 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45618.6875</v>
+        <v>45617.875</v>
       </c>
       <c r="F92">
         <v>11</v>
@@ -19973,6 +19994,1242 @@
       </c>
       <c r="BP92">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7491904</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s">
+        <v>86</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>7</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q93">
+        <v>1.53</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>10</v>
+      </c>
+      <c r="T93">
+        <v>1.22</v>
+      </c>
+      <c r="U93">
+        <v>4</v>
+      </c>
+      <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
+        <v>1.73</v>
+      </c>
+      <c r="X93">
+        <v>4.33</v>
+      </c>
+      <c r="Y93">
+        <v>1.2</v>
+      </c>
+      <c r="Z93">
+        <v>1.2</v>
+      </c>
+      <c r="AA93">
+        <v>5.38</v>
+      </c>
+      <c r="AB93">
+        <v>10.25</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1.12</v>
+      </c>
+      <c r="AF93">
+        <v>6.5</v>
+      </c>
+      <c r="AG93">
+        <v>1.36</v>
+      </c>
+      <c r="AH93">
+        <v>3.1</v>
+      </c>
+      <c r="AI93">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93">
+        <v>1.8</v>
+      </c>
+      <c r="AK93">
+        <v>1.04</v>
+      </c>
+      <c r="AL93">
+        <v>1.09</v>
+      </c>
+      <c r="AM93">
+        <v>4.33</v>
+      </c>
+      <c r="AN93">
+        <v>1.6</v>
+      </c>
+      <c r="AO93">
+        <v>1.2</v>
+      </c>
+      <c r="AP93">
+        <v>1.83</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>2.3</v>
+      </c>
+      <c r="AS93">
+        <v>1.36</v>
+      </c>
+      <c r="AT93">
+        <v>3.66</v>
+      </c>
+      <c r="AU93">
+        <v>11</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>21</v>
+      </c>
+      <c r="AZ93">
+        <v>7</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>1.13</v>
+      </c>
+      <c r="BE93">
+        <v>10</v>
+      </c>
+      <c r="BF93">
+        <v>6.1</v>
+      </c>
+      <c r="BG93">
+        <v>1.19</v>
+      </c>
+      <c r="BH93">
+        <v>4.1</v>
+      </c>
+      <c r="BI93">
+        <v>1.34</v>
+      </c>
+      <c r="BJ93">
+        <v>2.9</v>
+      </c>
+      <c r="BK93">
+        <v>1.56</v>
+      </c>
+      <c r="BL93">
+        <v>2.23</v>
+      </c>
+      <c r="BM93">
+        <v>1.88</v>
+      </c>
+      <c r="BN93">
+        <v>1.81</v>
+      </c>
+      <c r="BO93">
+        <v>2.32</v>
+      </c>
+      <c r="BP93">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7491905</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q94">
+        <v>1.67</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>7</v>
+      </c>
+      <c r="T94">
+        <v>1.18</v>
+      </c>
+      <c r="U94">
+        <v>4.5</v>
+      </c>
+      <c r="V94">
+        <v>1.83</v>
+      </c>
+      <c r="W94">
+        <v>1.83</v>
+      </c>
+      <c r="X94">
+        <v>3.75</v>
+      </c>
+      <c r="Y94">
+        <v>1.25</v>
+      </c>
+      <c r="Z94">
+        <v>1.09</v>
+      </c>
+      <c r="AA94">
+        <v>8.09</v>
+      </c>
+      <c r="AB94">
+        <v>14.19</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1.09</v>
+      </c>
+      <c r="AF94">
+        <v>7.5</v>
+      </c>
+      <c r="AG94">
+        <v>1.33</v>
+      </c>
+      <c r="AH94">
+        <v>3.2</v>
+      </c>
+      <c r="AI94">
+        <v>1.57</v>
+      </c>
+      <c r="AJ94">
+        <v>2.25</v>
+      </c>
+      <c r="AK94">
+        <v>1.05</v>
+      </c>
+      <c r="AL94">
+        <v>1.09</v>
+      </c>
+      <c r="AM94">
+        <v>3.5</v>
+      </c>
+      <c r="AN94">
+        <v>1.6</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>1.83</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>2.18</v>
+      </c>
+      <c r="AS94">
+        <v>1.3</v>
+      </c>
+      <c r="AT94">
+        <v>3.48</v>
+      </c>
+      <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>16</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>11</v>
+      </c>
+      <c r="BD94">
+        <v>1.21</v>
+      </c>
+      <c r="BE94">
+        <v>8.5</v>
+      </c>
+      <c r="BF94">
+        <v>4.8</v>
+      </c>
+      <c r="BG94">
+        <v>1.21</v>
+      </c>
+      <c r="BH94">
+        <v>3.8</v>
+      </c>
+      <c r="BI94">
+        <v>1.38</v>
+      </c>
+      <c r="BJ94">
+        <v>2.7</v>
+      </c>
+      <c r="BK94">
+        <v>1.63</v>
+      </c>
+      <c r="BL94">
+        <v>2.12</v>
+      </c>
+      <c r="BM94">
+        <v>1.98</v>
+      </c>
+      <c r="BN94">
+        <v>1.72</v>
+      </c>
+      <c r="BO94">
+        <v>2.48</v>
+      </c>
+      <c r="BP94">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7491907</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>73</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P95" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q95">
+        <v>2.2</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>4.75</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.23</v>
+      </c>
+      <c r="AA95">
+        <v>5.58</v>
+      </c>
+      <c r="AB95">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>19</v>
+      </c>
+      <c r="AE95">
+        <v>1.18</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+      <c r="AG95">
+        <v>1.55</v>
+      </c>
+      <c r="AH95">
+        <v>2.4</v>
+      </c>
+      <c r="AI95">
+        <v>1.62</v>
+      </c>
+      <c r="AJ95">
+        <v>2.2</v>
+      </c>
+      <c r="AK95">
+        <v>1.18</v>
+      </c>
+      <c r="AL95">
+        <v>1.19</v>
+      </c>
+      <c r="AM95">
+        <v>2.35</v>
+      </c>
+      <c r="AN95">
+        <v>3</v>
+      </c>
+      <c r="AO95">
+        <v>1.4</v>
+      </c>
+      <c r="AP95">
+        <v>3</v>
+      </c>
+      <c r="AQ95">
+        <v>1.17</v>
+      </c>
+      <c r="AR95">
+        <v>1.86</v>
+      </c>
+      <c r="AS95">
+        <v>1.37</v>
+      </c>
+      <c r="AT95">
+        <v>3.23</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>2</v>
+      </c>
+      <c r="AY95">
+        <v>20</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>7</v>
+      </c>
+      <c r="BD95">
+        <v>1.36</v>
+      </c>
+      <c r="BE95">
+        <v>7</v>
+      </c>
+      <c r="BF95">
+        <v>3.45</v>
+      </c>
+      <c r="BG95">
+        <v>1.25</v>
+      </c>
+      <c r="BH95">
+        <v>3.45</v>
+      </c>
+      <c r="BI95">
+        <v>1.44</v>
+      </c>
+      <c r="BJ95">
+        <v>2.55</v>
+      </c>
+      <c r="BK95">
+        <v>1.73</v>
+      </c>
+      <c r="BL95">
+        <v>1.97</v>
+      </c>
+      <c r="BM95">
+        <v>2.12</v>
+      </c>
+      <c r="BN95">
+        <v>1.63</v>
+      </c>
+      <c r="BO95">
+        <v>2.7</v>
+      </c>
+      <c r="BP95">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7491909</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>7</v>
+      </c>
+      <c r="O96" t="s">
+        <v>156</v>
+      </c>
+      <c r="P96" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q96">
+        <v>3.6</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>2.6</v>
+      </c>
+      <c r="T96">
+        <v>1.25</v>
+      </c>
+      <c r="U96">
+        <v>3.75</v>
+      </c>
+      <c r="V96">
+        <v>2.25</v>
+      </c>
+      <c r="W96">
+        <v>1.57</v>
+      </c>
+      <c r="X96">
+        <v>5.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.14</v>
+      </c>
+      <c r="Z96">
+        <v>1.94</v>
+      </c>
+      <c r="AA96">
+        <v>3.74</v>
+      </c>
+      <c r="AB96">
+        <v>3.06</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>19</v>
+      </c>
+      <c r="AE96">
+        <v>1.17</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
+      </c>
+      <c r="AG96">
+        <v>1.5</v>
+      </c>
+      <c r="AH96">
+        <v>2.55</v>
+      </c>
+      <c r="AI96">
+        <v>1.44</v>
+      </c>
+      <c r="AJ96">
+        <v>2.63</v>
+      </c>
+      <c r="AK96">
+        <v>1.78</v>
+      </c>
+      <c r="AL96">
+        <v>1.24</v>
+      </c>
+      <c r="AM96">
+        <v>1.35</v>
+      </c>
+      <c r="AN96">
+        <v>1.2</v>
+      </c>
+      <c r="AO96">
+        <v>2</v>
+      </c>
+      <c r="AP96">
+        <v>1.5</v>
+      </c>
+      <c r="AQ96">
+        <v>1.67</v>
+      </c>
+      <c r="AR96">
+        <v>1.68</v>
+      </c>
+      <c r="AS96">
+        <v>1.12</v>
+      </c>
+      <c r="AT96">
+        <v>2.8</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>9</v>
+      </c>
+      <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
+        <v>21</v>
+      </c>
+      <c r="AZ96">
+        <v>15</v>
+      </c>
+      <c r="BA96">
+        <v>4</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>2.3</v>
+      </c>
+      <c r="BE96">
+        <v>6.4</v>
+      </c>
+      <c r="BF96">
+        <v>1.75</v>
+      </c>
+      <c r="BG96">
+        <v>1.27</v>
+      </c>
+      <c r="BH96">
+        <v>3.3</v>
+      </c>
+      <c r="BI96">
+        <v>1.48</v>
+      </c>
+      <c r="BJ96">
+        <v>2.43</v>
+      </c>
+      <c r="BK96">
+        <v>1.77</v>
+      </c>
+      <c r="BL96">
+        <v>1.92</v>
+      </c>
+      <c r="BM96">
+        <v>2.18</v>
+      </c>
+      <c r="BN96">
+        <v>1.58</v>
+      </c>
+      <c r="BO96">
+        <v>2.8</v>
+      </c>
+      <c r="BP96">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7491910</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>157</v>
+      </c>
+      <c r="P97" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.44</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.25</v>
+      </c>
+      <c r="W97">
+        <v>1.33</v>
+      </c>
+      <c r="X97">
+        <v>9</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>4.49</v>
+      </c>
+      <c r="AA97">
+        <v>4.23</v>
+      </c>
+      <c r="AB97">
+        <v>1.54</v>
+      </c>
+      <c r="AC97">
+        <v>1.07</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.36</v>
+      </c>
+      <c r="AF97">
+        <v>3.2</v>
+      </c>
+      <c r="AG97">
+        <v>2.07</v>
+      </c>
+      <c r="AH97">
+        <v>1.79</v>
+      </c>
+      <c r="AI97">
+        <v>1.91</v>
+      </c>
+      <c r="AJ97">
+        <v>1.91</v>
+      </c>
+      <c r="AK97">
+        <v>1.32</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>1.75</v>
+      </c>
+      <c r="AN97">
+        <v>0.4</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>0.83</v>
+      </c>
+      <c r="AQ97">
+        <v>0.83</v>
+      </c>
+      <c r="AR97">
+        <v>1.25</v>
+      </c>
+      <c r="AS97">
+        <v>1.07</v>
+      </c>
+      <c r="AT97">
+        <v>2.32</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>11</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>5</v>
+      </c>
+      <c r="BC97">
+        <v>13</v>
+      </c>
+      <c r="BD97">
+        <v>1.65</v>
+      </c>
+      <c r="BE97">
+        <v>6.5</v>
+      </c>
+      <c r="BF97">
+        <v>2.5</v>
+      </c>
+      <c r="BG97">
+        <v>1.29</v>
+      </c>
+      <c r="BH97">
+        <v>3.15</v>
+      </c>
+      <c r="BI97">
+        <v>1.5</v>
+      </c>
+      <c r="BJ97">
+        <v>2.4</v>
+      </c>
+      <c r="BK97">
+        <v>1.81</v>
+      </c>
+      <c r="BL97">
+        <v>1.88</v>
+      </c>
+      <c r="BM97">
+        <v>2.25</v>
+      </c>
+      <c r="BN97">
+        <v>1.55</v>
+      </c>
+      <c r="BO97">
+        <v>2.9</v>
+      </c>
+      <c r="BP97">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7491908</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45619.60416666666</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q98">
+        <v>2.2</v>
+      </c>
+      <c r="R98">
+        <v>2.5</v>
+      </c>
+      <c r="S98">
+        <v>4.5</v>
+      </c>
+      <c r="T98">
+        <v>1.25</v>
+      </c>
+      <c r="U98">
+        <v>3.75</v>
+      </c>
+      <c r="V98">
+        <v>2.2</v>
+      </c>
+      <c r="W98">
+        <v>1.62</v>
+      </c>
+      <c r="X98">
+        <v>5</v>
+      </c>
+      <c r="Y98">
+        <v>1.17</v>
+      </c>
+      <c r="Z98">
+        <v>1.53</v>
+      </c>
+      <c r="AA98">
+        <v>4.03</v>
+      </c>
+      <c r="AB98">
+        <v>4.48</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>21</v>
+      </c>
+      <c r="AE98">
+        <v>1.15</v>
+      </c>
+      <c r="AF98">
+        <v>5.5</v>
+      </c>
+      <c r="AG98">
+        <v>1.5</v>
+      </c>
+      <c r="AH98">
+        <v>2.55</v>
+      </c>
+      <c r="AI98">
+        <v>1.5</v>
+      </c>
+      <c r="AJ98">
+        <v>2.5</v>
+      </c>
+      <c r="AK98">
+        <v>1.2</v>
+      </c>
+      <c r="AL98">
+        <v>1.19</v>
+      </c>
+      <c r="AM98">
+        <v>2.25</v>
+      </c>
+      <c r="AN98">
+        <v>2.5</v>
+      </c>
+      <c r="AO98">
+        <v>2</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>1.67</v>
+      </c>
+      <c r="AR98">
+        <v>1.59</v>
+      </c>
+      <c r="AS98">
+        <v>1.49</v>
+      </c>
+      <c r="AT98">
+        <v>3.08</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>16</v>
+      </c>
+      <c r="AZ98">
+        <v>9</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>6</v>
+      </c>
+      <c r="BC98">
+        <v>11</v>
+      </c>
+      <c r="BD98">
+        <v>1.42</v>
+      </c>
+      <c r="BE98">
+        <v>7</v>
+      </c>
+      <c r="BF98">
+        <v>3.2</v>
+      </c>
+      <c r="BG98">
+        <v>1.3</v>
+      </c>
+      <c r="BH98">
+        <v>3.15</v>
+      </c>
+      <c r="BI98">
+        <v>1.52</v>
+      </c>
+      <c r="BJ98">
+        <v>2.32</v>
+      </c>
+      <c r="BK98">
+        <v>1.84</v>
+      </c>
+      <c r="BL98">
+        <v>1.84</v>
+      </c>
+      <c r="BM98">
+        <v>2.32</v>
+      </c>
+      <c r="BN98">
+        <v>1.53</v>
+      </c>
+      <c r="BO98">
+        <v>2.95</v>
+      </c>
+      <c r="BP98">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -475,66 +475,66 @@
     <t>['63', '90+3', '90+5']</t>
   </si>
   <si>
-    <t>['30', '32', '52', '71', '82']</t>
+    <t>['7', '40', '66', '77']</t>
+  </si>
+  <si>
+    <t>['17', '50', '82', '86']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
   <si>
     <t>['53', '78']</t>
   </si>
   <si>
-    <t>['7', '40', '66', '77']</t>
-  </si>
-  <si>
-    <t>['17', '50', '82', '86']</t>
-  </si>
-  <si>
-    <t>['71']</t>
+    <t>['13', '44']</t>
+  </si>
+  <si>
+    <t>['12', '38', '90+11']</t>
+  </si>
+  <si>
+    <t>['63', '89']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['12', '58']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['19', '65', '82']</t>
+  </si>
+  <si>
+    <t>['66', '82']</t>
+  </si>
+  <si>
+    <t>['43', '62', '90+4']</t>
+  </si>
+  <si>
+    <t>['27', '30']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['67', '78']</t>
+  </si>
+  <si>
+    <t>['45+7', '57', '80']</t>
+  </si>
+  <si>
+    <t>['39', '74']</t>
+  </si>
+  <si>
+    <t>['17', '30', '72', '75']</t>
   </si>
   <si>
     <t>['45']</t>
   </si>
   <si>
-    <t>['12', '38', '90+11']</t>
-  </si>
-  <si>
-    <t>['63', '89']</t>
-  </si>
-  <si>
-    <t>['2']</t>
-  </si>
-  <si>
-    <t>['12', '58']</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>['19', '65', '82']</t>
-  </si>
-  <si>
-    <t>['66', '82']</t>
-  </si>
-  <si>
-    <t>['43', '62', '90+4']</t>
-  </si>
-  <si>
-    <t>['27', '30']</t>
-  </si>
-  <si>
-    <t>['54']</t>
-  </si>
-  <si>
-    <t>['67', '78']</t>
-  </si>
-  <si>
-    <t>['45+7', '57', '80']</t>
-  </si>
-  <si>
-    <t>['39', '74']</t>
-  </si>
-  <si>
-    <t>['17', '30', '72', '75']</t>
-  </si>
-  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -673,10 +673,10 @@
     <t>['3', '42', '90']</t>
   </si>
   <si>
-    <t>['10', '21']</t>
-  </si>
-  <si>
     <t>['15', '19', '67']</t>
+  </si>
+  <si>
+    <t>['11', '37', '53']</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1297,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.8</v>
@@ -1709,7 +1709,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1915,7 +1915,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2121,7 +2121,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2202,7 +2202,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2739,7 +2739,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2945,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3026,7 +3026,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3438,7 +3438,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3769,7 +3769,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -3975,7 +3975,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4387,7 +4387,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -5005,7 +5005,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5086,7 +5086,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5417,7 +5417,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5623,7 +5623,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6319,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26">
         <v>2.67</v>
@@ -6447,7 +6447,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6528,7 +6528,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6734,7 +6734,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6940,7 +6940,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -7967,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8173,7 +8173,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9206,7 +9206,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9618,7 +9618,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.82</v>
@@ -10233,7 +10233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10442,7 +10442,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10851,7 +10851,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -11678,7 +11678,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12087,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ54">
         <v>2.67</v>
@@ -12502,7 +12502,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.91</v>
@@ -12705,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13529,10 +13529,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13941,7 +13941,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14150,7 +14150,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -16207,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>0</v>
@@ -16828,7 +16828,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -17031,10 +17031,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17652,7 +17652,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR81">
         <v>1.64</v>
@@ -17855,10 +17855,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -19804,7 +19804,7 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45617.875</v>
+        <v>45618.6875</v>
       </c>
       <c r="F92">
         <v>11</v>
@@ -19930,22 +19930,22 @@
         <v>2.8</v>
       </c>
       <c r="AU92">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AV92">
         <v>2</v>
       </c>
       <c r="AW92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY92">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AZ92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA92">
         <v>8</v>
@@ -20001,7 +20001,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7491904</v>
+        <v>7491907</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20010,196 +20010,196 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F93">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
         <v>4</v>
       </c>
-      <c r="L93">
-        <v>5</v>
-      </c>
       <c r="M93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O93" t="s">
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="Q93">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="R93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S93">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="T93">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W93">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="X93">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Y93">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Z93">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AA93">
-        <v>5.38</v>
+        <v>5.58</v>
       </c>
       <c r="AB93">
-        <v>10.25</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE93">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AF93">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AG93">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AH93">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI93">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AJ93">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK93">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AL93">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AM93">
-        <v>4.33</v>
+        <v>2.35</v>
       </c>
       <c r="AN93">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO93">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
-        <v>2.3</v>
+        <v>1.86</v>
       </c>
       <c r="AS93">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT93">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="AU93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV93">
         <v>4</v>
       </c>
       <c r="AW93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY93">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
         <v>7</v>
       </c>
-      <c r="BA93">
-        <v>6</v>
-      </c>
       <c r="BB93">
         <v>0</v>
       </c>
       <c r="BC93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD93">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="BE93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BF93">
-        <v>6.1</v>
+        <v>3.45</v>
       </c>
       <c r="BG93">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH93">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="BI93">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BJ93">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BK93">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="BL93">
-        <v>2.23</v>
+        <v>1.97</v>
       </c>
       <c r="BM93">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BN93">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="BO93">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="BP93">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20207,7 +20207,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7491905</v>
+        <v>7491909</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20216,196 +20216,196 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H94" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O94" t="s">
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="Q94">
+        <v>3.6</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>2.6</v>
+      </c>
+      <c r="T94">
+        <v>1.25</v>
+      </c>
+      <c r="U94">
+        <v>3.75</v>
+      </c>
+      <c r="V94">
+        <v>2.25</v>
+      </c>
+      <c r="W94">
+        <v>1.57</v>
+      </c>
+      <c r="X94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.14</v>
+      </c>
+      <c r="Z94">
+        <v>1.94</v>
+      </c>
+      <c r="AA94">
+        <v>3.74</v>
+      </c>
+      <c r="AB94">
+        <v>3.06</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>19</v>
+      </c>
+      <c r="AE94">
+        <v>1.17</v>
+      </c>
+      <c r="AF94">
+        <v>5</v>
+      </c>
+      <c r="AG94">
+        <v>1.5</v>
+      </c>
+      <c r="AH94">
+        <v>2.55</v>
+      </c>
+      <c r="AI94">
+        <v>1.44</v>
+      </c>
+      <c r="AJ94">
+        <v>2.63</v>
+      </c>
+      <c r="AK94">
+        <v>1.78</v>
+      </c>
+      <c r="AL94">
+        <v>1.24</v>
+      </c>
+      <c r="AM94">
+        <v>1.35</v>
+      </c>
+      <c r="AN94">
+        <v>1.2</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>1.5</v>
+      </c>
+      <c r="AQ94">
         <v>1.67</v>
       </c>
-      <c r="R94">
-        <v>3</v>
-      </c>
-      <c r="S94">
+      <c r="AR94">
+        <v>1.68</v>
+      </c>
+      <c r="AS94">
+        <v>1.12</v>
+      </c>
+      <c r="AT94">
+        <v>2.8</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
         <v>7</v>
       </c>
-      <c r="T94">
-        <v>1.18</v>
-      </c>
-      <c r="U94">
-        <v>4.5</v>
-      </c>
-      <c r="V94">
-        <v>1.83</v>
-      </c>
-      <c r="W94">
-        <v>1.83</v>
-      </c>
-      <c r="X94">
-        <v>3.75</v>
-      </c>
-      <c r="Y94">
-        <v>1.25</v>
-      </c>
-      <c r="Z94">
-        <v>1.09</v>
-      </c>
-      <c r="AA94">
-        <v>8.09</v>
-      </c>
-      <c r="AB94">
-        <v>14.19</v>
-      </c>
-      <c r="AC94">
-        <v>0</v>
-      </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
-        <v>1.09</v>
-      </c>
-      <c r="AF94">
-        <v>7.5</v>
-      </c>
-      <c r="AG94">
-        <v>1.33</v>
-      </c>
-      <c r="AH94">
-        <v>3.2</v>
-      </c>
-      <c r="AI94">
-        <v>1.57</v>
-      </c>
-      <c r="AJ94">
-        <v>2.25</v>
-      </c>
-      <c r="AK94">
-        <v>1.05</v>
-      </c>
-      <c r="AL94">
-        <v>1.09</v>
-      </c>
-      <c r="AM94">
-        <v>3.5</v>
-      </c>
-      <c r="AN94">
-        <v>1.6</v>
-      </c>
-      <c r="AO94">
-        <v>0</v>
-      </c>
-      <c r="AP94">
-        <v>1.83</v>
-      </c>
-      <c r="AQ94">
-        <v>0</v>
-      </c>
-      <c r="AR94">
+      <c r="AW94">
+        <v>9</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>21</v>
+      </c>
+      <c r="AZ94">
+        <v>15</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>7</v>
+      </c>
+      <c r="BD94">
+        <v>2.3</v>
+      </c>
+      <c r="BE94">
+        <v>6.4</v>
+      </c>
+      <c r="BF94">
+        <v>1.75</v>
+      </c>
+      <c r="BG94">
+        <v>1.27</v>
+      </c>
+      <c r="BH94">
+        <v>3.3</v>
+      </c>
+      <c r="BI94">
+        <v>1.48</v>
+      </c>
+      <c r="BJ94">
+        <v>2.43</v>
+      </c>
+      <c r="BK94">
+        <v>1.77</v>
+      </c>
+      <c r="BL94">
+        <v>1.92</v>
+      </c>
+      <c r="BM94">
         <v>2.18</v>
       </c>
-      <c r="AS94">
-        <v>1.3</v>
-      </c>
-      <c r="AT94">
-        <v>3.48</v>
-      </c>
-      <c r="AU94">
-        <v>6</v>
-      </c>
-      <c r="AV94">
-        <v>3</v>
-      </c>
-      <c r="AW94">
-        <v>8</v>
-      </c>
-      <c r="AX94">
-        <v>6</v>
-      </c>
-      <c r="AY94">
-        <v>16</v>
-      </c>
-      <c r="AZ94">
-        <v>10</v>
-      </c>
-      <c r="BA94">
-        <v>7</v>
-      </c>
-      <c r="BB94">
-        <v>4</v>
-      </c>
-      <c r="BC94">
-        <v>11</v>
-      </c>
-      <c r="BD94">
-        <v>1.21</v>
-      </c>
-      <c r="BE94">
-        <v>8.5</v>
-      </c>
-      <c r="BF94">
-        <v>4.8</v>
-      </c>
-      <c r="BG94">
-        <v>1.21</v>
-      </c>
-      <c r="BH94">
-        <v>3.8</v>
-      </c>
-      <c r="BI94">
-        <v>1.38</v>
-      </c>
-      <c r="BJ94">
-        <v>2.7</v>
-      </c>
-      <c r="BK94">
-        <v>1.63</v>
-      </c>
-      <c r="BL94">
-        <v>2.12</v>
-      </c>
-      <c r="BM94">
-        <v>1.98</v>
-      </c>
       <c r="BN94">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="BO94">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BP94">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20413,7 +20413,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7491907</v>
+        <v>7491910</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20422,34 +20422,34 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
         <v>155</v>
@@ -20458,160 +20458,160 @@
         <v>96</v>
       </c>
       <c r="Q95">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.63</v>
+      </c>
+      <c r="V95">
+        <v>3.25</v>
+      </c>
+      <c r="W95">
+        <v>1.33</v>
+      </c>
+      <c r="X95">
+        <v>9</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>4.49</v>
+      </c>
+      <c r="AA95">
+        <v>4.23</v>
+      </c>
+      <c r="AB95">
+        <v>1.54</v>
+      </c>
+      <c r="AC95">
+        <v>1.07</v>
+      </c>
+      <c r="AD95">
+        <v>10</v>
+      </c>
+      <c r="AE95">
+        <v>1.36</v>
+      </c>
+      <c r="AF95">
+        <v>3.2</v>
+      </c>
+      <c r="AG95">
+        <v>2.07</v>
+      </c>
+      <c r="AH95">
+        <v>1.79</v>
+      </c>
+      <c r="AI95">
+        <v>1.91</v>
+      </c>
+      <c r="AJ95">
+        <v>1.91</v>
+      </c>
+      <c r="AK95">
+        <v>1.32</v>
+      </c>
+      <c r="AL95">
+        <v>1.28</v>
+      </c>
+      <c r="AM95">
+        <v>1.75</v>
+      </c>
+      <c r="AN95">
+        <v>0.4</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>0.83</v>
+      </c>
+      <c r="AQ95">
+        <v>0.83</v>
+      </c>
+      <c r="AR95">
+        <v>1.25</v>
+      </c>
+      <c r="AS95">
+        <v>1.07</v>
+      </c>
+      <c r="AT95">
+        <v>2.32</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>3</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>11</v>
+      </c>
+      <c r="AZ95">
+        <v>12</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>5</v>
+      </c>
+      <c r="BC95">
+        <v>13</v>
+      </c>
+      <c r="BD95">
+        <v>1.65</v>
+      </c>
+      <c r="BE95">
+        <v>6.5</v>
+      </c>
+      <c r="BF95">
         <v>2.5</v>
       </c>
-      <c r="S95">
-        <v>4.75</v>
-      </c>
-      <c r="T95">
+      <c r="BG95">
         <v>1.29</v>
       </c>
-      <c r="U95">
-        <v>3.5</v>
-      </c>
-      <c r="V95">
+      <c r="BH95">
+        <v>3.15</v>
+      </c>
+      <c r="BI95">
+        <v>1.5</v>
+      </c>
+      <c r="BJ95">
+        <v>2.4</v>
+      </c>
+      <c r="BK95">
+        <v>1.81</v>
+      </c>
+      <c r="BL95">
+        <v>1.88</v>
+      </c>
+      <c r="BM95">
         <v>2.25</v>
       </c>
-      <c r="W95">
-        <v>1.57</v>
-      </c>
-      <c r="X95">
-        <v>5.5</v>
-      </c>
-      <c r="Y95">
-        <v>1.14</v>
-      </c>
-      <c r="Z95">
-        <v>1.23</v>
-      </c>
-      <c r="AA95">
-        <v>5.58</v>
-      </c>
-      <c r="AB95">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AC95">
-        <v>1.02</v>
-      </c>
-      <c r="AD95">
-        <v>19</v>
-      </c>
-      <c r="AE95">
-        <v>1.18</v>
-      </c>
-      <c r="AF95">
-        <v>5</v>
-      </c>
-      <c r="AG95">
+      <c r="BN95">
         <v>1.55</v>
       </c>
-      <c r="AH95">
-        <v>2.4</v>
-      </c>
-      <c r="AI95">
-        <v>1.62</v>
-      </c>
-      <c r="AJ95">
-        <v>2.2</v>
-      </c>
-      <c r="AK95">
-        <v>1.18</v>
-      </c>
-      <c r="AL95">
-        <v>1.19</v>
-      </c>
-      <c r="AM95">
-        <v>2.35</v>
-      </c>
-      <c r="AN95">
-        <v>3</v>
-      </c>
-      <c r="AO95">
-        <v>1.4</v>
-      </c>
-      <c r="AP95">
-        <v>3</v>
-      </c>
-      <c r="AQ95">
-        <v>1.17</v>
-      </c>
-      <c r="AR95">
-        <v>1.86</v>
-      </c>
-      <c r="AS95">
-        <v>1.37</v>
-      </c>
-      <c r="AT95">
-        <v>3.23</v>
-      </c>
-      <c r="AU95">
-        <v>8</v>
-      </c>
-      <c r="AV95">
-        <v>4</v>
-      </c>
-      <c r="AW95">
-        <v>4</v>
-      </c>
-      <c r="AX95">
-        <v>2</v>
-      </c>
-      <c r="AY95">
-        <v>20</v>
-      </c>
-      <c r="AZ95">
-        <v>8</v>
-      </c>
-      <c r="BA95">
-        <v>7</v>
-      </c>
-      <c r="BB95">
-        <v>0</v>
-      </c>
-      <c r="BC95">
-        <v>7</v>
-      </c>
-      <c r="BD95">
-        <v>1.36</v>
-      </c>
-      <c r="BE95">
-        <v>7</v>
-      </c>
-      <c r="BF95">
-        <v>3.45</v>
-      </c>
-      <c r="BG95">
-        <v>1.25</v>
-      </c>
-      <c r="BH95">
-        <v>3.45</v>
-      </c>
-      <c r="BI95">
-        <v>1.44</v>
-      </c>
-      <c r="BJ95">
-        <v>2.55</v>
-      </c>
-      <c r="BK95">
-        <v>1.73</v>
-      </c>
-      <c r="BL95">
-        <v>1.97</v>
-      </c>
-      <c r="BM95">
-        <v>2.12</v>
-      </c>
-      <c r="BN95">
-        <v>1.63</v>
-      </c>
       <c r="BO95">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP95">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20619,7 +20619,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7491909</v>
+        <v>7491905</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20631,193 +20631,193 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F96">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O96" t="s">
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="Q96">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="R96">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="S96">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="T96">
+        <v>1.18</v>
+      </c>
+      <c r="U96">
+        <v>4.5</v>
+      </c>
+      <c r="V96">
+        <v>1.83</v>
+      </c>
+      <c r="W96">
+        <v>1.83</v>
+      </c>
+      <c r="X96">
+        <v>3.75</v>
+      </c>
+      <c r="Y96">
         <v>1.25</v>
       </c>
-      <c r="U96">
-        <v>3.75</v>
-      </c>
-      <c r="V96">
+      <c r="Z96">
+        <v>1.09</v>
+      </c>
+      <c r="AA96">
+        <v>8.09</v>
+      </c>
+      <c r="AB96">
+        <v>14.19</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1.09</v>
+      </c>
+      <c r="AF96">
+        <v>7.5</v>
+      </c>
+      <c r="AG96">
+        <v>1.33</v>
+      </c>
+      <c r="AH96">
+        <v>3.2</v>
+      </c>
+      <c r="AI96">
+        <v>1.57</v>
+      </c>
+      <c r="AJ96">
         <v>2.25</v>
       </c>
-      <c r="W96">
-        <v>1.57</v>
-      </c>
-      <c r="X96">
-        <v>5.5</v>
-      </c>
-      <c r="Y96">
-        <v>1.14</v>
-      </c>
-      <c r="Z96">
-        <v>1.94</v>
-      </c>
-      <c r="AA96">
-        <v>3.74</v>
-      </c>
-      <c r="AB96">
-        <v>3.06</v>
-      </c>
-      <c r="AC96">
-        <v>1.02</v>
-      </c>
-      <c r="AD96">
-        <v>19</v>
-      </c>
-      <c r="AE96">
-        <v>1.17</v>
-      </c>
-      <c r="AF96">
-        <v>5</v>
-      </c>
-      <c r="AG96">
-        <v>1.5</v>
-      </c>
-      <c r="AH96">
-        <v>2.55</v>
-      </c>
-      <c r="AI96">
-        <v>1.44</v>
-      </c>
-      <c r="AJ96">
-        <v>2.63</v>
-      </c>
       <c r="AK96">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="AL96">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AM96">
-        <v>1.35</v>
+        <v>3.5</v>
       </c>
       <c r="AN96">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR96">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="AS96">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AT96">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>3</v>
+      </c>
+      <c r="AW96">
         <v>8</v>
       </c>
-      <c r="AV96">
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>16</v>
+      </c>
+      <c r="AZ96">
+        <v>10</v>
+      </c>
+      <c r="BA96">
         <v>7</v>
       </c>
-      <c r="AW96">
-        <v>9</v>
-      </c>
-      <c r="AX96">
-        <v>5</v>
-      </c>
-      <c r="AY96">
-        <v>21</v>
-      </c>
-      <c r="AZ96">
-        <v>15</v>
-      </c>
-      <c r="BA96">
+      <c r="BB96">
         <v>4</v>
       </c>
-      <c r="BB96">
-        <v>3</v>
-      </c>
       <c r="BC96">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD96">
-        <v>2.3</v>
+        <v>1.21</v>
       </c>
       <c r="BE96">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF96">
-        <v>1.75</v>
+        <v>4.8</v>
       </c>
       <c r="BG96">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH96">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI96">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BJ96">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BK96">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="BL96">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="BM96">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BN96">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BO96">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP96">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20825,7 +20825,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7491910</v>
+        <v>7491911</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20834,34 +20834,34 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45619.47916666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F97">
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
         <v>157</v>
@@ -20870,160 +20870,160 @@
         <v>96</v>
       </c>
       <c r="Q97">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="R97">
+        <v>2.3</v>
+      </c>
+      <c r="S97">
+        <v>4.5</v>
+      </c>
+      <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>7</v>
+      </c>
+      <c r="Y97">
+        <v>1.1</v>
+      </c>
+      <c r="Z97">
+        <v>1.84</v>
+      </c>
+      <c r="AA97">
+        <v>3.26</v>
+      </c>
+      <c r="AB97">
+        <v>3.63</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>13</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>1.71</v>
+      </c>
+      <c r="AH97">
+        <v>2</v>
+      </c>
+      <c r="AI97">
+        <v>1.7</v>
+      </c>
+      <c r="AJ97">
         <v>2.05</v>
       </c>
-      <c r="S97">
+      <c r="AK97">
+        <v>1.22</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
+        <v>2</v>
+      </c>
+      <c r="AN97">
+        <v>1.8</v>
+      </c>
+      <c r="AO97">
+        <v>1.2</v>
+      </c>
+      <c r="AP97">
+        <v>2</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.65</v>
+      </c>
+      <c r="AS97">
+        <v>0.92</v>
+      </c>
+      <c r="AT97">
+        <v>2.57</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
         <v>4</v>
       </c>
-      <c r="T97">
-        <v>1.44</v>
-      </c>
-      <c r="U97">
-        <v>2.63</v>
-      </c>
-      <c r="V97">
-        <v>3.25</v>
-      </c>
-      <c r="W97">
-        <v>1.33</v>
-      </c>
-      <c r="X97">
+      <c r="AW97">
+        <v>7</v>
+      </c>
+      <c r="AX97">
+        <v>7</v>
+      </c>
+      <c r="AY97">
+        <v>16</v>
+      </c>
+      <c r="AZ97">
+        <v>16</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
         <v>9</v>
       </c>
-      <c r="Y97">
-        <v>1.07</v>
-      </c>
-      <c r="Z97">
-        <v>4.49</v>
-      </c>
-      <c r="AA97">
-        <v>4.23</v>
-      </c>
-      <c r="AB97">
-        <v>1.54</v>
-      </c>
-      <c r="AC97">
-        <v>1.07</v>
-      </c>
-      <c r="AD97">
-        <v>10</v>
-      </c>
-      <c r="AE97">
-        <v>1.36</v>
-      </c>
-      <c r="AF97">
-        <v>3.2</v>
-      </c>
-      <c r="AG97">
-        <v>2.07</v>
-      </c>
-      <c r="AH97">
-        <v>1.79</v>
-      </c>
-      <c r="AI97">
-        <v>1.91</v>
-      </c>
-      <c r="AJ97">
-        <v>1.91</v>
-      </c>
-      <c r="AK97">
-        <v>1.32</v>
-      </c>
-      <c r="AL97">
-        <v>1.28</v>
-      </c>
-      <c r="AM97">
-        <v>1.75</v>
-      </c>
-      <c r="AN97">
-        <v>0.4</v>
-      </c>
-      <c r="AO97">
-        <v>1</v>
-      </c>
-      <c r="AP97">
-        <v>0.83</v>
-      </c>
-      <c r="AQ97">
-        <v>0.83</v>
-      </c>
-      <c r="AR97">
+      <c r="BD97">
+        <v>1.6</v>
+      </c>
+      <c r="BE97">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF97">
+        <v>2.88</v>
+      </c>
+      <c r="BG97">
+        <v>1.23</v>
+      </c>
+      <c r="BH97">
+        <v>3.28</v>
+      </c>
+      <c r="BI97">
+        <v>1.47</v>
+      </c>
+      <c r="BJ97">
+        <v>2.35</v>
+      </c>
+      <c r="BK97">
+        <v>1.85</v>
+      </c>
+      <c r="BL97">
+        <v>1.85</v>
+      </c>
+      <c r="BM97">
+        <v>2.35</v>
+      </c>
+      <c r="BN97">
+        <v>1.47</v>
+      </c>
+      <c r="BO97">
+        <v>3.14</v>
+      </c>
+      <c r="BP97">
         <v>1.25</v>
-      </c>
-      <c r="AS97">
-        <v>1.07</v>
-      </c>
-      <c r="AT97">
-        <v>2.32</v>
-      </c>
-      <c r="AU97">
-        <v>6</v>
-      </c>
-      <c r="AV97">
-        <v>5</v>
-      </c>
-      <c r="AW97">
-        <v>3</v>
-      </c>
-      <c r="AX97">
-        <v>6</v>
-      </c>
-      <c r="AY97">
-        <v>11</v>
-      </c>
-      <c r="AZ97">
-        <v>12</v>
-      </c>
-      <c r="BA97">
-        <v>8</v>
-      </c>
-      <c r="BB97">
-        <v>5</v>
-      </c>
-      <c r="BC97">
-        <v>13</v>
-      </c>
-      <c r="BD97">
-        <v>1.65</v>
-      </c>
-      <c r="BE97">
-        <v>6.5</v>
-      </c>
-      <c r="BF97">
-        <v>2.5</v>
-      </c>
-      <c r="BG97">
-        <v>1.29</v>
-      </c>
-      <c r="BH97">
-        <v>3.15</v>
-      </c>
-      <c r="BI97">
-        <v>1.5</v>
-      </c>
-      <c r="BJ97">
-        <v>2.4</v>
-      </c>
-      <c r="BK97">
-        <v>1.81</v>
-      </c>
-      <c r="BL97">
-        <v>1.88</v>
-      </c>
-      <c r="BM97">
-        <v>2.25</v>
-      </c>
-      <c r="BN97">
-        <v>1.55</v>
-      </c>
-      <c r="BO97">
-        <v>2.9</v>
-      </c>
-      <c r="BP97">
-        <v>1.35</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21031,7 +21031,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7491908</v>
+        <v>7491912</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21040,196 +21040,196 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45619.60416666666</v>
+        <v>45620.47916666666</v>
       </c>
       <c r="F98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="P98" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="Q98">
+        <v>3.5</v>
+      </c>
+      <c r="R98">
+        <v>2.25</v>
+      </c>
+      <c r="S98">
+        <v>2.88</v>
+      </c>
+      <c r="T98">
+        <v>1.33</v>
+      </c>
+      <c r="U98">
+        <v>3.25</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.11</v>
+      </c>
+      <c r="Z98">
+        <v>2.98</v>
+      </c>
+      <c r="AA98">
+        <v>3.55</v>
+      </c>
+      <c r="AB98">
+        <v>2.15</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>13</v>
+      </c>
+      <c r="AE98">
+        <v>1.25</v>
+      </c>
+      <c r="AF98">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>1.75</v>
+      </c>
+      <c r="AH98">
+        <v>2.05</v>
+      </c>
+      <c r="AI98">
+        <v>1.62</v>
+      </c>
+      <c r="AJ98">
         <v>2.2</v>
       </c>
-      <c r="R98">
-        <v>2.5</v>
-      </c>
-      <c r="S98">
-        <v>4.5</v>
-      </c>
-      <c r="T98">
-        <v>1.25</v>
-      </c>
-      <c r="U98">
-        <v>3.75</v>
-      </c>
-      <c r="V98">
+      <c r="AK98">
+        <v>1.63</v>
+      </c>
+      <c r="AL98">
+        <v>1.26</v>
+      </c>
+      <c r="AM98">
+        <v>1.4</v>
+      </c>
+      <c r="AN98">
+        <v>0.6</v>
+      </c>
+      <c r="AO98">
+        <v>2</v>
+      </c>
+      <c r="AP98">
+        <v>0.5</v>
+      </c>
+      <c r="AQ98">
         <v>2.2</v>
       </c>
-      <c r="W98">
-        <v>1.62</v>
-      </c>
-      <c r="X98">
+      <c r="AR98">
+        <v>1.21</v>
+      </c>
+      <c r="AS98">
+        <v>0.99</v>
+      </c>
+      <c r="AT98">
+        <v>2.2</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
         <v>5</v>
       </c>
-      <c r="Y98">
-        <v>1.17</v>
-      </c>
-      <c r="Z98">
-        <v>1.53</v>
-      </c>
-      <c r="AA98">
-        <v>4.03</v>
-      </c>
-      <c r="AB98">
-        <v>4.48</v>
-      </c>
-      <c r="AC98">
-        <v>1.01</v>
-      </c>
-      <c r="AD98">
-        <v>21</v>
-      </c>
-      <c r="AE98">
-        <v>1.15</v>
-      </c>
-      <c r="AF98">
-        <v>5.5</v>
-      </c>
-      <c r="AG98">
-        <v>1.5</v>
-      </c>
-      <c r="AH98">
-        <v>2.55</v>
-      </c>
-      <c r="AI98">
-        <v>1.5</v>
-      </c>
-      <c r="AJ98">
-        <v>2.5</v>
-      </c>
-      <c r="AK98">
-        <v>1.2</v>
-      </c>
-      <c r="AL98">
-        <v>1.19</v>
-      </c>
-      <c r="AM98">
-        <v>2.25</v>
-      </c>
-      <c r="AN98">
-        <v>2.5</v>
-      </c>
-      <c r="AO98">
-        <v>2</v>
-      </c>
-      <c r="AP98">
-        <v>2.6</v>
-      </c>
-      <c r="AQ98">
-        <v>1.67</v>
-      </c>
-      <c r="AR98">
-        <v>1.59</v>
-      </c>
-      <c r="AS98">
-        <v>1.49</v>
-      </c>
-      <c r="AT98">
-        <v>3.08</v>
-      </c>
-      <c r="AU98">
-        <v>6</v>
-      </c>
-      <c r="AV98">
-        <v>2</v>
-      </c>
-      <c r="AW98">
-        <v>3</v>
-      </c>
-      <c r="AX98">
-        <v>4</v>
-      </c>
       <c r="AY98">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ98">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB98">
         <v>6</v>
       </c>
       <c r="BC98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD98">
-        <v>1.42</v>
+        <v>2.96</v>
       </c>
       <c r="BE98">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="BF98">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="BG98">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="BH98">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="BI98">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="BJ98">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="BK98">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="BL98">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="BM98">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="BN98">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BO98">
-        <v>2.95</v>
+        <v>2.66</v>
       </c>
       <c r="BP98">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['53', '78']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['13', '44']</t>
   </si>
   <si>
@@ -530,9 +533,6 @@
   </si>
   <si>
     <t>['17', '30', '72', '75']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -1038,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1297,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1709,7 +1709,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1915,7 +1915,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2121,7 +2121,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2202,7 +2202,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2739,7 +2739,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2945,7 +2945,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3357,7 +3357,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3563,7 +3563,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3769,7 +3769,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -3975,7 +3975,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4387,7 +4387,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5005,7 +5005,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5417,7 +5417,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5623,7 +5623,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -6447,7 +6447,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6734,7 +6734,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -7967,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -10442,7 +10442,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -12087,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ54">
         <v>2.67</v>
@@ -14150,7 +14150,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ76">
         <v>0</v>
@@ -17858,7 +17858,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -20825,7 +20825,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7491911</v>
+        <v>7491908</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20834,34 +20834,34 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45619.875</v>
+        <v>45619.60416666666</v>
       </c>
       <c r="F97">
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>157</v>
@@ -20870,160 +20870,160 @@
         <v>96</v>
       </c>
       <c r="Q97">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R97">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S97">
         <v>4.5</v>
       </c>
       <c r="T97">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V97">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W97">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y97">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z97">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="AA97">
-        <v>3.26</v>
+        <v>4.03</v>
       </c>
       <c r="AB97">
-        <v>3.63</v>
+        <v>4.48</v>
       </c>
       <c r="AC97">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD97">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE97">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AF97">
+        <v>5.5</v>
+      </c>
+      <c r="AG97">
+        <v>1.5</v>
+      </c>
+      <c r="AH97">
+        <v>2.55</v>
+      </c>
+      <c r="AI97">
+        <v>1.5</v>
+      </c>
+      <c r="AJ97">
+        <v>2.5</v>
+      </c>
+      <c r="AK97">
+        <v>1.2</v>
+      </c>
+      <c r="AL97">
+        <v>1.19</v>
+      </c>
+      <c r="AM97">
+        <v>2.25</v>
+      </c>
+      <c r="AN97">
+        <v>2.5</v>
+      </c>
+      <c r="AO97">
+        <v>2</v>
+      </c>
+      <c r="AP97">
+        <v>2.6</v>
+      </c>
+      <c r="AQ97">
+        <v>1.67</v>
+      </c>
+      <c r="AR97">
+        <v>1.59</v>
+      </c>
+      <c r="AS97">
+        <v>1.49</v>
+      </c>
+      <c r="AT97">
+        <v>3.08</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
         <v>4</v>
-      </c>
-      <c r="AG97">
-        <v>1.71</v>
-      </c>
-      <c r="AH97">
-        <v>2</v>
-      </c>
-      <c r="AI97">
-        <v>1.7</v>
-      </c>
-      <c r="AJ97">
-        <v>2.05</v>
-      </c>
-      <c r="AK97">
-        <v>1.22</v>
-      </c>
-      <c r="AL97">
-        <v>1.22</v>
-      </c>
-      <c r="AM97">
-        <v>2</v>
-      </c>
-      <c r="AN97">
-        <v>1.8</v>
-      </c>
-      <c r="AO97">
-        <v>1.2</v>
-      </c>
-      <c r="AP97">
-        <v>2</v>
-      </c>
-      <c r="AQ97">
-        <v>1</v>
-      </c>
-      <c r="AR97">
-        <v>1.65</v>
-      </c>
-      <c r="AS97">
-        <v>0.92</v>
-      </c>
-      <c r="AT97">
-        <v>2.57</v>
-      </c>
-      <c r="AU97">
-        <v>5</v>
-      </c>
-      <c r="AV97">
-        <v>4</v>
-      </c>
-      <c r="AW97">
-        <v>7</v>
-      </c>
-      <c r="AX97">
-        <v>7</v>
       </c>
       <c r="AY97">
         <v>16</v>
       </c>
       <c r="AZ97">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BA97">
         <v>5</v>
       </c>
       <c r="BB97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD97">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="BE97">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="BF97">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BG97">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH97">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="BI97">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ97">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="BK97">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BL97">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BM97">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="BN97">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="BO97">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="BP97">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21031,7 +21031,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7491912</v>
+        <v>7491911</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21040,49 +21040,49 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45620.47916666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H98" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>2</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
+        <v>158</v>
+      </c>
+      <c r="P98" t="s">
         <v>96</v>
       </c>
-      <c r="P98" t="s">
-        <v>220</v>
-      </c>
       <c r="Q98">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R98">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S98">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T98">
         <v>1.33</v>
@@ -21097,19 +21097,19 @@
         <v>1.44</v>
       </c>
       <c r="X98">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y98">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>2.98</v>
+        <v>1.84</v>
       </c>
       <c r="AA98">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="AB98">
-        <v>2.15</v>
+        <v>3.63</v>
       </c>
       <c r="AC98">
         <v>1.04</v>
@@ -21124,111 +21124,317 @@
         <v>4</v>
       </c>
       <c r="AG98">
+        <v>1.71</v>
+      </c>
+      <c r="AH98">
+        <v>2</v>
+      </c>
+      <c r="AI98">
+        <v>1.7</v>
+      </c>
+      <c r="AJ98">
+        <v>2.05</v>
+      </c>
+      <c r="AK98">
+        <v>1.22</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>2</v>
+      </c>
+      <c r="AN98">
+        <v>1.8</v>
+      </c>
+      <c r="AO98">
+        <v>1.2</v>
+      </c>
+      <c r="AP98">
+        <v>2</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.65</v>
+      </c>
+      <c r="AS98">
+        <v>0.92</v>
+      </c>
+      <c r="AT98">
+        <v>2.57</v>
+      </c>
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>7</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>16</v>
+      </c>
+      <c r="AZ98">
+        <v>16</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.6</v>
+      </c>
+      <c r="BE98">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF98">
+        <v>2.88</v>
+      </c>
+      <c r="BG98">
+        <v>1.23</v>
+      </c>
+      <c r="BH98">
+        <v>3.28</v>
+      </c>
+      <c r="BI98">
+        <v>1.47</v>
+      </c>
+      <c r="BJ98">
+        <v>2.35</v>
+      </c>
+      <c r="BK98">
+        <v>1.85</v>
+      </c>
+      <c r="BL98">
+        <v>1.85</v>
+      </c>
+      <c r="BM98">
+        <v>2.35</v>
+      </c>
+      <c r="BN98">
+        <v>1.47</v>
+      </c>
+      <c r="BO98">
+        <v>3.14</v>
+      </c>
+      <c r="BP98">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7491912</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45620.47916666666</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>96</v>
+      </c>
+      <c r="P99" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q99">
+        <v>3.5</v>
+      </c>
+      <c r="R99">
+        <v>2.25</v>
+      </c>
+      <c r="S99">
+        <v>2.88</v>
+      </c>
+      <c r="T99">
+        <v>1.33</v>
+      </c>
+      <c r="U99">
+        <v>3.25</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>6.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>2.98</v>
+      </c>
+      <c r="AA99">
+        <v>3.55</v>
+      </c>
+      <c r="AB99">
+        <v>2.15</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>13</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>4</v>
+      </c>
+      <c r="AG99">
         <v>1.75</v>
       </c>
-      <c r="AH98">
+      <c r="AH99">
         <v>2.05</v>
       </c>
-      <c r="AI98">
+      <c r="AI99">
         <v>1.62</v>
       </c>
-      <c r="AJ98">
+      <c r="AJ99">
         <v>2.2</v>
       </c>
-      <c r="AK98">
+      <c r="AK99">
         <v>1.63</v>
       </c>
-      <c r="AL98">
+      <c r="AL99">
         <v>1.26</v>
       </c>
-      <c r="AM98">
+      <c r="AM99">
         <v>1.4</v>
       </c>
-      <c r="AN98">
+      <c r="AN99">
         <v>0.6</v>
       </c>
-      <c r="AO98">
-        <v>2</v>
-      </c>
-      <c r="AP98">
+      <c r="AO99">
+        <v>2</v>
+      </c>
+      <c r="AP99">
         <v>0.5</v>
       </c>
-      <c r="AQ98">
+      <c r="AQ99">
         <v>2.2</v>
       </c>
-      <c r="AR98">
+      <c r="AR99">
         <v>1.21</v>
       </c>
-      <c r="AS98">
+      <c r="AS99">
         <v>0.99</v>
       </c>
-      <c r="AT98">
+      <c r="AT99">
         <v>2.2</v>
       </c>
-      <c r="AU98">
-        <v>3</v>
-      </c>
-      <c r="AV98">
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
         <v>8</v>
       </c>
-      <c r="AW98">
-        <v>3</v>
-      </c>
-      <c r="AX98">
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
         <v>5</v>
       </c>
-      <c r="AY98">
+      <c r="AY99">
         <v>8</v>
       </c>
-      <c r="AZ98">
+      <c r="AZ99">
         <v>19</v>
       </c>
-      <c r="BA98">
-        <v>2</v>
-      </c>
-      <c r="BB98">
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
         <v>6</v>
       </c>
-      <c r="BC98">
+      <c r="BC99">
         <v>8</v>
       </c>
-      <c r="BD98">
+      <c r="BD99">
         <v>2.96</v>
       </c>
-      <c r="BE98">
+      <c r="BE99">
         <v>6.95</v>
       </c>
-      <c r="BF98">
+      <c r="BF99">
         <v>1.65</v>
       </c>
-      <c r="BG98">
+      <c r="BG99">
         <v>1.16</v>
       </c>
-      <c r="BH98">
+      <c r="BH99">
         <v>3.95</v>
       </c>
-      <c r="BI98">
+      <c r="BI99">
         <v>1.33</v>
       </c>
-      <c r="BJ98">
+      <c r="BJ99">
         <v>2.73</v>
       </c>
-      <c r="BK98">
+      <c r="BK99">
         <v>1.61</v>
       </c>
-      <c r="BL98">
+      <c r="BL99">
         <v>2.07</v>
       </c>
-      <c r="BM98">
+      <c r="BM99">
         <v>2.07</v>
       </c>
-      <c r="BN98">
+      <c r="BN99">
         <v>1.67</v>
       </c>
-      <c r="BO98">
+      <c r="BO99">
         <v>2.66</v>
       </c>
-      <c r="BP98">
+      <c r="BP99">
         <v>1.37</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,9 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['30', '32', '52', '71', '82']</t>
+  </si>
+  <si>
     <t>['53', '78']</t>
   </si>
   <si>
@@ -674,6 +677,9 @@
   </si>
   <si>
     <t>['15', '19', '67']</t>
+  </si>
+  <si>
+    <t>['10', '21']</t>
   </si>
   <si>
     <t>['11', '37', '53']</t>
@@ -1038,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1303,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1709,7 +1715,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1915,7 +1921,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2121,7 +2127,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2327,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2739,7 +2745,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2945,7 +2951,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3026,7 +3032,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3357,7 +3363,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3563,7 +3569,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3769,7 +3775,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3975,7 +3981,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4387,7 +4393,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4465,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -5005,7 +5011,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5086,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5417,7 +5423,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5623,7 +5629,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.25</v>
@@ -5829,7 +5835,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6035,7 +6041,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6241,7 +6247,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6447,7 +6453,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6653,7 +6659,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6859,7 +6865,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7065,7 +7071,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7271,7 +7277,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7477,7 +7483,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7683,7 +7689,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8095,7 +8101,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8173,7 +8179,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8301,7 +8307,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8713,7 +8719,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9125,7 +9131,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9206,7 +9212,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9331,7 +9337,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9537,7 +9543,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9949,7 +9955,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10155,7 +10161,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10361,7 +10367,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10773,7 +10779,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10851,7 +10857,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -10979,7 +10985,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11185,7 +11191,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11391,7 +11397,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11597,7 +11603,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12009,7 +12015,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12215,7 +12221,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12421,7 +12427,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12627,7 +12633,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12705,7 +12711,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13039,7 +13045,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13245,7 +13251,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13451,7 +13457,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13532,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13863,7 +13869,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14069,7 +14075,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14275,7 +14281,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14481,7 +14487,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14893,7 +14899,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15099,7 +15105,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15305,7 +15311,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15511,7 +15517,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15717,7 +15723,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16207,7 +16213,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16541,7 +16547,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16747,7 +16753,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17034,7 +17040,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ78">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17777,7 +17783,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18189,7 +18195,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18395,7 +18401,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18601,7 +18607,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18807,7 +18813,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19425,7 +19431,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19631,7 +19637,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20249,7 +20255,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20619,7 +20625,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7491905</v>
+        <v>7491904</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20631,73 +20637,73 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H96" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O96" t="s">
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="Q96">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="R96">
         <v>3</v>
       </c>
       <c r="S96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T96">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="U96">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="V96">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X96">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Y96">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Z96">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AA96">
-        <v>8.09</v>
+        <v>5.38</v>
       </c>
       <c r="AB96">
-        <v>14.19</v>
+        <v>10.25</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -20706,118 +20712,118 @@
         <v>0</v>
       </c>
       <c r="AE96">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AF96">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG96">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AH96">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AI96">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AJ96">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AK96">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AL96">
         <v>1.09</v>
       </c>
       <c r="AM96">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AN96">
         <v>1.6</v>
       </c>
       <c r="AO96">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP96">
         <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR96">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="AS96">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AT96">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
       <c r="AU96">
+        <v>11</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>21</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
         <v>6</v>
       </c>
-      <c r="AV96">
-        <v>3</v>
-      </c>
-      <c r="AW96">
-        <v>8</v>
-      </c>
-      <c r="AX96">
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
         <v>6</v>
       </c>
-      <c r="AY96">
-        <v>16</v>
-      </c>
-      <c r="AZ96">
+      <c r="BD96">
+        <v>1.13</v>
+      </c>
+      <c r="BE96">
         <v>10</v>
       </c>
-      <c r="BA96">
-        <v>7</v>
-      </c>
-      <c r="BB96">
-        <v>4</v>
-      </c>
-      <c r="BC96">
-        <v>11</v>
-      </c>
-      <c r="BD96">
-        <v>1.21</v>
-      </c>
-      <c r="BE96">
-        <v>8.5</v>
-      </c>
       <c r="BF96">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="BG96">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BH96">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI96">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ96">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK96">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="BL96">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="BM96">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BN96">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="BO96">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BP96">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20825,7 +20831,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7491908</v>
+        <v>7491905</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20834,34 +20840,34 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45619.60416666666</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
         <v>157</v>
@@ -20870,160 +20876,160 @@
         <v>96</v>
       </c>
       <c r="Q97">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="R97">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S97">
+        <v>7</v>
+      </c>
+      <c r="T97">
+        <v>1.18</v>
+      </c>
+      <c r="U97">
         <v>4.5</v>
       </c>
-      <c r="T97">
+      <c r="V97">
+        <v>1.83</v>
+      </c>
+      <c r="W97">
+        <v>1.83</v>
+      </c>
+      <c r="X97">
+        <v>3.75</v>
+      </c>
+      <c r="Y97">
         <v>1.25</v>
       </c>
-      <c r="U97">
-        <v>3.75</v>
-      </c>
-      <c r="V97">
-        <v>2.2</v>
-      </c>
-      <c r="W97">
-        <v>1.62</v>
-      </c>
-      <c r="X97">
-        <v>5</v>
-      </c>
-      <c r="Y97">
-        <v>1.17</v>
-      </c>
       <c r="Z97">
-        <v>1.53</v>
+        <v>1.09</v>
       </c>
       <c r="AA97">
-        <v>4.03</v>
+        <v>8.09</v>
       </c>
       <c r="AB97">
-        <v>4.48</v>
+        <v>14.19</v>
       </c>
       <c r="AC97">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD97">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE97">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AF97">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG97">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AH97">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="AI97">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AK97">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="AL97">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AM97">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AN97">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP97">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR97">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="AS97">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AT97">
-        <v>3.08</v>
+        <v>3.48</v>
       </c>
       <c r="AU97">
         <v>6</v>
       </c>
       <c r="AV97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY97">
         <v>16</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC97">
         <v>11</v>
       </c>
       <c r="BD97">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="BE97">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF97">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="BG97">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="BH97">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="BI97">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="BJ97">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="BK97">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="BL97">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="BM97">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="BN97">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="BO97">
-        <v>2.95</v>
+        <v>2.48</v>
       </c>
       <c r="BP97">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21031,7 +21037,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7491911</v>
+        <v>7491908</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21040,34 +21046,34 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45619.875</v>
+        <v>45619.60416666666</v>
       </c>
       <c r="F98">
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98" t="s">
         <v>158</v>
@@ -21076,160 +21082,160 @@
         <v>96</v>
       </c>
       <c r="Q98">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R98">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S98">
         <v>4.5</v>
       </c>
       <c r="T98">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V98">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W98">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y98">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z98">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="AA98">
-        <v>3.26</v>
+        <v>4.03</v>
       </c>
       <c r="AB98">
-        <v>3.63</v>
+        <v>4.48</v>
       </c>
       <c r="AC98">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD98">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE98">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AF98">
+        <v>5.5</v>
+      </c>
+      <c r="AG98">
+        <v>1.5</v>
+      </c>
+      <c r="AH98">
+        <v>2.55</v>
+      </c>
+      <c r="AI98">
+        <v>1.5</v>
+      </c>
+      <c r="AJ98">
+        <v>2.5</v>
+      </c>
+      <c r="AK98">
+        <v>1.2</v>
+      </c>
+      <c r="AL98">
+        <v>1.19</v>
+      </c>
+      <c r="AM98">
+        <v>2.25</v>
+      </c>
+      <c r="AN98">
+        <v>2.5</v>
+      </c>
+      <c r="AO98">
+        <v>2</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>1.67</v>
+      </c>
+      <c r="AR98">
+        <v>1.59</v>
+      </c>
+      <c r="AS98">
+        <v>1.49</v>
+      </c>
+      <c r="AT98">
+        <v>3.08</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+      <c r="AW98">
+        <v>3</v>
+      </c>
+      <c r="AX98">
         <v>4</v>
-      </c>
-      <c r="AG98">
-        <v>1.71</v>
-      </c>
-      <c r="AH98">
-        <v>2</v>
-      </c>
-      <c r="AI98">
-        <v>1.7</v>
-      </c>
-      <c r="AJ98">
-        <v>2.05</v>
-      </c>
-      <c r="AK98">
-        <v>1.22</v>
-      </c>
-      <c r="AL98">
-        <v>1.22</v>
-      </c>
-      <c r="AM98">
-        <v>2</v>
-      </c>
-      <c r="AN98">
-        <v>1.8</v>
-      </c>
-      <c r="AO98">
-        <v>1.2</v>
-      </c>
-      <c r="AP98">
-        <v>2</v>
-      </c>
-      <c r="AQ98">
-        <v>1</v>
-      </c>
-      <c r="AR98">
-        <v>1.65</v>
-      </c>
-      <c r="AS98">
-        <v>0.92</v>
-      </c>
-      <c r="AT98">
-        <v>2.57</v>
-      </c>
-      <c r="AU98">
-        <v>5</v>
-      </c>
-      <c r="AV98">
-        <v>4</v>
-      </c>
-      <c r="AW98">
-        <v>7</v>
-      </c>
-      <c r="AX98">
-        <v>7</v>
       </c>
       <c r="AY98">
         <v>16</v>
       </c>
       <c r="AZ98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BA98">
         <v>5</v>
       </c>
       <c r="BB98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD98">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="BE98">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="BF98">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BG98">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH98">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="BI98">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ98">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="BK98">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BL98">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BM98">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="BN98">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="BO98">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="BP98">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21237,7 +21243,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7491912</v>
+        <v>7491911</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21246,49 +21252,49 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45620.47916666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F99">
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" t="s">
         <v>96</v>
       </c>
-      <c r="P99" t="s">
-        <v>220</v>
-      </c>
       <c r="Q99">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R99">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S99">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T99">
         <v>1.33</v>
@@ -21303,19 +21309,19 @@
         <v>1.44</v>
       </c>
       <c r="X99">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y99">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z99">
-        <v>2.98</v>
+        <v>1.84</v>
       </c>
       <c r="AA99">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="AB99">
-        <v>2.15</v>
+        <v>3.63</v>
       </c>
       <c r="AC99">
         <v>1.04</v>
@@ -21330,111 +21336,317 @@
         <v>4</v>
       </c>
       <c r="AG99">
+        <v>1.71</v>
+      </c>
+      <c r="AH99">
+        <v>2</v>
+      </c>
+      <c r="AI99">
+        <v>1.7</v>
+      </c>
+      <c r="AJ99">
+        <v>2.05</v>
+      </c>
+      <c r="AK99">
+        <v>1.22</v>
+      </c>
+      <c r="AL99">
+        <v>1.22</v>
+      </c>
+      <c r="AM99">
+        <v>2</v>
+      </c>
+      <c r="AN99">
+        <v>1.8</v>
+      </c>
+      <c r="AO99">
+        <v>1.2</v>
+      </c>
+      <c r="AP99">
+        <v>2</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>1.65</v>
+      </c>
+      <c r="AS99">
+        <v>0.92</v>
+      </c>
+      <c r="AT99">
+        <v>2.57</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>7</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>16</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>1.6</v>
+      </c>
+      <c r="BE99">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF99">
+        <v>2.88</v>
+      </c>
+      <c r="BG99">
+        <v>1.23</v>
+      </c>
+      <c r="BH99">
+        <v>3.28</v>
+      </c>
+      <c r="BI99">
+        <v>1.47</v>
+      </c>
+      <c r="BJ99">
+        <v>2.35</v>
+      </c>
+      <c r="BK99">
+        <v>1.85</v>
+      </c>
+      <c r="BL99">
+        <v>1.85</v>
+      </c>
+      <c r="BM99">
+        <v>2.35</v>
+      </c>
+      <c r="BN99">
+        <v>1.47</v>
+      </c>
+      <c r="BO99">
+        <v>3.14</v>
+      </c>
+      <c r="BP99">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7491912</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45620.47916666666</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>96</v>
+      </c>
+      <c r="P100" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q100">
+        <v>3.5</v>
+      </c>
+      <c r="R100">
+        <v>2.25</v>
+      </c>
+      <c r="S100">
+        <v>2.88</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.63</v>
+      </c>
+      <c r="W100">
+        <v>1.44</v>
+      </c>
+      <c r="X100">
+        <v>6.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>2.98</v>
+      </c>
+      <c r="AA100">
+        <v>3.55</v>
+      </c>
+      <c r="AB100">
+        <v>2.15</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>13</v>
+      </c>
+      <c r="AE100">
+        <v>1.25</v>
+      </c>
+      <c r="AF100">
+        <v>4</v>
+      </c>
+      <c r="AG100">
         <v>1.75</v>
       </c>
-      <c r="AH99">
+      <c r="AH100">
         <v>2.05</v>
       </c>
-      <c r="AI99">
+      <c r="AI100">
         <v>1.62</v>
       </c>
-      <c r="AJ99">
+      <c r="AJ100">
         <v>2.2</v>
       </c>
-      <c r="AK99">
+      <c r="AK100">
         <v>1.63</v>
       </c>
-      <c r="AL99">
+      <c r="AL100">
         <v>1.26</v>
       </c>
-      <c r="AM99">
+      <c r="AM100">
         <v>1.4</v>
       </c>
-      <c r="AN99">
+      <c r="AN100">
         <v>0.6</v>
       </c>
-      <c r="AO99">
-        <v>2</v>
-      </c>
-      <c r="AP99">
+      <c r="AO100">
+        <v>2</v>
+      </c>
+      <c r="AP100">
         <v>0.5</v>
       </c>
-      <c r="AQ99">
+      <c r="AQ100">
         <v>2.2</v>
       </c>
-      <c r="AR99">
+      <c r="AR100">
         <v>1.21</v>
       </c>
-      <c r="AS99">
+      <c r="AS100">
         <v>0.99</v>
       </c>
-      <c r="AT99">
+      <c r="AT100">
         <v>2.2</v>
       </c>
-      <c r="AU99">
-        <v>3</v>
-      </c>
-      <c r="AV99">
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
         <v>8</v>
       </c>
-      <c r="AW99">
-        <v>3</v>
-      </c>
-      <c r="AX99">
+      <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
         <v>5</v>
       </c>
-      <c r="AY99">
+      <c r="AY100">
         <v>8</v>
       </c>
-      <c r="AZ99">
+      <c r="AZ100">
         <v>19</v>
       </c>
-      <c r="BA99">
-        <v>2</v>
-      </c>
-      <c r="BB99">
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
         <v>6</v>
       </c>
-      <c r="BC99">
+      <c r="BC100">
         <v>8</v>
       </c>
-      <c r="BD99">
+      <c r="BD100">
         <v>2.96</v>
       </c>
-      <c r="BE99">
+      <c r="BE100">
         <v>6.95</v>
       </c>
-      <c r="BF99">
+      <c r="BF100">
         <v>1.65</v>
       </c>
-      <c r="BG99">
+      <c r="BG100">
         <v>1.16</v>
       </c>
-      <c r="BH99">
+      <c r="BH100">
         <v>3.95</v>
       </c>
-      <c r="BI99">
+      <c r="BI100">
         <v>1.33</v>
       </c>
-      <c r="BJ99">
+      <c r="BJ100">
         <v>2.73</v>
       </c>
-      <c r="BK99">
+      <c r="BK100">
         <v>1.61</v>
       </c>
-      <c r="BL99">
+      <c r="BL100">
         <v>2.07</v>
       </c>
-      <c r="BM99">
+      <c r="BM100">
         <v>2.07</v>
       </c>
-      <c r="BN99">
+      <c r="BN100">
         <v>1.67</v>
       </c>
-      <c r="BO99">
+      <c r="BO100">
         <v>2.66</v>
       </c>
-      <c r="BP99">
+      <c r="BP100">
         <v>1.37</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -475,6 +475,12 @@
     <t>['63', '90+3', '90+5']</t>
   </si>
   <si>
+    <t>['30', '32', '52', '71', '82']</t>
+  </si>
+  <si>
+    <t>['53', '78']</t>
+  </si>
+  <si>
     <t>['7', '40', '66', '77']</t>
   </si>
   <si>
@@ -484,12 +490,6 @@
     <t>['71']</t>
   </si>
   <si>
-    <t>['30', '32', '52', '71', '82']</t>
-  </si>
-  <si>
-    <t>['53', '78']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -676,10 +676,10 @@
     <t>['3', '42', '90']</t>
   </si>
   <si>
+    <t>['10', '21']</t>
+  </si>
+  <si>
     <t>['15', '19', '67']</t>
-  </si>
-  <si>
-    <t>['10', '21']</t>
   </si>
   <si>
     <t>['11', '37', '53']</t>
@@ -20007,7 +20007,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7491907</v>
+        <v>7491904</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20016,196 +20016,196 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O93" t="s">
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="Q93">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="R93">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S93">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="T93">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X93">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y93">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="Z93">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AA93">
-        <v>5.58</v>
+        <v>5.38</v>
       </c>
       <c r="AB93">
-        <v>8.359999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="AC93">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD93">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE93">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AF93">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AG93">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AH93">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="AI93">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AJ93">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK93">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AL93">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AM93">
-        <v>2.35</v>
+        <v>4.33</v>
       </c>
       <c r="AN93">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO93">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR93">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="AS93">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT93">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="AU93">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV93">
         <v>4</v>
       </c>
       <c r="AW93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY93">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB93">
         <v>0</v>
       </c>
       <c r="BC93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD93">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="BE93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BF93">
-        <v>3.45</v>
+        <v>6.1</v>
       </c>
       <c r="BG93">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BH93">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="BI93">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BJ93">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BK93">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="BL93">
-        <v>1.97</v>
+        <v>2.23</v>
       </c>
       <c r="BM93">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BN93">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="BO93">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="BP93">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20213,7 +20213,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7491909</v>
+        <v>7491905</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20222,196 +20222,196 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="Q94">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="R94">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="S94">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="T94">
+        <v>1.18</v>
+      </c>
+      <c r="U94">
+        <v>4.5</v>
+      </c>
+      <c r="V94">
+        <v>1.83</v>
+      </c>
+      <c r="W94">
+        <v>1.83</v>
+      </c>
+      <c r="X94">
+        <v>3.75</v>
+      </c>
+      <c r="Y94">
         <v>1.25</v>
       </c>
-      <c r="U94">
-        <v>3.75</v>
-      </c>
-      <c r="V94">
+      <c r="Z94">
+        <v>1.09</v>
+      </c>
+      <c r="AA94">
+        <v>8.09</v>
+      </c>
+      <c r="AB94">
+        <v>14.19</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1.09</v>
+      </c>
+      <c r="AF94">
+        <v>7.5</v>
+      </c>
+      <c r="AG94">
+        <v>1.33</v>
+      </c>
+      <c r="AH94">
+        <v>3.2</v>
+      </c>
+      <c r="AI94">
+        <v>1.57</v>
+      </c>
+      <c r="AJ94">
         <v>2.25</v>
       </c>
-      <c r="W94">
-        <v>1.57</v>
-      </c>
-      <c r="X94">
-        <v>5.5</v>
-      </c>
-      <c r="Y94">
-        <v>1.14</v>
-      </c>
-      <c r="Z94">
-        <v>1.94</v>
-      </c>
-      <c r="AA94">
-        <v>3.74</v>
-      </c>
-      <c r="AB94">
-        <v>3.06</v>
-      </c>
-      <c r="AC94">
-        <v>1.02</v>
-      </c>
-      <c r="AD94">
-        <v>19</v>
-      </c>
-      <c r="AE94">
-        <v>1.17</v>
-      </c>
-      <c r="AF94">
-        <v>5</v>
-      </c>
-      <c r="AG94">
-        <v>1.5</v>
-      </c>
-      <c r="AH94">
-        <v>2.55</v>
-      </c>
-      <c r="AI94">
-        <v>1.44</v>
-      </c>
-      <c r="AJ94">
-        <v>2.63</v>
-      </c>
       <c r="AK94">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="AL94">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="AM94">
-        <v>1.35</v>
+        <v>3.5</v>
       </c>
       <c r="AN94">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR94">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="AS94">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AT94">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
         <v>8</v>
       </c>
-      <c r="AV94">
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>16</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
         <v>7</v>
       </c>
-      <c r="AW94">
-        <v>9</v>
-      </c>
-      <c r="AX94">
-        <v>5</v>
-      </c>
-      <c r="AY94">
-        <v>21</v>
-      </c>
-      <c r="AZ94">
-        <v>15</v>
-      </c>
-      <c r="BA94">
+      <c r="BB94">
         <v>4</v>
       </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
       <c r="BC94">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD94">
-        <v>2.3</v>
+        <v>1.21</v>
       </c>
       <c r="BE94">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF94">
-        <v>1.75</v>
+        <v>4.8</v>
       </c>
       <c r="BG94">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH94">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI94">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BJ94">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BK94">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="BL94">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="BM94">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BN94">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BO94">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP94">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20419,7 +20419,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7491910</v>
+        <v>7491907</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20428,34 +20428,34 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F95">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O95" t="s">
         <v>155</v>
@@ -20464,160 +20464,160 @@
         <v>96</v>
       </c>
       <c r="Q95">
+        <v>2.2</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>4.75</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.23</v>
+      </c>
+      <c r="AA95">
+        <v>5.58</v>
+      </c>
+      <c r="AB95">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>19</v>
+      </c>
+      <c r="AE95">
+        <v>1.18</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+      <c r="AG95">
+        <v>1.55</v>
+      </c>
+      <c r="AH95">
+        <v>2.4</v>
+      </c>
+      <c r="AI95">
+        <v>1.62</v>
+      </c>
+      <c r="AJ95">
+        <v>2.2</v>
+      </c>
+      <c r="AK95">
+        <v>1.18</v>
+      </c>
+      <c r="AL95">
+        <v>1.19</v>
+      </c>
+      <c r="AM95">
+        <v>2.35</v>
+      </c>
+      <c r="AN95">
         <v>3</v>
       </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
+      <c r="AO95">
+        <v>1.4</v>
+      </c>
+      <c r="AP95">
+        <v>3</v>
+      </c>
+      <c r="AQ95">
+        <v>1.17</v>
+      </c>
+      <c r="AR95">
+        <v>1.86</v>
+      </c>
+      <c r="AS95">
+        <v>1.37</v>
+      </c>
+      <c r="AT95">
+        <v>3.23</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
         <v>4</v>
       </c>
-      <c r="T95">
+      <c r="AW95">
+        <v>12</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>20</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>7</v>
+      </c>
+      <c r="BD95">
+        <v>1.36</v>
+      </c>
+      <c r="BE95">
+        <v>7</v>
+      </c>
+      <c r="BF95">
+        <v>3.45</v>
+      </c>
+      <c r="BG95">
+        <v>1.25</v>
+      </c>
+      <c r="BH95">
+        <v>3.45</v>
+      </c>
+      <c r="BI95">
         <v>1.44</v>
       </c>
-      <c r="U95">
-        <v>2.63</v>
-      </c>
-      <c r="V95">
-        <v>3.25</v>
-      </c>
-      <c r="W95">
-        <v>1.33</v>
-      </c>
-      <c r="X95">
-        <v>9</v>
-      </c>
-      <c r="Y95">
-        <v>1.07</v>
-      </c>
-      <c r="Z95">
-        <v>4.49</v>
-      </c>
-      <c r="AA95">
-        <v>4.23</v>
-      </c>
-      <c r="AB95">
-        <v>1.54</v>
-      </c>
-      <c r="AC95">
-        <v>1.07</v>
-      </c>
-      <c r="AD95">
-        <v>10</v>
-      </c>
-      <c r="AE95">
-        <v>1.36</v>
-      </c>
-      <c r="AF95">
-        <v>3.2</v>
-      </c>
-      <c r="AG95">
-        <v>2.07</v>
-      </c>
-      <c r="AH95">
-        <v>1.79</v>
-      </c>
-      <c r="AI95">
-        <v>1.91</v>
-      </c>
-      <c r="AJ95">
-        <v>1.91</v>
-      </c>
-      <c r="AK95">
-        <v>1.32</v>
-      </c>
-      <c r="AL95">
-        <v>1.28</v>
-      </c>
-      <c r="AM95">
-        <v>1.75</v>
-      </c>
-      <c r="AN95">
-        <v>0.4</v>
-      </c>
-      <c r="AO95">
-        <v>1</v>
-      </c>
-      <c r="AP95">
-        <v>0.83</v>
-      </c>
-      <c r="AQ95">
-        <v>0.83</v>
-      </c>
-      <c r="AR95">
-        <v>1.25</v>
-      </c>
-      <c r="AS95">
-        <v>1.07</v>
-      </c>
-      <c r="AT95">
-        <v>2.32</v>
-      </c>
-      <c r="AU95">
-        <v>6</v>
-      </c>
-      <c r="AV95">
-        <v>5</v>
-      </c>
-      <c r="AW95">
-        <v>3</v>
-      </c>
-      <c r="AX95">
-        <v>6</v>
-      </c>
-      <c r="AY95">
-        <v>11</v>
-      </c>
-      <c r="AZ95">
-        <v>12</v>
-      </c>
-      <c r="BA95">
-        <v>8</v>
-      </c>
-      <c r="BB95">
-        <v>5</v>
-      </c>
-      <c r="BC95">
-        <v>13</v>
-      </c>
-      <c r="BD95">
-        <v>1.65</v>
-      </c>
-      <c r="BE95">
-        <v>6.5</v>
-      </c>
-      <c r="BF95">
-        <v>2.5</v>
-      </c>
-      <c r="BG95">
-        <v>1.29</v>
-      </c>
-      <c r="BH95">
-        <v>3.15</v>
-      </c>
-      <c r="BI95">
-        <v>1.5</v>
-      </c>
       <c r="BJ95">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BK95">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="BL95">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="BM95">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="BN95">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="BO95">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP95">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20625,7 +20625,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7491904</v>
+        <v>7491909</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20640,25 +20640,25 @@
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H96" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>2</v>
       </c>
       <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
         <v>4</v>
       </c>
-      <c r="L96">
-        <v>5</v>
-      </c>
       <c r="M96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N96">
         <v>7</v>
@@ -20670,160 +20670,160 @@
         <v>221</v>
       </c>
       <c r="Q96">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="R96">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="S96">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="T96">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U96">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W96">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="X96">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Y96">
+        <v>1.14</v>
+      </c>
+      <c r="Z96">
+        <v>1.94</v>
+      </c>
+      <c r="AA96">
+        <v>3.74</v>
+      </c>
+      <c r="AB96">
+        <v>3.06</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>19</v>
+      </c>
+      <c r="AE96">
+        <v>1.17</v>
+      </c>
+      <c r="AF96">
+        <v>5</v>
+      </c>
+      <c r="AG96">
+        <v>1.5</v>
+      </c>
+      <c r="AH96">
+        <v>2.55</v>
+      </c>
+      <c r="AI96">
+        <v>1.44</v>
+      </c>
+      <c r="AJ96">
+        <v>2.63</v>
+      </c>
+      <c r="AK96">
+        <v>1.78</v>
+      </c>
+      <c r="AL96">
+        <v>1.24</v>
+      </c>
+      <c r="AM96">
+        <v>1.35</v>
+      </c>
+      <c r="AN96">
         <v>1.2</v>
       </c>
-      <c r="Z96">
-        <v>1.2</v>
-      </c>
-      <c r="AA96">
-        <v>5.38</v>
-      </c>
-      <c r="AB96">
-        <v>10.25</v>
-      </c>
-      <c r="AC96">
-        <v>0</v>
-      </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-      <c r="AE96">
+      <c r="AO96">
+        <v>2</v>
+      </c>
+      <c r="AP96">
+        <v>1.5</v>
+      </c>
+      <c r="AQ96">
+        <v>1.67</v>
+      </c>
+      <c r="AR96">
+        <v>1.68</v>
+      </c>
+      <c r="AS96">
         <v>1.12</v>
       </c>
-      <c r="AF96">
-        <v>6.5</v>
-      </c>
-      <c r="AG96">
-        <v>1.36</v>
-      </c>
-      <c r="AH96">
-        <v>3.1</v>
-      </c>
-      <c r="AI96">
-        <v>1.95</v>
-      </c>
-      <c r="AJ96">
-        <v>1.8</v>
-      </c>
-      <c r="AK96">
-        <v>1.04</v>
-      </c>
-      <c r="AL96">
-        <v>1.09</v>
-      </c>
-      <c r="AM96">
-        <v>4.33</v>
-      </c>
-      <c r="AN96">
-        <v>1.6</v>
-      </c>
-      <c r="AO96">
-        <v>1.2</v>
-      </c>
-      <c r="AP96">
-        <v>1.83</v>
-      </c>
-      <c r="AQ96">
-        <v>1</v>
-      </c>
-      <c r="AR96">
-        <v>2.3</v>
-      </c>
-      <c r="AS96">
-        <v>1.36</v>
-      </c>
       <c r="AT96">
-        <v>3.66</v>
+        <v>2.8</v>
       </c>
       <c r="AU96">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV96">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW96">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AX96">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY96">
         <v>21</v>
       </c>
       <c r="AZ96">
+        <v>15</v>
+      </c>
+      <c r="BA96">
+        <v>4</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
         <v>7</v>
       </c>
-      <c r="BA96">
-        <v>6</v>
-      </c>
-      <c r="BB96">
-        <v>0</v>
-      </c>
-      <c r="BC96">
-        <v>6</v>
-      </c>
       <c r="BD96">
-        <v>1.13</v>
+        <v>2.3</v>
       </c>
       <c r="BE96">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="BF96">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
       <c r="BG96">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="BH96">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="BI96">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="BJ96">
-        <v>2.9</v>
+        <v>2.43</v>
       </c>
       <c r="BK96">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="BL96">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="BM96">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="BN96">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="BO96">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="BP96">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20831,7 +20831,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7491905</v>
+        <v>7491910</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20843,13 +20843,13 @@
         <v>45619.47916666666</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -20861,13 +20861,13 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>157</v>
@@ -20876,160 +20876,160 @@
         <v>96</v>
       </c>
       <c r="Q97">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="R97">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T97">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="U97">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="V97">
-        <v>1.83</v>
+        <v>3.25</v>
       </c>
       <c r="W97">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="X97">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>4.49</v>
+      </c>
+      <c r="AA97">
+        <v>4.23</v>
+      </c>
+      <c r="AB97">
+        <v>1.54</v>
+      </c>
+      <c r="AC97">
+        <v>1.07</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.36</v>
+      </c>
+      <c r="AF97">
+        <v>3.2</v>
+      </c>
+      <c r="AG97">
+        <v>2.07</v>
+      </c>
+      <c r="AH97">
+        <v>1.79</v>
+      </c>
+      <c r="AI97">
+        <v>1.91</v>
+      </c>
+      <c r="AJ97">
+        <v>1.91</v>
+      </c>
+      <c r="AK97">
+        <v>1.32</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>1.75</v>
+      </c>
+      <c r="AN97">
+        <v>0.4</v>
+      </c>
+      <c r="AO97">
+        <v>1</v>
+      </c>
+      <c r="AP97">
+        <v>0.83</v>
+      </c>
+      <c r="AQ97">
+        <v>0.83</v>
+      </c>
+      <c r="AR97">
         <v>1.25</v>
       </c>
-      <c r="Z97">
-        <v>1.09</v>
-      </c>
-      <c r="AA97">
-        <v>8.09</v>
-      </c>
-      <c r="AB97">
-        <v>14.19</v>
-      </c>
-      <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>1.09</v>
-      </c>
-      <c r="AF97">
-        <v>7.5</v>
-      </c>
-      <c r="AG97">
-        <v>1.33</v>
-      </c>
-      <c r="AH97">
-        <v>3.2</v>
-      </c>
-      <c r="AI97">
-        <v>1.57</v>
-      </c>
-      <c r="AJ97">
-        <v>2.25</v>
-      </c>
-      <c r="AK97">
-        <v>1.05</v>
-      </c>
-      <c r="AL97">
-        <v>1.09</v>
-      </c>
-      <c r="AM97">
-        <v>3.5</v>
-      </c>
-      <c r="AN97">
-        <v>1.6</v>
-      </c>
-      <c r="AO97">
-        <v>0</v>
-      </c>
-      <c r="AP97">
-        <v>1.83</v>
-      </c>
-      <c r="AQ97">
-        <v>0</v>
-      </c>
-      <c r="AR97">
-        <v>2.18</v>
-      </c>
       <c r="AS97">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AT97">
-        <v>3.48</v>
+        <v>2.32</v>
       </c>
       <c r="AU97">
         <v>6</v>
       </c>
       <c r="AV97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>7</v>
+      </c>
+      <c r="AY97">
+        <v>11</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
         <v>8</v>
       </c>
-      <c r="AX97">
-        <v>6</v>
-      </c>
-      <c r="AY97">
-        <v>16</v>
-      </c>
-      <c r="AZ97">
-        <v>10</v>
-      </c>
-      <c r="BA97">
-        <v>7</v>
-      </c>
       <c r="BB97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD97">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="BE97">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF97">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="BG97">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="BH97">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI97">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BJ97">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BK97">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="BL97">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BM97">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="BN97">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="BO97">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="BP97">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21243,7 +21243,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7491911</v>
+        <v>7491912</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21252,49 +21252,49 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45619.875</v>
+        <v>45620.47916666666</v>
       </c>
       <c r="F99">
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
         <v>2</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="Q99">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="R99">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S99">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="T99">
         <v>1.33</v>
@@ -21309,19 +21309,19 @@
         <v>1.44</v>
       </c>
       <c r="X99">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y99">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z99">
-        <v>1.84</v>
+        <v>2.98</v>
       </c>
       <c r="AA99">
-        <v>3.26</v>
+        <v>3.55</v>
       </c>
       <c r="AB99">
-        <v>3.63</v>
+        <v>2.15</v>
       </c>
       <c r="AC99">
         <v>1.04</v>
@@ -21336,112 +21336,112 @@
         <v>4</v>
       </c>
       <c r="AG99">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AH99">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AI99">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ99">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK99">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AL99">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM99">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AN99">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AO99">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AR99">
+        <v>1.21</v>
+      </c>
+      <c r="AS99">
+        <v>0.99</v>
+      </c>
+      <c r="AT99">
+        <v>2.2</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>8</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>8</v>
+      </c>
+      <c r="AZ99">
+        <v>19</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>6</v>
+      </c>
+      <c r="BC99">
+        <v>8</v>
+      </c>
+      <c r="BD99">
+        <v>2.96</v>
+      </c>
+      <c r="BE99">
+        <v>6.95</v>
+      </c>
+      <c r="BF99">
         <v>1.65</v>
       </c>
-      <c r="AS99">
-        <v>0.92</v>
-      </c>
-      <c r="AT99">
-        <v>2.57</v>
-      </c>
-      <c r="AU99">
-        <v>5</v>
-      </c>
-      <c r="AV99">
-        <v>4</v>
-      </c>
-      <c r="AW99">
-        <v>7</v>
-      </c>
-      <c r="AX99">
-        <v>7</v>
-      </c>
-      <c r="AY99">
-        <v>16</v>
-      </c>
-      <c r="AZ99">
-        <v>16</v>
-      </c>
-      <c r="BA99">
-        <v>5</v>
-      </c>
-      <c r="BB99">
-        <v>4</v>
-      </c>
-      <c r="BC99">
-        <v>9</v>
-      </c>
-      <c r="BD99">
-        <v>1.6</v>
-      </c>
-      <c r="BE99">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF99">
-        <v>2.88</v>
-      </c>
       <c r="BG99">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="BH99">
-        <v>3.28</v>
+        <v>3.95</v>
       </c>
       <c r="BI99">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="BJ99">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="BK99">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="BL99">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="BM99">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="BN99">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="BO99">
-        <v>3.14</v>
+        <v>2.66</v>
       </c>
       <c r="BP99">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21449,7 +21449,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7491912</v>
+        <v>7491911</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21458,49 +21458,49 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45620.47916666666</v>
+        <v>45620.5625</v>
       </c>
       <c r="F100">
         <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>2</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O100" t="s">
+        <v>159</v>
+      </c>
+      <c r="P100" t="s">
         <v>96</v>
       </c>
-      <c r="P100" t="s">
-        <v>222</v>
-      </c>
       <c r="Q100">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R100">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S100">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T100">
         <v>1.33</v>
@@ -21515,19 +21515,19 @@
         <v>1.44</v>
       </c>
       <c r="X100">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y100">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z100">
-        <v>2.98</v>
+        <v>1.84</v>
       </c>
       <c r="AA100">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="AB100">
-        <v>2.15</v>
+        <v>3.63</v>
       </c>
       <c r="AC100">
         <v>1.04</v>
@@ -21542,112 +21542,112 @@
         <v>4</v>
       </c>
       <c r="AG100">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AH100">
+        <v>2</v>
+      </c>
+      <c r="AI100">
+        <v>1.7</v>
+      </c>
+      <c r="AJ100">
         <v>2.05</v>
       </c>
-      <c r="AI100">
-        <v>1.62</v>
-      </c>
-      <c r="AJ100">
-        <v>2.2</v>
-      </c>
       <c r="AK100">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="AL100">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AM100">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AN100">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AO100">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AR100">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AS100">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="AT100">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="AU100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV100">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW100">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AX100">
+        <v>12</v>
+      </c>
+      <c r="AY100">
+        <v>16</v>
+      </c>
+      <c r="AZ100">
+        <v>16</v>
+      </c>
+      <c r="BA100">
         <v>5</v>
       </c>
-      <c r="AY100">
-        <v>8</v>
-      </c>
-      <c r="AZ100">
-        <v>19</v>
-      </c>
-      <c r="BA100">
-        <v>2</v>
-      </c>
       <c r="BB100">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC100">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD100">
-        <v>2.96</v>
+        <v>1.6</v>
       </c>
       <c r="BE100">
-        <v>6.95</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF100">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="BG100">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="BH100">
-        <v>3.95</v>
+        <v>3.28</v>
       </c>
       <c r="BI100">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="BJ100">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="BK100">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="BL100">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="BM100">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="BN100">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="BO100">
-        <v>2.66</v>
+        <v>3.14</v>
       </c>
       <c r="BP100">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,21 @@
     <t>['13', '44']</t>
   </si>
   <si>
+    <t>['25', '56', '85']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['41', '49', '62']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['6', '77']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -683,6 +698,24 @@
   </si>
   <si>
     <t>['11', '37', '53']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['2', '71']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['4', '5', '16', '64', '90+1']</t>
+  </si>
+  <si>
+    <t>['20', '85']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1336,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1384,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1587,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1715,7 +1748,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1796,7 +1829,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1921,7 +1954,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1999,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2127,7 +2160,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2205,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2333,7 +2366,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2617,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -2745,7 +2778,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2826,7 +2859,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ9">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2951,7 +2984,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3029,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3235,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3363,7 +3396,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3569,7 +3602,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3650,7 +3683,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3775,7 +3808,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3981,7 +4014,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4062,7 +4095,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4393,7 +4426,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5011,7 +5044,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5089,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5295,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21">
         <v>0.83</v>
@@ -5423,7 +5456,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5504,7 +5537,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5707,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5835,7 +5868,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6041,7 +6074,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6247,7 +6280,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6328,7 +6361,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -6453,7 +6486,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6531,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6659,7 +6692,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6865,7 +6898,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6943,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2.2</v>
@@ -7071,7 +7104,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7277,7 +7310,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7358,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR31">
         <v>0.65</v>
@@ -7483,7 +7516,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7561,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.6</v>
@@ -7689,7 +7722,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7770,7 +7803,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ33">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -7976,7 +8009,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8101,7 +8134,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8182,7 +8215,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR35">
         <v>2.58</v>
@@ -8307,7 +8340,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8591,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
         <v>1.67</v>
@@ -8719,7 +8752,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8797,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -9131,7 +9164,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9337,7 +9370,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9543,7 +9576,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9621,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9827,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
         <v>0.2</v>
@@ -9955,7 +9988,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10036,7 +10069,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10161,7 +10194,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10367,7 +10400,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10651,10 +10684,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>2.02</v>
@@ -10779,7 +10812,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10860,7 +10893,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>2.42</v>
@@ -10985,7 +11018,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11191,7 +11224,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11269,7 +11302,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50">
         <v>0.2</v>
@@ -11397,7 +11430,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11478,7 +11511,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11603,7 +11636,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11681,7 +11714,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52">
         <v>2.2</v>
@@ -12015,7 +12048,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12096,7 +12129,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ54">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12221,7 +12254,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12427,7 +12460,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12505,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12633,7 +12666,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13045,7 +13078,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13123,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ59">
         <v>0.2</v>
@@ -13251,7 +13284,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13457,7 +13490,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13869,7 +13902,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14075,7 +14108,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14281,7 +14314,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14362,7 +14395,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -14487,7 +14520,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14565,7 +14598,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>0.2</v>
@@ -14771,10 +14804,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR67">
         <v>1.52</v>
@@ -14899,7 +14932,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -14977,7 +15010,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15105,7 +15138,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15186,7 +15219,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR69">
         <v>2.2</v>
@@ -15311,7 +15344,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15392,7 +15425,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>0.6899999999999999</v>
@@ -15517,7 +15550,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15598,7 +15631,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ71">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR71">
         <v>1.42</v>
@@ -15723,7 +15756,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15801,7 +15834,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>1.67</v>
@@ -16547,7 +16580,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16753,7 +16786,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17449,7 +17482,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ80">
         <v>1.67</v>
@@ -17655,7 +17688,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
         <v>2.2</v>
@@ -17783,7 +17816,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18067,7 +18100,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83">
         <v>1.17</v>
@@ -18195,7 +18228,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18273,10 +18306,10 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18401,7 +18434,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18482,7 +18515,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR85">
         <v>0.97</v>
@@ -18607,7 +18640,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18813,7 +18846,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18894,7 +18927,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19097,10 +19130,10 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.44</v>
@@ -19303,7 +19336,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>0.6</v>
@@ -19431,7 +19464,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19637,7 +19670,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19718,7 +19751,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -20049,7 +20082,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20539,7 +20572,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ95">
         <v>1.17</v>
@@ -20667,7 +20700,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21285,7 +21318,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21648,6 +21681,1448 @@
       </c>
       <c r="BP100">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7491921</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45625.6875</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>160</v>
+      </c>
+      <c r="P101" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q101">
+        <v>2.5</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>4.5</v>
+      </c>
+      <c r="T101">
+        <v>1.36</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>7</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.75</v>
+      </c>
+      <c r="AA101">
+        <v>3.58</v>
+      </c>
+      <c r="AB101">
+        <v>4</v>
+      </c>
+      <c r="AC101">
+        <v>1.04</v>
+      </c>
+      <c r="AD101">
+        <v>12</v>
+      </c>
+      <c r="AE101">
+        <v>1.28</v>
+      </c>
+      <c r="AF101">
+        <v>3.75</v>
+      </c>
+      <c r="AG101">
+        <v>1.61</v>
+      </c>
+      <c r="AH101">
+        <v>2.1</v>
+      </c>
+      <c r="AI101">
+        <v>1.75</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.26</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.88</v>
+      </c>
+      <c r="AN101">
+        <v>0.4</v>
+      </c>
+      <c r="AO101">
+        <v>0.4</v>
+      </c>
+      <c r="AP101">
+        <v>0.83</v>
+      </c>
+      <c r="AQ101">
+        <v>0.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.26</v>
+      </c>
+      <c r="AS101">
+        <v>1.21</v>
+      </c>
+      <c r="AT101">
+        <v>2.47</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>13</v>
+      </c>
+      <c r="AZ101">
+        <v>11</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>8</v>
+      </c>
+      <c r="BD101">
+        <v>1.47</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>3.05</v>
+      </c>
+      <c r="BG101">
+        <v>1.3</v>
+      </c>
+      <c r="BH101">
+        <v>3.05</v>
+      </c>
+      <c r="BI101">
+        <v>1.53</v>
+      </c>
+      <c r="BJ101">
+        <v>2.32</v>
+      </c>
+      <c r="BK101">
+        <v>1.86</v>
+      </c>
+      <c r="BL101">
+        <v>1.82</v>
+      </c>
+      <c r="BM101">
+        <v>2.33</v>
+      </c>
+      <c r="BN101">
+        <v>1.52</v>
+      </c>
+      <c r="BO101">
+        <v>3.05</v>
+      </c>
+      <c r="BP101">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7491920</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>85</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>161</v>
+      </c>
+      <c r="P102" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q102">
+        <v>4.75</v>
+      </c>
+      <c r="R102">
+        <v>2.25</v>
+      </c>
+      <c r="S102">
+        <v>2.38</v>
+      </c>
+      <c r="T102">
+        <v>1.36</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>2.75</v>
+      </c>
+      <c r="W102">
+        <v>1.4</v>
+      </c>
+      <c r="X102">
+        <v>7</v>
+      </c>
+      <c r="Y102">
+        <v>1.1</v>
+      </c>
+      <c r="Z102">
+        <v>4.6</v>
+      </c>
+      <c r="AA102">
+        <v>4.4</v>
+      </c>
+      <c r="AB102">
+        <v>1.63</v>
+      </c>
+      <c r="AC102">
+        <v>1.04</v>
+      </c>
+      <c r="AD102">
+        <v>13</v>
+      </c>
+      <c r="AE102">
+        <v>1.28</v>
+      </c>
+      <c r="AF102">
+        <v>3.75</v>
+      </c>
+      <c r="AG102">
+        <v>1.73</v>
+      </c>
+      <c r="AH102">
+        <v>2.1</v>
+      </c>
+      <c r="AI102">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>2.1</v>
+      </c>
+      <c r="AL102">
+        <v>1.22</v>
+      </c>
+      <c r="AM102">
+        <v>1.22</v>
+      </c>
+      <c r="AN102">
+        <v>2.2</v>
+      </c>
+      <c r="AO102">
+        <v>1.8</v>
+      </c>
+      <c r="AP102">
+        <v>1.83</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.35</v>
+      </c>
+      <c r="AS102">
+        <v>1.63</v>
+      </c>
+      <c r="AT102">
+        <v>2.98</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>9</v>
+      </c>
+      <c r="AZ102">
+        <v>9</v>
+      </c>
+      <c r="BA102">
+        <v>1</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>4</v>
+      </c>
+      <c r="BD102">
+        <v>2.9</v>
+      </c>
+      <c r="BE102">
+        <v>6.75</v>
+      </c>
+      <c r="BF102">
+        <v>1.49</v>
+      </c>
+      <c r="BG102">
+        <v>1.27</v>
+      </c>
+      <c r="BH102">
+        <v>3.3</v>
+      </c>
+      <c r="BI102">
+        <v>1.48</v>
+      </c>
+      <c r="BJ102">
+        <v>2.45</v>
+      </c>
+      <c r="BK102">
+        <v>1.77</v>
+      </c>
+      <c r="BL102">
+        <v>1.92</v>
+      </c>
+      <c r="BM102">
+        <v>2.18</v>
+      </c>
+      <c r="BN102">
+        <v>1.58</v>
+      </c>
+      <c r="BO102">
+        <v>2.8</v>
+      </c>
+      <c r="BP102">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7491917</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>162</v>
+      </c>
+      <c r="P103" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q103">
+        <v>2.5</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.25</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.5</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.13</v>
+      </c>
+      <c r="Z103">
+        <v>1.83</v>
+      </c>
+      <c r="AA103">
+        <v>3.9</v>
+      </c>
+      <c r="AB103">
+        <v>3.9</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>15</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4.33</v>
+      </c>
+      <c r="AG103">
+        <v>1.55</v>
+      </c>
+      <c r="AH103">
+        <v>2.3</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.28</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>1.92</v>
+      </c>
+      <c r="AN103">
+        <v>2</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>2.17</v>
+      </c>
+      <c r="AQ103">
+        <v>0.83</v>
+      </c>
+      <c r="AR103">
+        <v>1.49</v>
+      </c>
+      <c r="AS103">
+        <v>1.44</v>
+      </c>
+      <c r="AT103">
+        <v>2.93</v>
+      </c>
+      <c r="AU103">
+        <v>9</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>3</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>19</v>
+      </c>
+      <c r="AZ103">
+        <v>16</v>
+      </c>
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>6</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>1.63</v>
+      </c>
+      <c r="BE103">
+        <v>6.75</v>
+      </c>
+      <c r="BF103">
+        <v>2.55</v>
+      </c>
+      <c r="BG103">
+        <v>1.29</v>
+      </c>
+      <c r="BH103">
+        <v>3.2</v>
+      </c>
+      <c r="BI103">
+        <v>1.5</v>
+      </c>
+      <c r="BJ103">
+        <v>2.35</v>
+      </c>
+      <c r="BK103">
+        <v>1.83</v>
+      </c>
+      <c r="BL103">
+        <v>1.85</v>
+      </c>
+      <c r="BM103">
+        <v>2.3</v>
+      </c>
+      <c r="BN103">
+        <v>1.54</v>
+      </c>
+      <c r="BO103">
+        <v>2.95</v>
+      </c>
+      <c r="BP103">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7491918</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>163</v>
+      </c>
+      <c r="P104" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q104">
+        <v>2.3</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>4.75</v>
+      </c>
+      <c r="T104">
+        <v>1.33</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>1.82</v>
+      </c>
+      <c r="AA104">
+        <v>4.2</v>
+      </c>
+      <c r="AB104">
+        <v>3.7</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>15</v>
+      </c>
+      <c r="AE104">
+        <v>1.22</v>
+      </c>
+      <c r="AF104">
+        <v>4.33</v>
+      </c>
+      <c r="AG104">
+        <v>1.68</v>
+      </c>
+      <c r="AH104">
+        <v>2.11</v>
+      </c>
+      <c r="AI104">
+        <v>1.7</v>
+      </c>
+      <c r="AJ104">
+        <v>2.05</v>
+      </c>
+      <c r="AK104">
+        <v>1.19</v>
+      </c>
+      <c r="AL104">
+        <v>1.2</v>
+      </c>
+      <c r="AM104">
+        <v>2.25</v>
+      </c>
+      <c r="AN104">
+        <v>1.83</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
+        <v>0</v>
+      </c>
+      <c r="AR104">
+        <v>1.72</v>
+      </c>
+      <c r="AS104">
+        <v>1.25</v>
+      </c>
+      <c r="AT104">
+        <v>2.97</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>2</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>17</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>6</v>
+      </c>
+      <c r="BB104">
+        <v>1</v>
+      </c>
+      <c r="BC104">
+        <v>7</v>
+      </c>
+      <c r="BD104">
+        <v>1.37</v>
+      </c>
+      <c r="BE104">
+        <v>7</v>
+      </c>
+      <c r="BF104">
+        <v>3.45</v>
+      </c>
+      <c r="BG104">
+        <v>1.26</v>
+      </c>
+      <c r="BH104">
+        <v>3.4</v>
+      </c>
+      <c r="BI104">
+        <v>1.46</v>
+      </c>
+      <c r="BJ104">
+        <v>2.5</v>
+      </c>
+      <c r="BK104">
+        <v>1.74</v>
+      </c>
+      <c r="BL104">
+        <v>1.96</v>
+      </c>
+      <c r="BM104">
+        <v>2.15</v>
+      </c>
+      <c r="BN104">
+        <v>1.61</v>
+      </c>
+      <c r="BO104">
+        <v>2.7</v>
+      </c>
+      <c r="BP104">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7491913</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" t="s">
+        <v>77</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="N105">
+        <v>6</v>
+      </c>
+      <c r="O105" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q105">
+        <v>2.2</v>
+      </c>
+      <c r="R105">
+        <v>2.4</v>
+      </c>
+      <c r="S105">
+        <v>4.75</v>
+      </c>
+      <c r="T105">
+        <v>1.29</v>
+      </c>
+      <c r="U105">
+        <v>3.5</v>
+      </c>
+      <c r="V105">
+        <v>2.38</v>
+      </c>
+      <c r="W105">
+        <v>1.53</v>
+      </c>
+      <c r="X105">
+        <v>5.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.14</v>
+      </c>
+      <c r="Z105">
+        <v>1.46</v>
+      </c>
+      <c r="AA105">
+        <v>4.75</v>
+      </c>
+      <c r="AB105">
+        <v>6.5</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>17</v>
+      </c>
+      <c r="AE105">
+        <v>1.19</v>
+      </c>
+      <c r="AF105">
+        <v>4.75</v>
+      </c>
+      <c r="AG105">
+        <v>1.57</v>
+      </c>
+      <c r="AH105">
+        <v>2.25</v>
+      </c>
+      <c r="AI105">
+        <v>1.62</v>
+      </c>
+      <c r="AJ105">
+        <v>2.2</v>
+      </c>
+      <c r="AK105">
+        <v>1.16</v>
+      </c>
+      <c r="AL105">
+        <v>1.19</v>
+      </c>
+      <c r="AM105">
+        <v>2.4</v>
+      </c>
+      <c r="AN105">
+        <v>2.2</v>
+      </c>
+      <c r="AO105">
+        <v>2</v>
+      </c>
+      <c r="AP105">
+        <v>1.83</v>
+      </c>
+      <c r="AQ105">
+        <v>2.17</v>
+      </c>
+      <c r="AR105">
+        <v>1.47</v>
+      </c>
+      <c r="AS105">
+        <v>1.32</v>
+      </c>
+      <c r="AT105">
+        <v>2.79</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>9</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>3</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>7</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>10</v>
+      </c>
+      <c r="BD105">
+        <v>1.45</v>
+      </c>
+      <c r="BE105">
+        <v>7</v>
+      </c>
+      <c r="BF105">
+        <v>3.05</v>
+      </c>
+      <c r="BG105">
+        <v>1.28</v>
+      </c>
+      <c r="BH105">
+        <v>3.2</v>
+      </c>
+      <c r="BI105">
+        <v>1.49</v>
+      </c>
+      <c r="BJ105">
+        <v>2.4</v>
+      </c>
+      <c r="BK105">
+        <v>1.81</v>
+      </c>
+      <c r="BL105">
+        <v>1.88</v>
+      </c>
+      <c r="BM105">
+        <v>2.25</v>
+      </c>
+      <c r="BN105">
+        <v>1.55</v>
+      </c>
+      <c r="BO105">
+        <v>2.9</v>
+      </c>
+      <c r="BP105">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7491916</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q106">
+        <v>3.4</v>
+      </c>
+      <c r="R106">
+        <v>2.4</v>
+      </c>
+      <c r="S106">
+        <v>2.75</v>
+      </c>
+      <c r="T106">
+        <v>1.25</v>
+      </c>
+      <c r="U106">
+        <v>3.75</v>
+      </c>
+      <c r="V106">
+        <v>2.25</v>
+      </c>
+      <c r="W106">
+        <v>1.57</v>
+      </c>
+      <c r="X106">
+        <v>5.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.14</v>
+      </c>
+      <c r="Z106">
+        <v>2.9</v>
+      </c>
+      <c r="AA106">
+        <v>4</v>
+      </c>
+      <c r="AB106">
+        <v>2.15</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>21</v>
+      </c>
+      <c r="AE106">
+        <v>1.16</v>
+      </c>
+      <c r="AF106">
+        <v>5.5</v>
+      </c>
+      <c r="AG106">
+        <v>1.48</v>
+      </c>
+      <c r="AH106">
+        <v>2.54</v>
+      </c>
+      <c r="AI106">
+        <v>1.44</v>
+      </c>
+      <c r="AJ106">
+        <v>2.63</v>
+      </c>
+      <c r="AK106">
+        <v>1.75</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>1.36</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.1</v>
+      </c>
+      <c r="AS106">
+        <v>1.02</v>
+      </c>
+      <c r="AT106">
+        <v>2.12</v>
+      </c>
+      <c r="AU106">
+        <v>7</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>10</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>21</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>11</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>2.35</v>
+      </c>
+      <c r="BE106">
+        <v>6.4</v>
+      </c>
+      <c r="BF106">
+        <v>1.73</v>
+      </c>
+      <c r="BG106">
+        <v>1.34</v>
+      </c>
+      <c r="BH106">
+        <v>2.9</v>
+      </c>
+      <c r="BI106">
+        <v>1.58</v>
+      </c>
+      <c r="BJ106">
+        <v>2.18</v>
+      </c>
+      <c r="BK106">
+        <v>1.96</v>
+      </c>
+      <c r="BL106">
+        <v>1.74</v>
+      </c>
+      <c r="BM106">
+        <v>2.48</v>
+      </c>
+      <c r="BN106">
+        <v>1.47</v>
+      </c>
+      <c r="BO106">
+        <v>3.2</v>
+      </c>
+      <c r="BP106">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7491914</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45626.60416666666</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s">
+        <v>87</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>107</v>
+      </c>
+      <c r="P107" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q107">
+        <v>4.33</v>
+      </c>
+      <c r="R107">
+        <v>2.63</v>
+      </c>
+      <c r="S107">
+        <v>2.1</v>
+      </c>
+      <c r="T107">
+        <v>1.2</v>
+      </c>
+      <c r="U107">
+        <v>4.33</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>1.73</v>
+      </c>
+      <c r="X107">
+        <v>4</v>
+      </c>
+      <c r="Y107">
+        <v>1.22</v>
+      </c>
+      <c r="Z107">
+        <v>3.57</v>
+      </c>
+      <c r="AA107">
+        <v>3.88</v>
+      </c>
+      <c r="AB107">
+        <v>1.77</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>29</v>
+      </c>
+      <c r="AE107">
+        <v>1.1</v>
+      </c>
+      <c r="AF107">
+        <v>7</v>
+      </c>
+      <c r="AG107">
+        <v>1.33</v>
+      </c>
+      <c r="AH107">
+        <v>3.2</v>
+      </c>
+      <c r="AI107">
+        <v>1.4</v>
+      </c>
+      <c r="AJ107">
+        <v>2.75</v>
+      </c>
+      <c r="AK107">
+        <v>2.25</v>
+      </c>
+      <c r="AL107">
+        <v>1.17</v>
+      </c>
+      <c r="AM107">
+        <v>1.22</v>
+      </c>
+      <c r="AN107">
+        <v>3</v>
+      </c>
+      <c r="AO107">
+        <v>2.67</v>
+      </c>
+      <c r="AP107">
+        <v>2.71</v>
+      </c>
+      <c r="AQ107">
+        <v>2.43</v>
+      </c>
+      <c r="AR107">
+        <v>1.93</v>
+      </c>
+      <c r="AS107">
+        <v>2.19</v>
+      </c>
+      <c r="AT107">
+        <v>4.12</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>1</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>15</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>5</v>
+      </c>
+      <c r="BD107">
+        <v>2.9</v>
+      </c>
+      <c r="BE107">
+        <v>6.75</v>
+      </c>
+      <c r="BF107">
+        <v>1.49</v>
+      </c>
+      <c r="BG107">
+        <v>1.3</v>
+      </c>
+      <c r="BH107">
+        <v>3.05</v>
+      </c>
+      <c r="BI107">
+        <v>1.53</v>
+      </c>
+      <c r="BJ107">
+        <v>2.32</v>
+      </c>
+      <c r="BK107">
+        <v>1.85</v>
+      </c>
+      <c r="BL107">
+        <v>1.83</v>
+      </c>
+      <c r="BM107">
+        <v>2.33</v>
+      </c>
+      <c r="BN107">
+        <v>1.52</v>
+      </c>
+      <c r="BO107">
+        <v>3.05</v>
+      </c>
+      <c r="BP107">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['6', '77']</t>
   </si>
   <si>
+    <t>['4', '24']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['22', '49', '58', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1342,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1748,7 +1754,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1954,7 +1960,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2160,7 +2166,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2366,7 +2372,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2444,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7">
         <v>0.83</v>
@@ -2653,7 +2659,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2778,7 +2784,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2984,7 +2990,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3396,7 +3402,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3602,7 +3608,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3808,7 +3814,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3889,7 +3895,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4014,7 +4020,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4426,7 +4432,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4710,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>0.2</v>
@@ -5044,7 +5050,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5456,7 +5462,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5868,7 +5874,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5949,7 +5955,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
         <v>1.03</v>
@@ -6074,7 +6080,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6280,7 +6286,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6486,7 +6492,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6692,7 +6698,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6770,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -6898,7 +6904,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7104,7 +7110,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7182,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>1.17</v>
@@ -7310,7 +7316,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7516,7 +7522,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7597,7 +7603,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.36</v>
@@ -7722,7 +7728,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8134,7 +8140,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8340,7 +8346,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8752,7 +8758,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9164,7 +9170,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9242,7 +9248,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9370,7 +9376,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9576,7 +9582,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9988,7 +9994,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10194,7 +10200,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10275,7 +10281,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10400,7 +10406,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10812,7 +10818,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11018,7 +11024,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11224,7 +11230,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11430,7 +11436,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11636,7 +11642,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11920,7 +11926,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12048,7 +12054,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12254,7 +12260,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12335,7 +12341,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>2.29</v>
@@ -12460,7 +12466,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12666,7 +12672,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12747,7 +12753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13078,7 +13084,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13284,7 +13290,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13362,7 +13368,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13490,7 +13496,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13902,7 +13908,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14108,7 +14114,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14314,7 +14320,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14392,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14520,7 +14526,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14932,7 +14938,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15138,7 +15144,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15344,7 +15350,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15550,7 +15556,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15756,7 +15762,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15837,7 +15843,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16040,10 +16046,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ73">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.3</v>
@@ -16580,7 +16586,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16786,7 +16792,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17816,7 +17822,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18228,7 +18234,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18434,7 +18440,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18640,7 +18646,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18718,7 +18724,7 @@
         <v>0.25</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86">
         <v>0.2</v>
@@ -18846,7 +18852,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19339,7 +19345,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.8</v>
@@ -19464,7 +19470,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19545,7 +19551,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ90">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR90">
         <v>2.13</v>
@@ -19670,7 +19676,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19748,7 +19754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP91">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ91">
         <v>2.17</v>
@@ -20082,7 +20088,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20700,7 +20706,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21318,7 +21324,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21730,7 +21736,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21936,7 +21942,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22142,7 +22148,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22554,7 +22560,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22760,7 +22766,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22966,7 +22972,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23123,6 +23129,418 @@
       </c>
       <c r="BP107">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7491919</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45627.47916666666</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>165</v>
+      </c>
+      <c r="P108" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q108">
+        <v>2.6</v>
+      </c>
+      <c r="R108">
+        <v>2.3</v>
+      </c>
+      <c r="S108">
+        <v>3.75</v>
+      </c>
+      <c r="T108">
+        <v>1.3</v>
+      </c>
+      <c r="U108">
+        <v>3.4</v>
+      </c>
+      <c r="V108">
+        <v>2.5</v>
+      </c>
+      <c r="W108">
+        <v>1.5</v>
+      </c>
+      <c r="X108">
+        <v>6</v>
+      </c>
+      <c r="Y108">
+        <v>1.13</v>
+      </c>
+      <c r="Z108">
+        <v>1.95</v>
+      </c>
+      <c r="AA108">
+        <v>3.78</v>
+      </c>
+      <c r="AB108">
+        <v>3.5</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>17</v>
+      </c>
+      <c r="AE108">
+        <v>1.14</v>
+      </c>
+      <c r="AF108">
+        <v>4.15</v>
+      </c>
+      <c r="AG108">
+        <v>1.65</v>
+      </c>
+      <c r="AH108">
+        <v>2.2</v>
+      </c>
+      <c r="AI108">
+        <v>1.53</v>
+      </c>
+      <c r="AJ108">
+        <v>2.38</v>
+      </c>
+      <c r="AK108">
+        <v>1.35</v>
+      </c>
+      <c r="AL108">
+        <v>1.24</v>
+      </c>
+      <c r="AM108">
+        <v>1.78</v>
+      </c>
+      <c r="AN108">
+        <v>0.83</v>
+      </c>
+      <c r="AO108">
+        <v>0.6</v>
+      </c>
+      <c r="AP108">
+        <v>1.14</v>
+      </c>
+      <c r="AQ108">
+        <v>0.5</v>
+      </c>
+      <c r="AR108">
+        <v>1.45</v>
+      </c>
+      <c r="AS108">
+        <v>1.11</v>
+      </c>
+      <c r="AT108">
+        <v>2.56</v>
+      </c>
+      <c r="AU108">
+        <v>9</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>4</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>19</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>3</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>1.54</v>
+      </c>
+      <c r="BE108">
+        <v>6.75</v>
+      </c>
+      <c r="BF108">
+        <v>2.75</v>
+      </c>
+      <c r="BG108">
+        <v>1.25</v>
+      </c>
+      <c r="BH108">
+        <v>3.4</v>
+      </c>
+      <c r="BI108">
+        <v>1.44</v>
+      </c>
+      <c r="BJ108">
+        <v>2.55</v>
+      </c>
+      <c r="BK108">
+        <v>1.72</v>
+      </c>
+      <c r="BL108">
+        <v>1.97</v>
+      </c>
+      <c r="BM108">
+        <v>2.14</v>
+      </c>
+      <c r="BN108">
+        <v>1.61</v>
+      </c>
+      <c r="BO108">
+        <v>2.7</v>
+      </c>
+      <c r="BP108">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7491915</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45627.5625</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>86</v>
+      </c>
+      <c r="H109" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>96</v>
+      </c>
+      <c r="P109" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>2.6</v>
+      </c>
+      <c r="T109">
+        <v>1.36</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>3.3</v>
+      </c>
+      <c r="AA109">
+        <v>3.6</v>
+      </c>
+      <c r="AB109">
+        <v>2.05</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>13</v>
+      </c>
+      <c r="AE109">
+        <v>1.26</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109">
+        <v>1.73</v>
+      </c>
+      <c r="AH109">
+        <v>2.1</v>
+      </c>
+      <c r="AI109">
+        <v>1.67</v>
+      </c>
+      <c r="AJ109">
+        <v>2.1</v>
+      </c>
+      <c r="AK109">
+        <v>1.83</v>
+      </c>
+      <c r="AL109">
+        <v>1.24</v>
+      </c>
+      <c r="AM109">
+        <v>1.3</v>
+      </c>
+      <c r="AN109">
+        <v>0.8</v>
+      </c>
+      <c r="AO109">
+        <v>1.67</v>
+      </c>
+      <c r="AP109">
+        <v>0.67</v>
+      </c>
+      <c r="AQ109">
+        <v>1.86</v>
+      </c>
+      <c r="AR109">
+        <v>1.42</v>
+      </c>
+      <c r="AS109">
+        <v>1.34</v>
+      </c>
+      <c r="AT109">
+        <v>2.76</v>
+      </c>
+      <c r="AU109">
+        <v>2</v>
+      </c>
+      <c r="AV109">
+        <v>9</v>
+      </c>
+      <c r="AW109">
+        <v>5</v>
+      </c>
+      <c r="AX109">
+        <v>5</v>
+      </c>
+      <c r="AY109">
+        <v>10</v>
+      </c>
+      <c r="AZ109">
+        <v>16</v>
+      </c>
+      <c r="BA109">
+        <v>6</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>2.3</v>
+      </c>
+      <c r="BE109">
+        <v>6.75</v>
+      </c>
+      <c r="BF109">
+        <v>1.75</v>
+      </c>
+      <c r="BG109">
+        <v>1.27</v>
+      </c>
+      <c r="BH109">
+        <v>3.3</v>
+      </c>
+      <c r="BI109">
+        <v>1.47</v>
+      </c>
+      <c r="BJ109">
+        <v>2.43</v>
+      </c>
+      <c r="BK109">
+        <v>1.79</v>
+      </c>
+      <c r="BL109">
+        <v>1.9</v>
+      </c>
+      <c r="BM109">
+        <v>2.23</v>
+      </c>
+      <c r="BN109">
+        <v>1.56</v>
+      </c>
+      <c r="BO109">
+        <v>2.9</v>
+      </c>
+      <c r="BP109">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['4', '24']</t>
   </si>
   <si>
+    <t>['51', '59', '69']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -722,6 +725,9 @@
   </si>
   <si>
     <t>['22', '49', '58', '90+4']</t>
+  </si>
+  <si>
+    <t>['37', '48']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1754,7 +1760,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1960,7 +1966,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2166,7 +2172,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2372,7 +2378,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2453,7 +2459,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2784,7 +2790,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2990,7 +2996,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3402,7 +3408,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3480,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2.2</v>
@@ -3608,7 +3614,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3814,7 +3820,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4020,7 +4026,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4432,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5050,7 +5056,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5337,7 +5343,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR21">
         <v>1.16</v>
@@ -5462,7 +5468,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5874,7 +5880,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6080,7 +6086,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6286,7 +6292,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6492,7 +6498,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6698,7 +6704,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6904,7 +6910,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7110,7 +7116,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7316,7 +7322,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7522,7 +7528,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7728,7 +7734,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8140,7 +8146,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8346,7 +8352,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8424,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.2</v>
@@ -8758,7 +8764,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9045,7 +9051,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9170,7 +9176,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9376,7 +9382,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9582,7 +9588,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9994,7 +10000,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10200,7 +10206,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10406,7 +10412,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10818,7 +10824,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11024,7 +11030,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11230,7 +11236,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11436,7 +11442,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11642,7 +11648,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12054,7 +12060,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12260,7 +12266,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12338,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12466,7 +12472,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12672,7 +12678,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13084,7 +13090,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13290,7 +13296,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13496,7 +13502,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13908,7 +13914,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13989,7 +13995,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR63">
         <v>1.07</v>
@@ -14114,7 +14120,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14320,7 +14326,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14526,7 +14532,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14938,7 +14944,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15144,7 +15150,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15222,7 +15228,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.33</v>
@@ -15350,7 +15356,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15556,7 +15562,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15762,7 +15768,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16461,7 +16467,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ75">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.82</v>
@@ -16586,7 +16592,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16792,7 +16798,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17822,7 +17828,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18234,7 +18240,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18440,7 +18446,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18646,7 +18652,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18852,7 +18858,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19470,7 +19476,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19548,7 +19554,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.86</v>
@@ -19676,7 +19682,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20088,7 +20094,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20372,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>0</v>
@@ -20706,7 +20712,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -20993,7 +20999,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ97">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR97">
         <v>1.25</v>
@@ -21324,7 +21330,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21736,7 +21742,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21942,7 +21948,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22148,7 +22154,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22560,7 +22566,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22766,7 +22772,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22972,7 +22978,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23384,7 +23390,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23541,6 +23547,212 @@
       </c>
       <c r="BP109">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7491923</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45632.6875</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>80</v>
+      </c>
+      <c r="H110" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q110">
+        <v>2.3</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>1.63</v>
+      </c>
+      <c r="AA110">
+        <v>4.04</v>
+      </c>
+      <c r="AB110">
+        <v>5.25</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>12</v>
+      </c>
+      <c r="AE110">
+        <v>1.28</v>
+      </c>
+      <c r="AF110">
+        <v>3.75</v>
+      </c>
+      <c r="AG110">
+        <v>1.81</v>
+      </c>
+      <c r="AH110">
+        <v>2</v>
+      </c>
+      <c r="AI110">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.18</v>
+      </c>
+      <c r="AL110">
+        <v>1.24</v>
+      </c>
+      <c r="AM110">
+        <v>2.15</v>
+      </c>
+      <c r="AN110">
+        <v>1.83</v>
+      </c>
+      <c r="AO110">
+        <v>0.83</v>
+      </c>
+      <c r="AP110">
+        <v>2</v>
+      </c>
+      <c r="AQ110">
+        <v>0.71</v>
+      </c>
+      <c r="AR110">
+        <v>2.1</v>
+      </c>
+      <c r="AS110">
+        <v>1.14</v>
+      </c>
+      <c r="AT110">
+        <v>3.24</v>
+      </c>
+      <c r="AU110">
+        <v>6</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>2</v>
+      </c>
+      <c r="AX110">
+        <v>7</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>15</v>
+      </c>
+      <c r="BA110">
+        <v>1</v>
+      </c>
+      <c r="BB110">
+        <v>6</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>1.36</v>
+      </c>
+      <c r="BE110">
+        <v>7</v>
+      </c>
+      <c r="BF110">
+        <v>3.45</v>
+      </c>
+      <c r="BG110">
+        <v>1.27</v>
+      </c>
+      <c r="BH110">
+        <v>3.3</v>
+      </c>
+      <c r="BI110">
+        <v>1.47</v>
+      </c>
+      <c r="BJ110">
+        <v>2.48</v>
+      </c>
+      <c r="BK110">
+        <v>1.75</v>
+      </c>
+      <c r="BL110">
+        <v>1.95</v>
+      </c>
+      <c r="BM110">
+        <v>2.17</v>
+      </c>
+      <c r="BN110">
+        <v>1.6</v>
+      </c>
+      <c r="BO110">
+        <v>2.7</v>
+      </c>
+      <c r="BP110">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,15 @@
     <t>['51', '59', '69']</t>
   </si>
   <si>
+    <t>['55', '74']</t>
+  </si>
+  <si>
+    <t>['18', '56', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['6', '21']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -728,6 +737,18 @@
   </si>
   <si>
     <t>['37', '48']</t>
+  </si>
+  <si>
+    <t>['27', '69']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['60', '71']</t>
+  </si>
+  <si>
+    <t>['50', '85']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1426,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1760,7 +1781,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1966,7 +1987,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2172,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2253,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2378,7 +2399,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2790,7 +2811,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2996,7 +3017,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3077,7 +3098,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3283,7 +3304,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3408,7 +3429,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3614,7 +3635,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3692,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ13">
         <v>2.17</v>
@@ -3820,7 +3841,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3898,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4026,7 +4047,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4104,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>0.83</v>
@@ -4313,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4438,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4516,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4725,7 +4746,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4928,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -5056,7 +5077,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5137,7 +5158,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5468,7 +5489,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5880,7 +5901,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6086,7 +6107,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6164,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6292,7 +6313,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6370,7 +6391,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ26">
         <v>2.43</v>
@@ -6498,7 +6519,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6579,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6704,7 +6725,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6785,7 +6806,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6910,7 +6931,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7116,7 +7137,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7322,7 +7343,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7528,7 +7549,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7734,7 +7755,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7812,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ33">
         <v>0.33</v>
@@ -8018,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>0.83</v>
@@ -8146,7 +8167,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8224,7 +8245,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>2.17</v>
@@ -8352,7 +8373,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8433,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -8639,7 +8660,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -8764,7 +8785,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9048,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9176,7 +9197,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9257,7 +9278,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9382,7 +9403,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9588,7 +9609,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9669,7 +9690,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>1.82</v>
@@ -9875,7 +9896,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>1.14</v>
@@ -10000,7 +10021,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10078,7 +10099,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10206,7 +10227,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10284,7 +10305,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -10412,7 +10433,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10493,7 +10514,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10824,7 +10845,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10902,7 +10923,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.33</v>
@@ -11030,7 +11051,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11236,7 +11257,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11317,7 +11338,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ50">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11442,7 +11463,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11520,7 +11541,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ51">
         <v>2.17</v>
@@ -11648,7 +11669,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11935,7 +11956,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12060,7 +12081,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12138,7 +12159,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
         <v>2.43</v>
@@ -12266,7 +12287,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12472,7 +12493,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12553,7 +12574,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.91</v>
@@ -12678,7 +12699,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12756,7 +12777,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.86</v>
@@ -13090,7 +13111,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13171,7 +13192,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ59">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13296,7 +13317,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13377,7 +13398,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>1.26</v>
@@ -13502,7 +13523,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13580,10 +13601,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -13786,7 +13807,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13914,7 +13935,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13992,7 +14013,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ63">
         <v>0.71</v>
@@ -14120,7 +14141,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14201,7 +14222,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -14326,7 +14347,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14532,7 +14553,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14613,7 +14634,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -14944,7 +14965,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15150,7 +15171,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15356,7 +15377,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15562,7 +15583,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15640,7 +15661,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ71">
         <v>2.43</v>
@@ -15768,7 +15789,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16258,7 +16279,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16464,7 +16485,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ75">
         <v>0.71</v>
@@ -16592,7 +16613,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16670,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>0</v>
@@ -16798,7 +16819,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16879,7 +16900,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -17082,10 +17103,10 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17291,7 +17312,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -17497,7 +17518,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ80">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR80">
         <v>1.88</v>
@@ -17828,7 +17849,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -17906,10 +17927,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18240,7 +18261,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18446,7 +18467,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18652,7 +18673,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18733,7 +18754,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -18858,7 +18879,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18936,7 +18957,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ87">
         <v>2</v>
@@ -19476,7 +19497,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19682,7 +19703,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19966,10 +19987,10 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ92">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR92">
         <v>1.83</v>
@@ -20094,7 +20115,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20172,10 +20193,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR93">
         <v>2.3</v>
@@ -20712,7 +20733,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -20793,7 +20814,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21202,10 +21223,10 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR98">
         <v>1.59</v>
@@ -21330,7 +21351,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21408,7 +21429,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ99">
         <v>2.2</v>
@@ -21614,10 +21635,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -21742,7 +21763,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21948,7 +21969,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22154,7 +22175,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22566,7 +22587,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22772,7 +22793,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22978,7 +22999,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23390,7 +23411,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23563,7 +23584,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45632.6875</v>
+        <v>45631.875</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -23596,7 +23617,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23753,6 +23774,1242 @@
       </c>
       <c r="BP110">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7491930</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s">
+        <v>71</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>96</v>
+      </c>
+      <c r="P111" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q111">
+        <v>4.75</v>
+      </c>
+      <c r="R111">
+        <v>2.5</v>
+      </c>
+      <c r="S111">
+        <v>2.1</v>
+      </c>
+      <c r="T111">
+        <v>1.25</v>
+      </c>
+      <c r="U111">
+        <v>3.75</v>
+      </c>
+      <c r="V111">
+        <v>2.2</v>
+      </c>
+      <c r="W111">
+        <v>1.62</v>
+      </c>
+      <c r="X111">
+        <v>5</v>
+      </c>
+      <c r="Y111">
+        <v>1.17</v>
+      </c>
+      <c r="Z111">
+        <v>5</v>
+      </c>
+      <c r="AA111">
+        <v>4.33</v>
+      </c>
+      <c r="AB111">
+        <v>1.57</v>
+      </c>
+      <c r="AC111">
+        <v>1.02</v>
+      </c>
+      <c r="AD111">
+        <v>21</v>
+      </c>
+      <c r="AE111">
+        <v>1.16</v>
+      </c>
+      <c r="AF111">
+        <v>5.5</v>
+      </c>
+      <c r="AG111">
+        <v>1.5</v>
+      </c>
+      <c r="AH111">
+        <v>2.48</v>
+      </c>
+      <c r="AI111">
+        <v>1.53</v>
+      </c>
+      <c r="AJ111">
+        <v>2.38</v>
+      </c>
+      <c r="AK111">
+        <v>2.25</v>
+      </c>
+      <c r="AL111">
+        <v>1.19</v>
+      </c>
+      <c r="AM111">
+        <v>1.2</v>
+      </c>
+      <c r="AN111">
+        <v>0.5</v>
+      </c>
+      <c r="AO111">
+        <v>1.67</v>
+      </c>
+      <c r="AP111">
+        <v>0.43</v>
+      </c>
+      <c r="AQ111">
+        <v>1.86</v>
+      </c>
+      <c r="AR111">
+        <v>1.13</v>
+      </c>
+      <c r="AS111">
+        <v>1.22</v>
+      </c>
+      <c r="AT111">
+        <v>2.35</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>6</v>
+      </c>
+      <c r="AX111">
+        <v>1</v>
+      </c>
+      <c r="AY111">
+        <v>18</v>
+      </c>
+      <c r="AZ111">
+        <v>10</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
+        <v>7</v>
+      </c>
+      <c r="BD111">
+        <v>2.95</v>
+      </c>
+      <c r="BE111">
+        <v>7</v>
+      </c>
+      <c r="BF111">
+        <v>1.48</v>
+      </c>
+      <c r="BG111">
+        <v>1.24</v>
+      </c>
+      <c r="BH111">
+        <v>3.55</v>
+      </c>
+      <c r="BI111">
+        <v>1.43</v>
+      </c>
+      <c r="BJ111">
+        <v>2.55</v>
+      </c>
+      <c r="BK111">
+        <v>1.71</v>
+      </c>
+      <c r="BL111">
+        <v>2</v>
+      </c>
+      <c r="BM111">
+        <v>2.08</v>
+      </c>
+      <c r="BN111">
+        <v>1.65</v>
+      </c>
+      <c r="BO111">
+        <v>2.65</v>
+      </c>
+      <c r="BP111">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7491929</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>83</v>
+      </c>
+      <c r="H112" t="s">
+        <v>84</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>96</v>
+      </c>
+      <c r="P112" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q112">
+        <v>3.4</v>
+      </c>
+      <c r="R112">
+        <v>2.38</v>
+      </c>
+      <c r="S112">
+        <v>2.75</v>
+      </c>
+      <c r="T112">
+        <v>1.3</v>
+      </c>
+      <c r="U112">
+        <v>3.4</v>
+      </c>
+      <c r="V112">
+        <v>2.38</v>
+      </c>
+      <c r="W112">
+        <v>1.53</v>
+      </c>
+      <c r="X112">
+        <v>6</v>
+      </c>
+      <c r="Y112">
+        <v>1.13</v>
+      </c>
+      <c r="Z112">
+        <v>2.8</v>
+      </c>
+      <c r="AA112">
+        <v>3.5</v>
+      </c>
+      <c r="AB112">
+        <v>2.3</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>17</v>
+      </c>
+      <c r="AE112">
+        <v>1.19</v>
+      </c>
+      <c r="AF112">
+        <v>4.75</v>
+      </c>
+      <c r="AG112">
+        <v>1.57</v>
+      </c>
+      <c r="AH112">
+        <v>2.25</v>
+      </c>
+      <c r="AI112">
+        <v>1.5</v>
+      </c>
+      <c r="AJ112">
+        <v>2.5</v>
+      </c>
+      <c r="AK112">
+        <v>1.66</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.4</v>
+      </c>
+      <c r="AN112">
+        <v>0.4</v>
+      </c>
+      <c r="AO112">
+        <v>1.67</v>
+      </c>
+      <c r="AP112">
+        <v>0.33</v>
+      </c>
+      <c r="AQ112">
+        <v>1.86</v>
+      </c>
+      <c r="AR112">
+        <v>1.23</v>
+      </c>
+      <c r="AS112">
+        <v>1.38</v>
+      </c>
+      <c r="AT112">
+        <v>2.61</v>
+      </c>
+      <c r="AU112">
+        <v>3</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+      <c r="AW112">
+        <v>7</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
+        <v>10</v>
+      </c>
+      <c r="BA112">
+        <v>9</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>14</v>
+      </c>
+      <c r="BD112">
+        <v>2.12</v>
+      </c>
+      <c r="BE112">
+        <v>6.4</v>
+      </c>
+      <c r="BF112">
+        <v>1.88</v>
+      </c>
+      <c r="BG112">
+        <v>1.26</v>
+      </c>
+      <c r="BH112">
+        <v>3.4</v>
+      </c>
+      <c r="BI112">
+        <v>1.47</v>
+      </c>
+      <c r="BJ112">
+        <v>2.48</v>
+      </c>
+      <c r="BK112">
+        <v>1.74</v>
+      </c>
+      <c r="BL112">
+        <v>1.96</v>
+      </c>
+      <c r="BM112">
+        <v>2.18</v>
+      </c>
+      <c r="BN112">
+        <v>1.58</v>
+      </c>
+      <c r="BO112">
+        <v>2.8</v>
+      </c>
+      <c r="BP112">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7491925</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>82</v>
+      </c>
+      <c r="H113" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P113" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q113">
+        <v>2.05</v>
+      </c>
+      <c r="R113">
+        <v>2.4</v>
+      </c>
+      <c r="S113">
+        <v>5.5</v>
+      </c>
+      <c r="T113">
+        <v>1.3</v>
+      </c>
+      <c r="U113">
+        <v>3.4</v>
+      </c>
+      <c r="V113">
+        <v>2.38</v>
+      </c>
+      <c r="W113">
+        <v>1.53</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.13</v>
+      </c>
+      <c r="Z113">
+        <v>1.6</v>
+      </c>
+      <c r="AA113">
+        <v>4.1</v>
+      </c>
+      <c r="AB113">
+        <v>5</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>17</v>
+      </c>
+      <c r="AE113">
+        <v>1.2</v>
+      </c>
+      <c r="AF113">
+        <v>4.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.63</v>
+      </c>
+      <c r="AH113">
+        <v>2.13</v>
+      </c>
+      <c r="AI113">
+        <v>1.7</v>
+      </c>
+      <c r="AJ113">
+        <v>2.05</v>
+      </c>
+      <c r="AK113">
+        <v>1.15</v>
+      </c>
+      <c r="AL113">
+        <v>1.19</v>
+      </c>
+      <c r="AM113">
+        <v>2.4</v>
+      </c>
+      <c r="AN113">
+        <v>2.6</v>
+      </c>
+      <c r="AO113">
+        <v>0.2</v>
+      </c>
+      <c r="AP113">
+        <v>2.33</v>
+      </c>
+      <c r="AQ113">
+        <v>0.33</v>
+      </c>
+      <c r="AR113">
+        <v>1.55</v>
+      </c>
+      <c r="AS113">
+        <v>0.85</v>
+      </c>
+      <c r="AT113">
+        <v>2.4</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>17</v>
+      </c>
+      <c r="AZ113">
+        <v>9</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>4</v>
+      </c>
+      <c r="BD113">
+        <v>1.42</v>
+      </c>
+      <c r="BE113">
+        <v>7</v>
+      </c>
+      <c r="BF113">
+        <v>3.15</v>
+      </c>
+      <c r="BG113">
+        <v>1.26</v>
+      </c>
+      <c r="BH113">
+        <v>3.4</v>
+      </c>
+      <c r="BI113">
+        <v>1.46</v>
+      </c>
+      <c r="BJ113">
+        <v>2.48</v>
+      </c>
+      <c r="BK113">
+        <v>1.74</v>
+      </c>
+      <c r="BL113">
+        <v>1.95</v>
+      </c>
+      <c r="BM113">
+        <v>2.17</v>
+      </c>
+      <c r="BN113">
+        <v>1.6</v>
+      </c>
+      <c r="BO113">
+        <v>2.75</v>
+      </c>
+      <c r="BP113">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7491924</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" t="s">
+        <v>86</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>6</v>
+      </c>
+      <c r="O114" t="s">
+        <v>168</v>
+      </c>
+      <c r="P114" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q114">
+        <v>1.4</v>
+      </c>
+      <c r="R114">
+        <v>3.4</v>
+      </c>
+      <c r="S114">
+        <v>12</v>
+      </c>
+      <c r="T114">
+        <v>1.17</v>
+      </c>
+      <c r="U114">
+        <v>5</v>
+      </c>
+      <c r="V114">
+        <v>1.83</v>
+      </c>
+      <c r="W114">
+        <v>1.83</v>
+      </c>
+      <c r="X114">
+        <v>3.75</v>
+      </c>
+      <c r="Y114">
+        <v>1.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.06</v>
+      </c>
+      <c r="AA114">
+        <v>11</v>
+      </c>
+      <c r="AB114">
+        <v>26</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>1.07</v>
+      </c>
+      <c r="AF114">
+        <v>8.5</v>
+      </c>
+      <c r="AG114">
+        <v>1.28</v>
+      </c>
+      <c r="AH114">
+        <v>3.47</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>1.02</v>
+      </c>
+      <c r="AL114">
+        <v>1.06</v>
+      </c>
+      <c r="AM114">
+        <v>6</v>
+      </c>
+      <c r="AN114">
+        <v>2.6</v>
+      </c>
+      <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>2.67</v>
+      </c>
+      <c r="AQ114">
+        <v>0.86</v>
+      </c>
+      <c r="AR114">
+        <v>2.04</v>
+      </c>
+      <c r="AS114">
+        <v>1.28</v>
+      </c>
+      <c r="AT114">
+        <v>3.32</v>
+      </c>
+      <c r="AU114">
+        <v>11</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>9</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>22</v>
+      </c>
+      <c r="AZ114">
+        <v>3</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>1.07</v>
+      </c>
+      <c r="BE114">
+        <v>11.5</v>
+      </c>
+      <c r="BF114">
+        <v>8.5</v>
+      </c>
+      <c r="BG114">
+        <v>1.3</v>
+      </c>
+      <c r="BH114">
+        <v>3.15</v>
+      </c>
+      <c r="BI114">
+        <v>1.52</v>
+      </c>
+      <c r="BJ114">
+        <v>2.33</v>
+      </c>
+      <c r="BK114">
+        <v>1.83</v>
+      </c>
+      <c r="BL114">
+        <v>1.85</v>
+      </c>
+      <c r="BM114">
+        <v>2.3</v>
+      </c>
+      <c r="BN114">
+        <v>1.53</v>
+      </c>
+      <c r="BO114">
+        <v>2.95</v>
+      </c>
+      <c r="BP114">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7491922</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>169</v>
+      </c>
+      <c r="P115" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q115">
+        <v>1.62</v>
+      </c>
+      <c r="R115">
+        <v>2.75</v>
+      </c>
+      <c r="S115">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>1.25</v>
+      </c>
+      <c r="U115">
+        <v>3.75</v>
+      </c>
+      <c r="V115">
+        <v>2.2</v>
+      </c>
+      <c r="W115">
+        <v>1.62</v>
+      </c>
+      <c r="X115">
+        <v>5</v>
+      </c>
+      <c r="Y115">
+        <v>1.17</v>
+      </c>
+      <c r="Z115">
+        <v>1.18</v>
+      </c>
+      <c r="AA115">
+        <v>6.5</v>
+      </c>
+      <c r="AB115">
+        <v>13</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>21</v>
+      </c>
+      <c r="AE115">
+        <v>1.15</v>
+      </c>
+      <c r="AF115">
+        <v>5.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.46</v>
+      </c>
+      <c r="AH115">
+        <v>2.6</v>
+      </c>
+      <c r="AI115">
+        <v>2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.75</v>
+      </c>
+      <c r="AK115">
+        <v>1.04</v>
+      </c>
+      <c r="AL115">
+        <v>1.11</v>
+      </c>
+      <c r="AM115">
+        <v>3.95</v>
+      </c>
+      <c r="AN115">
+        <v>1.83</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>0.86</v>
+      </c>
+      <c r="AR115">
+        <v>2.31</v>
+      </c>
+      <c r="AS115">
+        <v>1.06</v>
+      </c>
+      <c r="AT115">
+        <v>3.37</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>6</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.13</v>
+      </c>
+      <c r="BE115">
+        <v>9.5</v>
+      </c>
+      <c r="BF115">
+        <v>6.1</v>
+      </c>
+      <c r="BG115">
+        <v>1.29</v>
+      </c>
+      <c r="BH115">
+        <v>3.15</v>
+      </c>
+      <c r="BI115">
+        <v>1.5</v>
+      </c>
+      <c r="BJ115">
+        <v>2.4</v>
+      </c>
+      <c r="BK115">
+        <v>1.81</v>
+      </c>
+      <c r="BL115">
+        <v>1.88</v>
+      </c>
+      <c r="BM115">
+        <v>2.25</v>
+      </c>
+      <c r="BN115">
+        <v>1.56</v>
+      </c>
+      <c r="BO115">
+        <v>2.9</v>
+      </c>
+      <c r="BP115">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7491928</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45633.60416666666</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>70</v>
+      </c>
+      <c r="H116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>157</v>
+      </c>
+      <c r="P116" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q116">
+        <v>3.4</v>
+      </c>
+      <c r="R116">
+        <v>2.5</v>
+      </c>
+      <c r="S116">
+        <v>2.6</v>
+      </c>
+      <c r="T116">
+        <v>1.25</v>
+      </c>
+      <c r="U116">
+        <v>3.75</v>
+      </c>
+      <c r="V116">
+        <v>2.2</v>
+      </c>
+      <c r="W116">
+        <v>1.62</v>
+      </c>
+      <c r="X116">
+        <v>5</v>
+      </c>
+      <c r="Y116">
+        <v>1.17</v>
+      </c>
+      <c r="Z116">
+        <v>3.27</v>
+      </c>
+      <c r="AA116">
+        <v>4</v>
+      </c>
+      <c r="AB116">
+        <v>2.12</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>23</v>
+      </c>
+      <c r="AE116">
+        <v>1.15</v>
+      </c>
+      <c r="AF116">
+        <v>5.5</v>
+      </c>
+      <c r="AG116">
+        <v>1.44</v>
+      </c>
+      <c r="AH116">
+        <v>2.67</v>
+      </c>
+      <c r="AI116">
+        <v>1.4</v>
+      </c>
+      <c r="AJ116">
+        <v>2.75</v>
+      </c>
+      <c r="AK116">
+        <v>1.78</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>1.38</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0.2</v>
+      </c>
+      <c r="AP116">
+        <v>1.86</v>
+      </c>
+      <c r="AQ116">
+        <v>0.33</v>
+      </c>
+      <c r="AR116">
+        <v>1.64</v>
+      </c>
+      <c r="AS116">
+        <v>0.99</v>
+      </c>
+      <c r="AT116">
+        <v>2.63</v>
+      </c>
+      <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>8</v>
+      </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
+      <c r="AZ116">
+        <v>17</v>
+      </c>
+      <c r="BA116">
+        <v>7</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>11</v>
+      </c>
+      <c r="BD116">
+        <v>2.3</v>
+      </c>
+      <c r="BE116">
+        <v>6.5</v>
+      </c>
+      <c r="BF116">
+        <v>1.75</v>
+      </c>
+      <c r="BG116">
+        <v>1.21</v>
+      </c>
+      <c r="BH116">
+        <v>3.8</v>
+      </c>
+      <c r="BI116">
+        <v>1.38</v>
+      </c>
+      <c r="BJ116">
+        <v>2.75</v>
+      </c>
+      <c r="BK116">
+        <v>1.64</v>
+      </c>
+      <c r="BL116">
+        <v>2.1</v>
+      </c>
+      <c r="BM116">
+        <v>2</v>
+      </c>
+      <c r="BN116">
+        <v>1.71</v>
+      </c>
+      <c r="BO116">
+        <v>2.55</v>
+      </c>
+      <c r="BP116">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,12 @@
     <t>['6', '21']</t>
   </si>
   <si>
+    <t>['19', '57', '83', '90+4']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -749,6 +755,12 @@
   </si>
   <si>
     <t>['50', '85']</t>
+  </si>
+  <si>
+    <t>['11', '39', '66']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1381,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1781,7 +1793,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1859,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4">
         <v>0.33</v>
@@ -1987,7 +1999,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2193,7 +2205,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2399,7 +2411,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2811,7 +2823,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2889,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9">
         <v>2.43</v>
@@ -3017,7 +3029,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3429,7 +3441,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3510,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3635,7 +3647,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3841,7 +3853,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4047,7 +4059,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4459,7 +4471,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4952,7 +4964,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5077,7 +5089,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5489,7 +5501,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5567,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5901,7 +5913,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5979,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>1.86</v>
@@ -6107,7 +6119,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6313,7 +6325,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6519,7 +6531,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6725,7 +6737,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6931,7 +6943,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7012,7 +7024,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -7137,7 +7149,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7218,7 +7230,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7343,7 +7355,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7549,7 +7561,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7755,7 +7767,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8167,7 +8179,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8373,7 +8385,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8785,7 +8797,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9197,7 +9209,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9403,7 +9415,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9481,7 +9493,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9609,7 +9621,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10021,7 +10033,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10227,7 +10239,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10433,7 +10445,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10511,7 +10523,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
         <v>1.86</v>
@@ -10845,7 +10857,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11051,7 +11063,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11132,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11257,7 +11269,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11463,7 +11475,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11669,7 +11681,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11750,7 +11762,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ52">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12081,7 +12093,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12287,7 +12299,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12493,7 +12505,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12699,7 +12711,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12983,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -13111,7 +13123,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13317,7 +13329,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13523,7 +13535,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13935,7 +13947,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14141,7 +14153,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14219,7 +14231,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ64">
         <v>1.86</v>
@@ -14347,7 +14359,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14553,7 +14565,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14965,7 +14977,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15046,7 +15058,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15171,7 +15183,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15377,7 +15389,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15583,7 +15595,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15789,7 +15801,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16613,7 +16625,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16819,7 +16831,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16897,7 +16909,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>0.86</v>
@@ -17309,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ79">
         <v>0.33</v>
@@ -17724,7 +17736,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR81">
         <v>1.64</v>
@@ -17849,7 +17861,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18136,7 +18148,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18261,7 +18273,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18467,7 +18479,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18673,7 +18685,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18879,7 +18891,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19497,7 +19509,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19703,7 +19715,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20115,7 +20127,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20608,7 +20620,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20733,7 +20745,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -20811,7 +20823,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>1.86</v>
@@ -21017,7 +21029,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97">
         <v>0.71</v>
@@ -21351,7 +21363,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21432,7 +21444,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ99">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21763,7 +21775,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21969,7 +21981,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22175,7 +22187,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22587,7 +22599,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22793,7 +22805,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22999,7 +23011,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23411,7 +23423,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23584,7 +23596,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45631.875</v>
+        <v>45632.6875</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -23617,7 +23629,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23781,7 +23793,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7491930</v>
+        <v>7491928</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23790,49 +23802,49 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45633.47916666666</v>
+        <v>45632.875</v>
       </c>
       <c r="F111">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H111" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
         <v>1</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>1</v>
       </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>2</v>
-      </c>
       <c r="N111">
         <v>2</v>
       </c>
       <c r="O111" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="Q111">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R111">
         <v>2.5</v>
       </c>
       <c r="S111">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T111">
         <v>1.25</v>
@@ -23853,133 +23865,133 @@
         <v>1.17</v>
       </c>
       <c r="Z111">
-        <v>5</v>
+        <v>3.27</v>
       </c>
       <c r="AA111">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AB111">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="AC111">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD111">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE111">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AF111">
         <v>5.5</v>
       </c>
       <c r="AG111">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AH111">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="AI111">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AJ111">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AK111">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="AL111">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM111">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AN111">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AO111">
-        <v>1.67</v>
+        <v>0.2</v>
       </c>
       <c r="AP111">
-        <v>0.43</v>
+        <v>1.86</v>
       </c>
       <c r="AQ111">
-        <v>1.86</v>
+        <v>0.33</v>
       </c>
       <c r="AR111">
-        <v>1.13</v>
+        <v>1.64</v>
       </c>
       <c r="AS111">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="AT111">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="AU111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX111">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY111">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ111">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC111">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD111">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="BE111">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF111">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="BG111">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BH111">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BI111">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="BJ111">
+        <v>2.75</v>
+      </c>
+      <c r="BK111">
+        <v>1.64</v>
+      </c>
+      <c r="BL111">
+        <v>2.1</v>
+      </c>
+      <c r="BM111">
+        <v>2</v>
+      </c>
+      <c r="BN111">
+        <v>1.71</v>
+      </c>
+      <c r="BO111">
         <v>2.55</v>
       </c>
-      <c r="BK111">
-        <v>1.71</v>
-      </c>
-      <c r="BL111">
-        <v>2</v>
-      </c>
-      <c r="BM111">
-        <v>2.08</v>
-      </c>
-      <c r="BN111">
-        <v>1.65</v>
-      </c>
-      <c r="BO111">
-        <v>2.65</v>
-      </c>
       <c r="BP111">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23987,7 +23999,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7491929</v>
+        <v>7491930</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24002,190 +24014,190 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O112" t="s">
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R112">
+        <v>2.5</v>
+      </c>
+      <c r="S112">
+        <v>2.1</v>
+      </c>
+      <c r="T112">
+        <v>1.25</v>
+      </c>
+      <c r="U112">
+        <v>3.75</v>
+      </c>
+      <c r="V112">
+        <v>2.2</v>
+      </c>
+      <c r="W112">
+        <v>1.62</v>
+      </c>
+      <c r="X112">
+        <v>5</v>
+      </c>
+      <c r="Y112">
+        <v>1.17</v>
+      </c>
+      <c r="Z112">
+        <v>5</v>
+      </c>
+      <c r="AA112">
+        <v>4.33</v>
+      </c>
+      <c r="AB112">
+        <v>1.57</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>21</v>
+      </c>
+      <c r="AE112">
+        <v>1.16</v>
+      </c>
+      <c r="AF112">
+        <v>5.5</v>
+      </c>
+      <c r="AG112">
+        <v>1.5</v>
+      </c>
+      <c r="AH112">
+        <v>2.48</v>
+      </c>
+      <c r="AI112">
+        <v>1.53</v>
+      </c>
+      <c r="AJ112">
         <v>2.38</v>
       </c>
-      <c r="S112">
-        <v>2.75</v>
-      </c>
-      <c r="T112">
-        <v>1.3</v>
-      </c>
-      <c r="U112">
-        <v>3.4</v>
-      </c>
-      <c r="V112">
-        <v>2.38</v>
-      </c>
-      <c r="W112">
-        <v>1.53</v>
-      </c>
-      <c r="X112">
-        <v>6</v>
-      </c>
-      <c r="Y112">
-        <v>1.13</v>
-      </c>
-      <c r="Z112">
-        <v>2.8</v>
-      </c>
-      <c r="AA112">
-        <v>3.5</v>
-      </c>
-      <c r="AB112">
-        <v>2.3</v>
-      </c>
-      <c r="AC112">
-        <v>1.03</v>
-      </c>
-      <c r="AD112">
-        <v>17</v>
-      </c>
-      <c r="AE112">
+      <c r="AK112">
+        <v>2.25</v>
+      </c>
+      <c r="AL112">
         <v>1.19</v>
       </c>
-      <c r="AF112">
-        <v>4.75</v>
-      </c>
-      <c r="AG112">
-        <v>1.57</v>
-      </c>
-      <c r="AH112">
-        <v>2.25</v>
-      </c>
-      <c r="AI112">
-        <v>1.5</v>
-      </c>
-      <c r="AJ112">
-        <v>2.5</v>
-      </c>
-      <c r="AK112">
-        <v>1.66</v>
-      </c>
-      <c r="AL112">
-        <v>1.25</v>
-      </c>
       <c r="AM112">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AN112">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO112">
         <v>1.67</v>
       </c>
       <c r="AP112">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ112">
         <v>1.86</v>
       </c>
       <c r="AR112">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AS112">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT112">
-        <v>2.61</v>
+        <v>2.35</v>
       </c>
       <c r="AU112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY112">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ112">
         <v>10</v>
       </c>
       <c r="BA112">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC112">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD112">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="BE112">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF112">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
       <c r="BG112">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BH112">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BI112">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="BJ112">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK112">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="BL112">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="BM112">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BN112">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO112">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP112">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24193,7 +24205,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7491925</v>
+        <v>7491929</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24208,10 +24220,10 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -24223,28 +24235,28 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O113" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="R113">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S113">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
         <v>1.3</v>
@@ -24265,13 +24277,13 @@
         <v>1.13</v>
       </c>
       <c r="Z113">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="AA113">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB113">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="AC113">
         <v>1.03</v>
@@ -24280,88 +24292,88 @@
         <v>17</v>
       </c>
       <c r="AE113">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AF113">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AG113">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AH113">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AI113">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AJ113">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AK113">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="AL113">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM113">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AN113">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="AO113">
-        <v>0.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AQ113">
-        <v>0.33</v>
+        <v>1.86</v>
       </c>
       <c r="AR113">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="AS113">
-        <v>0.85</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>2.4</v>
+        <v>2.61</v>
       </c>
       <c r="AU113">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX113">
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
         <v>9</v>
       </c>
-      <c r="BA113">
-        <v>4</v>
-      </c>
       <c r="BB113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC113">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BD113">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="BE113">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF113">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="BG113">
         <v>1.26</v>
@@ -24370,7 +24382,7 @@
         <v>3.4</v>
       </c>
       <c r="BI113">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BJ113">
         <v>2.48</v>
@@ -24379,19 +24391,19 @@
         <v>1.74</v>
       </c>
       <c r="BL113">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BM113">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="BN113">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="BO113">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="BP113">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24399,7 +24411,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7491924</v>
+        <v>7491925</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24414,190 +24426,190 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H114" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
         <v>4</v>
       </c>
-      <c r="M114">
-        <v>2</v>
-      </c>
-      <c r="N114">
+      <c r="O114" t="s">
+        <v>167</v>
+      </c>
+      <c r="P114" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q114">
+        <v>2.05</v>
+      </c>
+      <c r="R114">
+        <v>2.4</v>
+      </c>
+      <c r="S114">
+        <v>5.5</v>
+      </c>
+      <c r="T114">
+        <v>1.3</v>
+      </c>
+      <c r="U114">
+        <v>3.4</v>
+      </c>
+      <c r="V114">
+        <v>2.38</v>
+      </c>
+      <c r="W114">
+        <v>1.53</v>
+      </c>
+      <c r="X114">
         <v>6</v>
       </c>
-      <c r="O114" t="s">
-        <v>168</v>
-      </c>
-      <c r="P114" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q114">
-        <v>1.4</v>
-      </c>
-      <c r="R114">
-        <v>3.4</v>
-      </c>
-      <c r="S114">
-        <v>12</v>
-      </c>
-      <c r="T114">
-        <v>1.17</v>
-      </c>
-      <c r="U114">
+      <c r="Y114">
+        <v>1.13</v>
+      </c>
+      <c r="Z114">
+        <v>1.6</v>
+      </c>
+      <c r="AA114">
+        <v>4.1</v>
+      </c>
+      <c r="AB114">
         <v>5</v>
       </c>
-      <c r="V114">
-        <v>1.83</v>
-      </c>
-      <c r="W114">
-        <v>1.83</v>
-      </c>
-      <c r="X114">
-        <v>3.75</v>
-      </c>
-      <c r="Y114">
-        <v>1.25</v>
-      </c>
-      <c r="Z114">
-        <v>1.06</v>
-      </c>
-      <c r="AA114">
-        <v>11</v>
-      </c>
-      <c r="AB114">
-        <v>26</v>
-      </c>
       <c r="AC114">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE114">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AF114">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG114">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="AH114">
-        <v>3.47</v>
+        <v>2.13</v>
       </c>
       <c r="AI114">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AJ114">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AK114">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AL114">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AM114">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="AN114">
         <v>2.6</v>
       </c>
       <c r="AO114">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AR114">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="AS114">
-        <v>1.28</v>
+        <v>0.85</v>
       </c>
       <c r="AT114">
-        <v>3.32</v>
+        <v>2.4</v>
       </c>
       <c r="AU114">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW114">
+        <v>6</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>17</v>
+      </c>
+      <c r="AZ114">
         <v>9</v>
       </c>
-      <c r="AX114">
-        <v>0</v>
-      </c>
-      <c r="AY114">
-        <v>22</v>
-      </c>
-      <c r="AZ114">
-        <v>3</v>
-      </c>
       <c r="BA114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB114">
         <v>0</v>
       </c>
       <c r="BC114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BD114">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="BE114">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="BF114">
-        <v>8.5</v>
+        <v>3.15</v>
       </c>
       <c r="BG114">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH114">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI114">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="BJ114">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="BK114">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="BL114">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BM114">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BN114">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BO114">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BP114">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24605,7 +24617,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7491922</v>
+        <v>7491924</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24620,88 +24632,88 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H115" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="Q115">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="R115">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="S115">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T115">
+        <v>1.17</v>
+      </c>
+      <c r="U115">
+        <v>5</v>
+      </c>
+      <c r="V115">
+        <v>1.83</v>
+      </c>
+      <c r="W115">
+        <v>1.83</v>
+      </c>
+      <c r="X115">
+        <v>3.75</v>
+      </c>
+      <c r="Y115">
         <v>1.25</v>
       </c>
-      <c r="U115">
-        <v>3.75</v>
-      </c>
-      <c r="V115">
-        <v>2.2</v>
-      </c>
-      <c r="W115">
-        <v>1.62</v>
-      </c>
-      <c r="X115">
-        <v>5</v>
-      </c>
-      <c r="Y115">
-        <v>1.17</v>
-      </c>
       <c r="Z115">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AA115">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AB115">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AC115">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD115">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE115">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AF115">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG115">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AH115">
-        <v>2.6</v>
+        <v>3.47</v>
       </c>
       <c r="AI115">
         <v>2</v>
@@ -24710,100 +24722,100 @@
         <v>1.75</v>
       </c>
       <c r="AK115">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AL115">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AM115">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="AN115">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AQ115">
         <v>0.86</v>
       </c>
       <c r="AR115">
-        <v>2.31</v>
+        <v>2.04</v>
       </c>
       <c r="AS115">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AT115">
-        <v>3.37</v>
+        <v>3.32</v>
       </c>
       <c r="AU115">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AV115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY115">
+        <v>22</v>
+      </c>
+      <c r="AZ115">
+        <v>3</v>
+      </c>
+      <c r="BA115">
         <v>8</v>
       </c>
-      <c r="AZ115">
-        <v>13</v>
-      </c>
-      <c r="BA115">
-        <v>7</v>
-      </c>
       <c r="BB115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD115">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="BE115">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="BF115">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="BG115">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BH115">
         <v>3.15</v>
       </c>
       <c r="BI115">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BJ115">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BK115">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="BL115">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BM115">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="BN115">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BO115">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BP115">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24811,7 +24823,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7491928</v>
+        <v>7491922</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24820,49 +24832,49 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45633.60416666666</v>
+        <v>45633.47916666666</v>
       </c>
       <c r="F116">
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116">
         <v>1</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O116" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="Q116">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="R116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S116">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="T116">
         <v>1.25</v>
@@ -24883,19 +24895,19 @@
         <v>1.17</v>
       </c>
       <c r="Z116">
-        <v>3.27</v>
+        <v>1.18</v>
       </c>
       <c r="AA116">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AB116">
-        <v>2.12</v>
+        <v>13</v>
       </c>
       <c r="AC116">
         <v>1.01</v>
       </c>
       <c r="AD116">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE116">
         <v>1.15</v>
@@ -24904,64 +24916,64 @@
         <v>5.5</v>
       </c>
       <c r="AG116">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AH116">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AI116">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AJ116">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="AK116">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="AL116">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AM116">
-        <v>1.38</v>
+        <v>3.95</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO116">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AR116">
-        <v>1.64</v>
+        <v>2.31</v>
       </c>
       <c r="AS116">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="AT116">
-        <v>2.63</v>
+        <v>3.37</v>
       </c>
       <c r="AU116">
         <v>4</v>
       </c>
       <c r="AV116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX116">
+        <v>6</v>
+      </c>
+      <c r="AY116">
         <v>8</v>
       </c>
-      <c r="AY116">
-        <v>10</v>
-      </c>
       <c r="AZ116">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA116">
         <v>7</v>
@@ -24973,43 +24985,455 @@
         <v>11</v>
       </c>
       <c r="BD116">
-        <v>2.3</v>
+        <v>1.13</v>
       </c>
       <c r="BE116">
+        <v>9.5</v>
+      </c>
+      <c r="BF116">
+        <v>6.1</v>
+      </c>
+      <c r="BG116">
+        <v>1.29</v>
+      </c>
+      <c r="BH116">
+        <v>3.15</v>
+      </c>
+      <c r="BI116">
+        <v>1.5</v>
+      </c>
+      <c r="BJ116">
+        <v>2.4</v>
+      </c>
+      <c r="BK116">
+        <v>1.81</v>
+      </c>
+      <c r="BL116">
+        <v>1.88</v>
+      </c>
+      <c r="BM116">
+        <v>2.25</v>
+      </c>
+      <c r="BN116">
+        <v>1.56</v>
+      </c>
+      <c r="BO116">
+        <v>2.9</v>
+      </c>
+      <c r="BP116">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7491927</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45634.47916666666</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>7</v>
+      </c>
+      <c r="O117" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q117">
+        <v>2.75</v>
+      </c>
+      <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>3.75</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>1.93</v>
+      </c>
+      <c r="AA117">
+        <v>3.3</v>
+      </c>
+      <c r="AB117">
+        <v>3.2</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>12</v>
+      </c>
+      <c r="AE117">
+        <v>1.3</v>
+      </c>
+      <c r="AF117">
+        <v>3.6</v>
+      </c>
+      <c r="AG117">
+        <v>1.73</v>
+      </c>
+      <c r="AH117">
+        <v>1.98</v>
+      </c>
+      <c r="AI117">
+        <v>1.67</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.3</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.83</v>
+      </c>
+      <c r="AN117">
+        <v>0.83</v>
+      </c>
+      <c r="AO117">
+        <v>2.2</v>
+      </c>
+      <c r="AP117">
+        <v>1.14</v>
+      </c>
+      <c r="AQ117">
+        <v>1.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.29</v>
+      </c>
+      <c r="AS117">
+        <v>1.14</v>
+      </c>
+      <c r="AT117">
+        <v>2.43</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>6</v>
+      </c>
+      <c r="AW117">
+        <v>3</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>14</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>1.72</v>
+      </c>
+      <c r="BE117">
         <v>6.5</v>
       </c>
-      <c r="BF116">
-        <v>1.75</v>
-      </c>
-      <c r="BG116">
-        <v>1.21</v>
-      </c>
-      <c r="BH116">
-        <v>3.8</v>
-      </c>
-      <c r="BI116">
-        <v>1.38</v>
-      </c>
-      <c r="BJ116">
-        <v>2.75</v>
-      </c>
-      <c r="BK116">
-        <v>1.64</v>
-      </c>
-      <c r="BL116">
-        <v>2.1</v>
-      </c>
-      <c r="BM116">
-        <v>2</v>
-      </c>
-      <c r="BN116">
-        <v>1.71</v>
-      </c>
-      <c r="BO116">
-        <v>2.55</v>
-      </c>
-      <c r="BP116">
+      <c r="BF117">
+        <v>2.33</v>
+      </c>
+      <c r="BG117">
+        <v>1.27</v>
+      </c>
+      <c r="BH117">
+        <v>3.3</v>
+      </c>
+      <c r="BI117">
+        <v>1.47</v>
+      </c>
+      <c r="BJ117">
+        <v>2.48</v>
+      </c>
+      <c r="BK117">
+        <v>1.76</v>
+      </c>
+      <c r="BL117">
+        <v>1.94</v>
+      </c>
+      <c r="BM117">
+        <v>2.18</v>
+      </c>
+      <c r="BN117">
+        <v>1.58</v>
+      </c>
+      <c r="BO117">
+        <v>2.8</v>
+      </c>
+      <c r="BP117">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7491926</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45634.5625</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" t="s">
+        <v>73</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>171</v>
+      </c>
+      <c r="P118" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q118">
+        <v>3.2</v>
+      </c>
+      <c r="R118">
+        <v>2.25</v>
+      </c>
+      <c r="S118">
+        <v>3.1</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.63</v>
+      </c>
+      <c r="W118">
         <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>2.5</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>2.62</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>13</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>4.33</v>
+      </c>
+      <c r="AG118">
+        <v>1.65</v>
+      </c>
+      <c r="AH118">
+        <v>2.2</v>
+      </c>
+      <c r="AI118">
+        <v>1.53</v>
+      </c>
+      <c r="AJ118">
+        <v>2.38</v>
+      </c>
+      <c r="AK118">
+        <v>1.48</v>
+      </c>
+      <c r="AL118">
+        <v>1.26</v>
+      </c>
+      <c r="AM118">
+        <v>1.55</v>
+      </c>
+      <c r="AN118">
+        <v>1.5</v>
+      </c>
+      <c r="AO118">
+        <v>1.17</v>
+      </c>
+      <c r="AP118">
+        <v>1.43</v>
+      </c>
+      <c r="AQ118">
+        <v>1.14</v>
+      </c>
+      <c r="AR118">
+        <v>1.77</v>
+      </c>
+      <c r="AS118">
+        <v>1.3</v>
+      </c>
+      <c r="AT118">
+        <v>3.07</v>
+      </c>
+      <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>6</v>
+      </c>
+      <c r="AX118">
+        <v>4</v>
+      </c>
+      <c r="AY118">
+        <v>16</v>
+      </c>
+      <c r="AZ118">
+        <v>12</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
+        <v>7</v>
+      </c>
+      <c r="BD118">
+        <v>1.77</v>
+      </c>
+      <c r="BE118">
+        <v>6.4</v>
+      </c>
+      <c r="BF118">
+        <v>2.28</v>
+      </c>
+      <c r="BG118">
+        <v>1.27</v>
+      </c>
+      <c r="BH118">
+        <v>3.3</v>
+      </c>
+      <c r="BI118">
+        <v>1.48</v>
+      </c>
+      <c r="BJ118">
+        <v>2.43</v>
+      </c>
+      <c r="BK118">
+        <v>1.78</v>
+      </c>
+      <c r="BL118">
+        <v>1.91</v>
+      </c>
+      <c r="BM118">
+        <v>2.23</v>
+      </c>
+      <c r="BN118">
+        <v>1.57</v>
+      </c>
+      <c r="BO118">
+        <v>2.9</v>
+      </c>
+      <c r="BP118">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -526,10 +526,10 @@
     <t>['6', '21']</t>
   </si>
   <si>
-    <t>['19', '57', '83', '90+4']</t>
+    <t>['73']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['19', '57', '83', '90+4']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -757,10 +757,10 @@
     <t>['50', '85']</t>
   </si>
   <si>
-    <t>['11', '39', '66']</t>
+    <t>['68']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['11', '39', '66']</t>
   </si>
 </sst>
 </file>
@@ -23793,7 +23793,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7491928</v>
+        <v>7491930</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23802,49 +23802,49 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45632.875</v>
+        <v>45633.47916666666</v>
       </c>
       <c r="F111">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111">
         <v>2</v>
       </c>
       <c r="O111" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="Q111">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R111">
         <v>2.5</v>
       </c>
       <c r="S111">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T111">
         <v>1.25</v>
@@ -23865,133 +23865,133 @@
         <v>1.17</v>
       </c>
       <c r="Z111">
-        <v>3.27</v>
+        <v>5</v>
       </c>
       <c r="AA111">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AB111">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="AC111">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD111">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE111">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AF111">
         <v>5.5</v>
       </c>
       <c r="AG111">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AH111">
-        <v>2.67</v>
+        <v>2.48</v>
       </c>
       <c r="AI111">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AJ111">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AK111">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="AL111">
+        <v>1.19</v>
+      </c>
+      <c r="AM111">
+        <v>1.2</v>
+      </c>
+      <c r="AN111">
+        <v>0.5</v>
+      </c>
+      <c r="AO111">
+        <v>1.67</v>
+      </c>
+      <c r="AP111">
+        <v>0.43</v>
+      </c>
+      <c r="AQ111">
+        <v>1.86</v>
+      </c>
+      <c r="AR111">
+        <v>1.13</v>
+      </c>
+      <c r="AS111">
         <v>1.22</v>
       </c>
-      <c r="AM111">
-        <v>1.38</v>
-      </c>
-      <c r="AN111">
-        <v>2</v>
-      </c>
-      <c r="AO111">
-        <v>0.2</v>
-      </c>
-      <c r="AP111">
-        <v>1.86</v>
-      </c>
-      <c r="AQ111">
-        <v>0.33</v>
-      </c>
-      <c r="AR111">
-        <v>1.64</v>
-      </c>
-      <c r="AS111">
-        <v>0.99</v>
-      </c>
       <c r="AT111">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="AU111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX111">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY111">
+        <v>18</v>
+      </c>
+      <c r="AZ111">
         <v>10</v>
       </c>
-      <c r="AZ111">
-        <v>17</v>
-      </c>
       <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
         <v>7</v>
       </c>
-      <c r="BB111">
-        <v>4</v>
-      </c>
-      <c r="BC111">
-        <v>11</v>
-      </c>
       <c r="BD111">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="BE111">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF111">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="BG111">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BH111">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="BI111">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="BJ111">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BK111">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="BL111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BM111">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BN111">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="BO111">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BP111">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23999,7 +23999,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7491930</v>
+        <v>7491929</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24014,190 +24014,190 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
         <v>1</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>1</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>2</v>
-      </c>
-      <c r="N112">
-        <v>2</v>
       </c>
       <c r="O112" t="s">
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q112">
+        <v>3.4</v>
+      </c>
+      <c r="R112">
+        <v>2.38</v>
+      </c>
+      <c r="S112">
+        <v>2.75</v>
+      </c>
+      <c r="T112">
+        <v>1.3</v>
+      </c>
+      <c r="U112">
+        <v>3.4</v>
+      </c>
+      <c r="V112">
+        <v>2.38</v>
+      </c>
+      <c r="W112">
+        <v>1.53</v>
+      </c>
+      <c r="X112">
+        <v>6</v>
+      </c>
+      <c r="Y112">
+        <v>1.13</v>
+      </c>
+      <c r="Z112">
+        <v>2.8</v>
+      </c>
+      <c r="AA112">
+        <v>3.5</v>
+      </c>
+      <c r="AB112">
+        <v>2.3</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>17</v>
+      </c>
+      <c r="AE112">
+        <v>1.19</v>
+      </c>
+      <c r="AF112">
         <v>4.75</v>
       </c>
-      <c r="R112">
+      <c r="AG112">
+        <v>1.57</v>
+      </c>
+      <c r="AH112">
+        <v>2.25</v>
+      </c>
+      <c r="AI112">
+        <v>1.5</v>
+      </c>
+      <c r="AJ112">
         <v>2.5</v>
       </c>
-      <c r="S112">
-        <v>2.1</v>
-      </c>
-      <c r="T112">
+      <c r="AK112">
+        <v>1.66</v>
+      </c>
+      <c r="AL112">
         <v>1.25</v>
       </c>
-      <c r="U112">
-        <v>3.75</v>
-      </c>
-      <c r="V112">
-        <v>2.2</v>
-      </c>
-      <c r="W112">
-        <v>1.62</v>
-      </c>
-      <c r="X112">
-        <v>5</v>
-      </c>
-      <c r="Y112">
-        <v>1.17</v>
-      </c>
-      <c r="Z112">
-        <v>5</v>
-      </c>
-      <c r="AA112">
-        <v>4.33</v>
-      </c>
-      <c r="AB112">
-        <v>1.57</v>
-      </c>
-      <c r="AC112">
-        <v>1.02</v>
-      </c>
-      <c r="AD112">
-        <v>21</v>
-      </c>
-      <c r="AE112">
-        <v>1.16</v>
-      </c>
-      <c r="AF112">
-        <v>5.5</v>
-      </c>
-      <c r="AG112">
-        <v>1.5</v>
-      </c>
-      <c r="AH112">
-        <v>2.48</v>
-      </c>
-      <c r="AI112">
-        <v>1.53</v>
-      </c>
-      <c r="AJ112">
-        <v>2.38</v>
-      </c>
-      <c r="AK112">
-        <v>2.25</v>
-      </c>
-      <c r="AL112">
-        <v>1.19</v>
-      </c>
       <c r="AM112">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AN112">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO112">
         <v>1.67</v>
       </c>
       <c r="AP112">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="AQ112">
         <v>1.86</v>
       </c>
       <c r="AR112">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AS112">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT112">
-        <v>2.35</v>
+        <v>2.61</v>
       </c>
       <c r="AU112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY112">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ112">
         <v>10</v>
       </c>
       <c r="BA112">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC112">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD112">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="BE112">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF112">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="BG112">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BH112">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BI112">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="BJ112">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK112">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="BL112">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="BM112">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BN112">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO112">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP112">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24205,7 +24205,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7491929</v>
+        <v>7491925</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24220,10 +24220,10 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H113" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -24235,28 +24235,28 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O113" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="R113">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S113">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="T113">
         <v>1.3</v>
@@ -24277,13 +24277,13 @@
         <v>1.13</v>
       </c>
       <c r="Z113">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA113">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB113">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="AC113">
         <v>1.03</v>
@@ -24292,88 +24292,88 @@
         <v>17</v>
       </c>
       <c r="AE113">
+        <v>1.2</v>
+      </c>
+      <c r="AF113">
+        <v>4.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.63</v>
+      </c>
+      <c r="AH113">
+        <v>2.13</v>
+      </c>
+      <c r="AI113">
+        <v>1.7</v>
+      </c>
+      <c r="AJ113">
+        <v>2.05</v>
+      </c>
+      <c r="AK113">
+        <v>1.15</v>
+      </c>
+      <c r="AL113">
         <v>1.19</v>
       </c>
-      <c r="AF113">
-        <v>4.75</v>
-      </c>
-      <c r="AG113">
-        <v>1.57</v>
-      </c>
-      <c r="AH113">
-        <v>2.25</v>
-      </c>
-      <c r="AI113">
-        <v>1.5</v>
-      </c>
-      <c r="AJ113">
-        <v>2.5</v>
-      </c>
-      <c r="AK113">
-        <v>1.66</v>
-      </c>
-      <c r="AL113">
-        <v>1.25</v>
-      </c>
       <c r="AM113">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AN113">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="AO113">
-        <v>1.67</v>
+        <v>0.2</v>
       </c>
       <c r="AP113">
+        <v>2.33</v>
+      </c>
+      <c r="AQ113">
         <v>0.33</v>
       </c>
-      <c r="AQ113">
-        <v>1.86</v>
-      </c>
       <c r="AR113">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="AS113">
-        <v>1.38</v>
+        <v>0.85</v>
       </c>
       <c r="AT113">
-        <v>2.61</v>
+        <v>2.4</v>
       </c>
       <c r="AU113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX113">
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA113">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC113">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BD113">
-        <v>2.12</v>
+        <v>1.42</v>
       </c>
       <c r="BE113">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF113">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="BG113">
         <v>1.26</v>
@@ -24382,7 +24382,7 @@
         <v>3.4</v>
       </c>
       <c r="BI113">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BJ113">
         <v>2.48</v>
@@ -24391,19 +24391,19 @@
         <v>1.74</v>
       </c>
       <c r="BL113">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BM113">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="BN113">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BO113">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="BP113">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24411,7 +24411,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7491925</v>
+        <v>7491924</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24426,190 +24426,190 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M114">
         <v>2</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O114" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q114">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="R114">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="S114">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="T114">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="U114">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="V114">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="W114">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="X114">
+        <v>3.75</v>
+      </c>
+      <c r="Y114">
+        <v>1.25</v>
+      </c>
+      <c r="Z114">
+        <v>1.06</v>
+      </c>
+      <c r="AA114">
+        <v>11</v>
+      </c>
+      <c r="AB114">
+        <v>26</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>1.07</v>
+      </c>
+      <c r="AF114">
+        <v>8.5</v>
+      </c>
+      <c r="AG114">
+        <v>1.28</v>
+      </c>
+      <c r="AH114">
+        <v>3.47</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>1.02</v>
+      </c>
+      <c r="AL114">
+        <v>1.06</v>
+      </c>
+      <c r="AM114">
         <v>6</v>
-      </c>
-      <c r="Y114">
-        <v>1.13</v>
-      </c>
-      <c r="Z114">
-        <v>1.6</v>
-      </c>
-      <c r="AA114">
-        <v>4.1</v>
-      </c>
-      <c r="AB114">
-        <v>5</v>
-      </c>
-      <c r="AC114">
-        <v>1.03</v>
-      </c>
-      <c r="AD114">
-        <v>17</v>
-      </c>
-      <c r="AE114">
-        <v>1.2</v>
-      </c>
-      <c r="AF114">
-        <v>4.5</v>
-      </c>
-      <c r="AG114">
-        <v>1.63</v>
-      </c>
-      <c r="AH114">
-        <v>2.13</v>
-      </c>
-      <c r="AI114">
-        <v>1.7</v>
-      </c>
-      <c r="AJ114">
-        <v>2.05</v>
-      </c>
-      <c r="AK114">
-        <v>1.15</v>
-      </c>
-      <c r="AL114">
-        <v>1.19</v>
-      </c>
-      <c r="AM114">
-        <v>2.4</v>
       </c>
       <c r="AN114">
         <v>2.6</v>
       </c>
       <c r="AO114">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP114">
+        <v>2.67</v>
+      </c>
+      <c r="AQ114">
+        <v>0.86</v>
+      </c>
+      <c r="AR114">
+        <v>2.04</v>
+      </c>
+      <c r="AS114">
+        <v>1.28</v>
+      </c>
+      <c r="AT114">
+        <v>3.32</v>
+      </c>
+      <c r="AU114">
+        <v>11</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>9</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>22</v>
+      </c>
+      <c r="AZ114">
+        <v>3</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>1.07</v>
+      </c>
+      <c r="BE114">
+        <v>11.5</v>
+      </c>
+      <c r="BF114">
+        <v>8.5</v>
+      </c>
+      <c r="BG114">
+        <v>1.3</v>
+      </c>
+      <c r="BH114">
+        <v>3.15</v>
+      </c>
+      <c r="BI114">
+        <v>1.52</v>
+      </c>
+      <c r="BJ114">
         <v>2.33</v>
       </c>
-      <c r="AQ114">
-        <v>0.33</v>
-      </c>
-      <c r="AR114">
-        <v>1.55</v>
-      </c>
-      <c r="AS114">
-        <v>0.85</v>
-      </c>
-      <c r="AT114">
-        <v>2.4</v>
-      </c>
-      <c r="AU114">
-        <v>5</v>
-      </c>
-      <c r="AV114">
-        <v>4</v>
-      </c>
-      <c r="AW114">
-        <v>6</v>
-      </c>
-      <c r="AX114">
-        <v>4</v>
-      </c>
-      <c r="AY114">
-        <v>17</v>
-      </c>
-      <c r="AZ114">
-        <v>9</v>
-      </c>
-      <c r="BA114">
-        <v>4</v>
-      </c>
-      <c r="BB114">
-        <v>0</v>
-      </c>
-      <c r="BC114">
-        <v>4</v>
-      </c>
-      <c r="BD114">
-        <v>1.42</v>
-      </c>
-      <c r="BE114">
-        <v>7</v>
-      </c>
-      <c r="BF114">
-        <v>3.15</v>
-      </c>
-      <c r="BG114">
-        <v>1.26</v>
-      </c>
-      <c r="BH114">
-        <v>3.4</v>
-      </c>
-      <c r="BI114">
-        <v>1.46</v>
-      </c>
-      <c r="BJ114">
-        <v>2.48</v>
-      </c>
       <c r="BK114">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="BL114">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BM114">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="BN114">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BO114">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="BP114">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24617,7 +24617,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7491924</v>
+        <v>7491922</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24632,88 +24632,88 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115">
-        <v>4</v>
-      </c>
-      <c r="M115">
-        <v>2</v>
-      </c>
       <c r="N115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="Q115">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="R115">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="S115">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T115">
+        <v>1.25</v>
+      </c>
+      <c r="U115">
+        <v>3.75</v>
+      </c>
+      <c r="V115">
+        <v>2.2</v>
+      </c>
+      <c r="W115">
+        <v>1.62</v>
+      </c>
+      <c r="X115">
+        <v>5</v>
+      </c>
+      <c r="Y115">
         <v>1.17</v>
       </c>
-      <c r="U115">
-        <v>5</v>
-      </c>
-      <c r="V115">
-        <v>1.83</v>
-      </c>
-      <c r="W115">
-        <v>1.83</v>
-      </c>
-      <c r="X115">
-        <v>3.75</v>
-      </c>
-      <c r="Y115">
-        <v>1.25</v>
-      </c>
       <c r="Z115">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AA115">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AB115">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AC115">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE115">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AF115">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG115">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AH115">
-        <v>3.47</v>
+        <v>2.6</v>
       </c>
       <c r="AI115">
         <v>2</v>
@@ -24722,100 +24722,100 @@
         <v>1.75</v>
       </c>
       <c r="AK115">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AL115">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AM115">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="AN115">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>0.86</v>
       </c>
       <c r="AR115">
-        <v>2.04</v>
+        <v>2.31</v>
       </c>
       <c r="AS115">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="AT115">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>6</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
         <v>11</v>
       </c>
-      <c r="AV115">
-        <v>3</v>
-      </c>
-      <c r="AW115">
-        <v>9</v>
-      </c>
-      <c r="AX115">
-        <v>0</v>
-      </c>
-      <c r="AY115">
-        <v>22</v>
-      </c>
-      <c r="AZ115">
-        <v>3</v>
-      </c>
-      <c r="BA115">
-        <v>8</v>
-      </c>
-      <c r="BB115">
-        <v>0</v>
-      </c>
-      <c r="BC115">
-        <v>8</v>
-      </c>
       <c r="BD115">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="BE115">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF115">
-        <v>8.5</v>
+        <v>6.1</v>
       </c>
       <c r="BG115">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BH115">
         <v>3.15</v>
       </c>
       <c r="BI115">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BJ115">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BK115">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="BL115">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BM115">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="BN115">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BO115">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BP115">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24823,7 +24823,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7491922</v>
+        <v>7491928</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24832,49 +24832,49 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45633.47916666666</v>
+        <v>45633.60416666666</v>
       </c>
       <c r="F116">
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H116" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <v>1</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O116" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q116">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="R116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S116">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="T116">
         <v>1.25</v>
@@ -24895,19 +24895,19 @@
         <v>1.17</v>
       </c>
       <c r="Z116">
-        <v>1.18</v>
+        <v>3.27</v>
       </c>
       <c r="AA116">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AB116">
-        <v>13</v>
+        <v>2.12</v>
       </c>
       <c r="AC116">
         <v>1.01</v>
       </c>
       <c r="AD116">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE116">
         <v>1.15</v>
@@ -24916,64 +24916,64 @@
         <v>5.5</v>
       </c>
       <c r="AG116">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AH116">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AI116">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AJ116">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="AK116">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="AL116">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AM116">
-        <v>3.95</v>
+        <v>1.38</v>
       </c>
       <c r="AN116">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AR116">
-        <v>2.31</v>
+        <v>1.64</v>
       </c>
       <c r="AS116">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="AT116">
-        <v>3.37</v>
+        <v>2.63</v>
       </c>
       <c r="AU116">
         <v>4</v>
       </c>
       <c r="AV116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX116">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ116">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA116">
         <v>7</v>
@@ -24985,43 +24985,43 @@
         <v>11</v>
       </c>
       <c r="BD116">
-        <v>1.13</v>
+        <v>2.3</v>
       </c>
       <c r="BE116">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF116">
-        <v>6.1</v>
+        <v>1.75</v>
       </c>
       <c r="BG116">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="BH116">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="BI116">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BJ116">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BK116">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="BL116">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="BM116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BN116">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="BO116">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BP116">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25029,7 +25029,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7491927</v>
+        <v>7491926</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -25038,34 +25038,34 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45634.47916666666</v>
+        <v>45633.875</v>
       </c>
       <c r="F117">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H117" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>2</v>
-      </c>
-      <c r="K117">
-        <v>3</v>
-      </c>
-      <c r="L117">
-        <v>4</v>
-      </c>
       <c r="M117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N117">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O117" t="s">
         <v>170</v>
@@ -25074,19 +25074,19 @@
         <v>247</v>
       </c>
       <c r="Q117">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R117">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S117">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T117">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U117">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V117">
         <v>2.63</v>
@@ -25095,109 +25095,109 @@
         <v>1.44</v>
       </c>
       <c r="X117">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y117">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z117">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="AA117">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB117">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="AC117">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>4.33</v>
+      </c>
+      <c r="AG117">
+        <v>1.65</v>
+      </c>
+      <c r="AH117">
+        <v>2.2</v>
+      </c>
+      <c r="AI117">
+        <v>1.53</v>
+      </c>
+      <c r="AJ117">
+        <v>2.38</v>
+      </c>
+      <c r="AK117">
+        <v>1.48</v>
+      </c>
+      <c r="AL117">
+        <v>1.26</v>
+      </c>
+      <c r="AM117">
+        <v>1.55</v>
+      </c>
+      <c r="AN117">
+        <v>1.5</v>
+      </c>
+      <c r="AO117">
+        <v>1.17</v>
+      </c>
+      <c r="AP117">
+        <v>1.43</v>
+      </c>
+      <c r="AQ117">
+        <v>1.14</v>
+      </c>
+      <c r="AR117">
+        <v>1.77</v>
+      </c>
+      <c r="AS117">
         <v>1.3</v>
       </c>
-      <c r="AF117">
-        <v>3.6</v>
-      </c>
-      <c r="AG117">
-        <v>1.73</v>
-      </c>
-      <c r="AH117">
-        <v>1.98</v>
-      </c>
-      <c r="AI117">
-        <v>1.67</v>
-      </c>
-      <c r="AJ117">
-        <v>2.1</v>
-      </c>
-      <c r="AK117">
-        <v>1.3</v>
-      </c>
-      <c r="AL117">
-        <v>1.25</v>
-      </c>
-      <c r="AM117">
-        <v>1.83</v>
-      </c>
-      <c r="AN117">
-        <v>0.83</v>
-      </c>
-      <c r="AO117">
-        <v>2.2</v>
-      </c>
-      <c r="AP117">
-        <v>1.14</v>
-      </c>
-      <c r="AQ117">
-        <v>1.83</v>
-      </c>
-      <c r="AR117">
-        <v>1.29</v>
-      </c>
-      <c r="AS117">
-        <v>1.14</v>
-      </c>
       <c r="AT117">
-        <v>2.43</v>
+        <v>3.07</v>
       </c>
       <c r="AU117">
         <v>6</v>
       </c>
       <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
         <v>6</v>
       </c>
-      <c r="AW117">
-        <v>3</v>
-      </c>
       <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>16</v>
+      </c>
+      <c r="AZ117">
+        <v>12</v>
+      </c>
+      <c r="BA117">
         <v>6</v>
       </c>
-      <c r="AY117">
-        <v>11</v>
-      </c>
-      <c r="AZ117">
-        <v>14</v>
-      </c>
-      <c r="BA117">
-        <v>3</v>
-      </c>
       <c r="BB117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD117">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="BE117">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF117">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="BG117">
         <v>1.27</v>
@@ -25206,28 +25206,28 @@
         <v>3.3</v>
       </c>
       <c r="BI117">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ117">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="BK117">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="BL117">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="BM117">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BN117">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BO117">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP117">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -25235,7 +25235,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7491926</v>
+        <v>7491927</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25244,34 +25244,34 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45634.5625</v>
+        <v>45634.47916666666</v>
       </c>
       <c r="F118">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H118" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O118" t="s">
         <v>171</v>
@@ -25280,19 +25280,19 @@
         <v>248</v>
       </c>
       <c r="Q118">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R118">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S118">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T118">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V118">
         <v>2.63</v>
@@ -25301,109 +25301,109 @@
         <v>1.44</v>
       </c>
       <c r="X118">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y118">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="AA118">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB118">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="AC118">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD118">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE118">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF118">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AG118">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AH118">
+        <v>1.98</v>
+      </c>
+      <c r="AI118">
+        <v>1.67</v>
+      </c>
+      <c r="AJ118">
+        <v>2.1</v>
+      </c>
+      <c r="AK118">
+        <v>1.3</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.83</v>
+      </c>
+      <c r="AN118">
+        <v>0.83</v>
+      </c>
+      <c r="AO118">
         <v>2.2</v>
       </c>
-      <c r="AI118">
-        <v>1.53</v>
-      </c>
-      <c r="AJ118">
-        <v>2.38</v>
-      </c>
-      <c r="AK118">
-        <v>1.48</v>
-      </c>
-      <c r="AL118">
-        <v>1.26</v>
-      </c>
-      <c r="AM118">
-        <v>1.55</v>
-      </c>
-      <c r="AN118">
-        <v>1.5</v>
-      </c>
-      <c r="AO118">
-        <v>1.17</v>
-      </c>
       <c r="AP118">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ118">
+        <v>1.83</v>
+      </c>
+      <c r="AR118">
+        <v>1.29</v>
+      </c>
+      <c r="AS118">
         <v>1.14</v>
       </c>
-      <c r="AR118">
-        <v>1.77</v>
-      </c>
-      <c r="AS118">
-        <v>1.3</v>
-      </c>
       <c r="AT118">
-        <v>3.07</v>
+        <v>2.43</v>
       </c>
       <c r="AU118">
         <v>6</v>
       </c>
       <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>3</v>
+      </c>
+      <c r="AX118">
+        <v>6</v>
+      </c>
+      <c r="AY118">
+        <v>11</v>
+      </c>
+      <c r="AZ118">
+        <v>14</v>
+      </c>
+      <c r="BA118">
+        <v>3</v>
+      </c>
+      <c r="BB118">
         <v>5</v>
       </c>
-      <c r="AW118">
-        <v>6</v>
-      </c>
-      <c r="AX118">
-        <v>4</v>
-      </c>
-      <c r="AY118">
-        <v>16</v>
-      </c>
-      <c r="AZ118">
-        <v>12</v>
-      </c>
-      <c r="BA118">
-        <v>6</v>
-      </c>
-      <c r="BB118">
-        <v>1</v>
-      </c>
       <c r="BC118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD118">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BE118">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF118">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="BG118">
         <v>1.27</v>
@@ -25412,28 +25412,28 @@
         <v>3.3</v>
       </c>
       <c r="BI118">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ118">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="BK118">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="BL118">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="BM118">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN118">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO118">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP118">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -526,10 +526,10 @@
     <t>['6', '21']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['19', '57', '83', '90+4']</t>
   </si>
   <si>
-    <t>['19', '57', '83', '90+4']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -757,10 +757,10 @@
     <t>['50', '85']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['11', '39', '66']</t>
   </si>
   <si>
-    <t>['11', '39', '66']</t>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -25029,7 +25029,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7491926</v>
+        <v>7491927</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -25038,34 +25038,34 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45633.875</v>
+        <v>45634.47916666666</v>
       </c>
       <c r="F117">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H117" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O117" t="s">
         <v>170</v>
@@ -25074,19 +25074,19 @@
         <v>247</v>
       </c>
       <c r="Q117">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R117">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S117">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T117">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V117">
         <v>2.63</v>
@@ -25095,109 +25095,109 @@
         <v>1.44</v>
       </c>
       <c r="X117">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y117">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z117">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="AA117">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB117">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="AC117">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD117">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE117">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF117">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AG117">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AH117">
+        <v>1.98</v>
+      </c>
+      <c r="AI117">
+        <v>1.67</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.3</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.83</v>
+      </c>
+      <c r="AN117">
+        <v>0.83</v>
+      </c>
+      <c r="AO117">
         <v>2.2</v>
       </c>
-      <c r="AI117">
-        <v>1.53</v>
-      </c>
-      <c r="AJ117">
-        <v>2.38</v>
-      </c>
-      <c r="AK117">
-        <v>1.48</v>
-      </c>
-      <c r="AL117">
-        <v>1.26</v>
-      </c>
-      <c r="AM117">
-        <v>1.55</v>
-      </c>
-      <c r="AN117">
-        <v>1.5</v>
-      </c>
-      <c r="AO117">
-        <v>1.17</v>
-      </c>
       <c r="AP117">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ117">
+        <v>1.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.29</v>
+      </c>
+      <c r="AS117">
         <v>1.14</v>
       </c>
-      <c r="AR117">
-        <v>1.77</v>
-      </c>
-      <c r="AS117">
-        <v>1.3</v>
-      </c>
       <c r="AT117">
-        <v>3.07</v>
+        <v>2.43</v>
       </c>
       <c r="AU117">
         <v>6</v>
       </c>
       <c r="AV117">
+        <v>6</v>
+      </c>
+      <c r="AW117">
+        <v>3</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>14</v>
+      </c>
+      <c r="BA117">
+        <v>3</v>
+      </c>
+      <c r="BB117">
         <v>5</v>
       </c>
-      <c r="AW117">
-        <v>6</v>
-      </c>
-      <c r="AX117">
-        <v>4</v>
-      </c>
-      <c r="AY117">
-        <v>16</v>
-      </c>
-      <c r="AZ117">
-        <v>12</v>
-      </c>
-      <c r="BA117">
-        <v>6</v>
-      </c>
-      <c r="BB117">
-        <v>1</v>
-      </c>
       <c r="BC117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD117">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BE117">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF117">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="BG117">
         <v>1.27</v>
@@ -25206,28 +25206,28 @@
         <v>3.3</v>
       </c>
       <c r="BI117">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ117">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="BK117">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="BL117">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="BM117">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN117">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BO117">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP117">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -25235,7 +25235,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7491927</v>
+        <v>7491926</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25244,34 +25244,34 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45634.47916666666</v>
+        <v>45634.5625</v>
       </c>
       <c r="F118">
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H118" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>2</v>
-      </c>
-      <c r="K118">
-        <v>3</v>
-      </c>
-      <c r="L118">
-        <v>4</v>
-      </c>
       <c r="M118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O118" t="s">
         <v>171</v>
@@ -25280,19 +25280,19 @@
         <v>248</v>
       </c>
       <c r="Q118">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R118">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S118">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T118">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V118">
         <v>2.63</v>
@@ -25301,109 +25301,109 @@
         <v>1.44</v>
       </c>
       <c r="X118">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y118">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z118">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="AA118">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB118">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="AC118">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>4.33</v>
+      </c>
+      <c r="AG118">
+        <v>1.65</v>
+      </c>
+      <c r="AH118">
+        <v>2.2</v>
+      </c>
+      <c r="AI118">
+        <v>1.53</v>
+      </c>
+      <c r="AJ118">
+        <v>2.38</v>
+      </c>
+      <c r="AK118">
+        <v>1.48</v>
+      </c>
+      <c r="AL118">
+        <v>1.26</v>
+      </c>
+      <c r="AM118">
+        <v>1.55</v>
+      </c>
+      <c r="AN118">
+        <v>1.5</v>
+      </c>
+      <c r="AO118">
+        <v>1.17</v>
+      </c>
+      <c r="AP118">
+        <v>1.43</v>
+      </c>
+      <c r="AQ118">
+        <v>1.14</v>
+      </c>
+      <c r="AR118">
+        <v>1.77</v>
+      </c>
+      <c r="AS118">
         <v>1.3</v>
       </c>
-      <c r="AF118">
-        <v>3.6</v>
-      </c>
-      <c r="AG118">
-        <v>1.73</v>
-      </c>
-      <c r="AH118">
-        <v>1.98</v>
-      </c>
-      <c r="AI118">
-        <v>1.67</v>
-      </c>
-      <c r="AJ118">
-        <v>2.1</v>
-      </c>
-      <c r="AK118">
-        <v>1.3</v>
-      </c>
-      <c r="AL118">
-        <v>1.25</v>
-      </c>
-      <c r="AM118">
-        <v>1.83</v>
-      </c>
-      <c r="AN118">
-        <v>0.83</v>
-      </c>
-      <c r="AO118">
-        <v>2.2</v>
-      </c>
-      <c r="AP118">
-        <v>1.14</v>
-      </c>
-      <c r="AQ118">
-        <v>1.83</v>
-      </c>
-      <c r="AR118">
-        <v>1.29</v>
-      </c>
-      <c r="AS118">
-        <v>1.14</v>
-      </c>
       <c r="AT118">
-        <v>2.43</v>
+        <v>3.07</v>
       </c>
       <c r="AU118">
         <v>6</v>
       </c>
       <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>10</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>16</v>
+      </c>
+      <c r="AZ118">
+        <v>12</v>
+      </c>
+      <c r="BA118">
         <v>6</v>
       </c>
-      <c r="AW118">
-        <v>3</v>
-      </c>
-      <c r="AX118">
-        <v>6</v>
-      </c>
-      <c r="AY118">
-        <v>11</v>
-      </c>
-      <c r="AZ118">
-        <v>14</v>
-      </c>
-      <c r="BA118">
-        <v>3</v>
-      </c>
       <c r="BB118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD118">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="BE118">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF118">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="BG118">
         <v>1.27</v>
@@ -25412,28 +25412,28 @@
         <v>3.3</v>
       </c>
       <c r="BI118">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ118">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="BK118">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="BL118">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="BM118">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BN118">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="BO118">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP118">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,9 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['42', '51', '61']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -761,6 +764,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['75', '83']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1387,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1793,7 +1799,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1999,7 +2005,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2077,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2205,7 +2211,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2411,7 +2417,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2823,7 +2829,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3029,7 +3035,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3441,7 +3447,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3647,7 +3653,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3728,7 +3734,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3853,7 +3859,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4059,7 +4065,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4471,7 +4477,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5089,7 +5095,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5501,7 +5507,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5785,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5913,7 +5919,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6119,7 +6125,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6325,7 +6331,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6531,7 +6537,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6737,7 +6743,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6943,7 +6949,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7149,7 +7155,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7355,7 +7361,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7561,7 +7567,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7767,7 +7773,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8179,7 +8185,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8260,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR35">
         <v>2.58</v>
@@ -8385,7 +8391,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8797,7 +8803,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9209,7 +9215,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9415,7 +9421,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9621,7 +9627,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9699,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -10033,7 +10039,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10239,7 +10245,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10445,7 +10451,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10857,7 +10863,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11063,7 +11069,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11269,7 +11275,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11475,7 +11481,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11556,7 +11562,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -11681,7 +11687,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12093,7 +12099,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12299,7 +12305,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12505,7 +12511,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12711,7 +12717,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13123,7 +13129,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13201,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ59">
         <v>0.33</v>
@@ -13329,7 +13335,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13535,7 +13541,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13947,7 +13953,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14153,7 +14159,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14359,7 +14365,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14565,7 +14571,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14852,7 +14858,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ67">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR67">
         <v>1.52</v>
@@ -14977,7 +14983,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15183,7 +15189,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15389,7 +15395,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15595,7 +15601,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15801,7 +15807,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16625,7 +16631,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16831,7 +16837,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17733,7 +17739,7 @@
         <v>2.33</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
         <v>1.83</v>
@@ -17861,7 +17867,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18273,7 +18279,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18479,7 +18485,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18685,7 +18691,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18891,7 +18897,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19509,7 +19515,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19715,7 +19721,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19796,7 +19802,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ91">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR91">
         <v>1.38</v>
@@ -20127,7 +20133,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20745,7 +20751,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21363,7 +21369,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21775,7 +21781,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21981,7 +21987,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22187,7 +22193,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22265,7 +22271,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ103">
         <v>0.83</v>
@@ -22599,7 +22605,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22680,7 +22686,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ105">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -22805,7 +22811,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23011,7 +23017,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23423,7 +23429,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23629,7 +23635,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23835,7 +23841,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24041,7 +24047,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24247,7 +24253,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24453,7 +24459,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24659,7 +24665,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24865,7 +24871,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25071,7 +25077,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25277,7 +25283,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25434,6 +25440,212 @@
       </c>
       <c r="BP118">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7491934</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45639.6875</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" t="s">
+        <v>172</v>
+      </c>
+      <c r="P119" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q119">
+        <v>2.75</v>
+      </c>
+      <c r="R119">
+        <v>2.2</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.36</v>
+      </c>
+      <c r="U119">
+        <v>3</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>1.1</v>
+      </c>
+      <c r="Z119">
+        <v>2.05</v>
+      </c>
+      <c r="AA119">
+        <v>3.9</v>
+      </c>
+      <c r="AB119">
+        <v>3.3</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>13</v>
+      </c>
+      <c r="AE119">
+        <v>1.28</v>
+      </c>
+      <c r="AF119">
+        <v>3.75</v>
+      </c>
+      <c r="AG119">
+        <v>1.7</v>
+      </c>
+      <c r="AH119">
+        <v>2.05</v>
+      </c>
+      <c r="AI119">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119">
+        <v>2.05</v>
+      </c>
+      <c r="AK119">
+        <v>1.33</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.78</v>
+      </c>
+      <c r="AN119">
+        <v>2.17</v>
+      </c>
+      <c r="AO119">
+        <v>2.17</v>
+      </c>
+      <c r="AP119">
+        <v>2.29</v>
+      </c>
+      <c r="AQ119">
+        <v>1.86</v>
+      </c>
+      <c r="AR119">
+        <v>1.52</v>
+      </c>
+      <c r="AS119">
+        <v>1.35</v>
+      </c>
+      <c r="AT119">
+        <v>2.87</v>
+      </c>
+      <c r="AU119">
+        <v>11</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>10</v>
+      </c>
+      <c r="AY119">
+        <v>20</v>
+      </c>
+      <c r="AZ119">
+        <v>21</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>1.72</v>
+      </c>
+      <c r="BE119">
+        <v>6.4</v>
+      </c>
+      <c r="BF119">
+        <v>2.38</v>
+      </c>
+      <c r="BG119">
+        <v>1.33</v>
+      </c>
+      <c r="BH119">
+        <v>2.95</v>
+      </c>
+      <c r="BI119">
+        <v>1.57</v>
+      </c>
+      <c r="BJ119">
+        <v>2.23</v>
+      </c>
+      <c r="BK119">
+        <v>1.93</v>
+      </c>
+      <c r="BL119">
+        <v>1.76</v>
+      </c>
+      <c r="BM119">
+        <v>2.43</v>
+      </c>
+      <c r="BN119">
+        <v>1.47</v>
+      </c>
+      <c r="BO119">
+        <v>3.15</v>
+      </c>
+      <c r="BP119">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,15 @@
     <t>['42', '51', '61']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['41', '60']</t>
+  </si>
+  <si>
+    <t>['1', '26', '43', '79']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -767,6 +776,21 @@
   </si>
   <si>
     <t>['75', '83']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['14', '40']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['24', '54']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1411,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1465,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1674,7 +1698,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1799,7 +1823,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1880,7 +1904,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2005,7 +2029,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2211,7 +2235,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2289,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2441,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2495,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>0.71</v>
@@ -2829,7 +2853,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2910,7 +2934,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ9">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3035,7 +3059,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3113,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ10">
         <v>0.86</v>
@@ -3319,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11">
         <v>0.86</v>
@@ -3447,7 +3471,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3653,7 +3677,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3859,7 +3883,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4065,7 +4089,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4477,7 +4501,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5095,7 +5119,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5507,7 +5531,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5588,7 +5612,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5794,7 +5818,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR23">
         <v>1.5</v>
@@ -5919,7 +5943,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6125,7 +6149,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6203,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6331,7 +6355,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6412,7 +6436,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ26">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR26">
         <v>1.4</v>
@@ -6537,7 +6561,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6615,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>0.86</v>
@@ -6743,7 +6767,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6821,10 +6845,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.23</v>
@@ -6949,7 +6973,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7027,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>1.83</v>
@@ -7155,7 +7179,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7361,7 +7385,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7442,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR31">
         <v>0.65</v>
@@ -7567,7 +7591,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7645,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7773,7 +7797,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7854,7 +7878,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR33">
         <v>1.57</v>
@@ -8185,7 +8209,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8391,7 +8415,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8675,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
         <v>1.86</v>
@@ -8803,7 +8827,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8884,7 +8908,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9087,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.71</v>
@@ -9215,7 +9239,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9293,7 +9317,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>0.86</v>
@@ -9421,7 +9445,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9627,7 +9651,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10039,7 +10063,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10120,7 +10144,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10245,7 +10269,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10451,7 +10475,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10532,7 +10556,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10735,7 +10759,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>0.83</v>
@@ -10863,7 +10887,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10944,7 +10968,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR48">
         <v>2.42</v>
@@ -11069,7 +11093,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11275,7 +11299,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11353,7 +11377,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>0.33</v>
@@ -11481,7 +11505,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11687,7 +11711,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11765,7 +11789,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ52">
         <v>1.83</v>
@@ -12099,7 +12123,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12180,7 +12204,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12305,7 +12329,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12511,7 +12535,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12717,7 +12741,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13004,7 +13028,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -13129,7 +13153,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13335,7 +13359,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13413,7 +13437,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -13541,7 +13565,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13619,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13953,7 +13977,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14159,7 +14183,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14240,7 +14264,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.11</v>
@@ -14365,7 +14389,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14443,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14571,7 +14595,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14649,7 +14673,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.33</v>
@@ -14855,7 +14879,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ67">
         <v>1.86</v>
@@ -14983,7 +15007,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15189,7 +15213,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15270,7 +15294,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR69">
         <v>2.2</v>
@@ -15395,7 +15419,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15476,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR70">
         <v>0.6899999999999999</v>
@@ -15601,7 +15625,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15682,7 +15706,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ71">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR71">
         <v>1.42</v>
@@ -15807,7 +15831,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15885,7 +15909,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72">
         <v>1.86</v>
@@ -16631,7 +16655,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16712,7 +16736,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR76">
         <v>1.42</v>
@@ -16837,7 +16861,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17867,7 +17891,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -17945,10 +17969,10 @@
         <v>2.5</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18151,7 +18175,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18279,7 +18303,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18357,10 +18381,10 @@
         <v>2.6</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ84">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18485,7 +18509,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18566,7 +18590,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR85">
         <v>0.97</v>
@@ -18691,7 +18715,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18769,7 +18793,7 @@
         <v>0.25</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
         <v>0.33</v>
@@ -18897,7 +18921,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18978,7 +19002,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19387,7 +19411,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19515,7 +19539,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19721,7 +19745,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20133,7 +20157,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20420,7 +20444,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR94">
         <v>2.18</v>
@@ -20751,7 +20775,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21244,7 +21268,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.59</v>
@@ -21369,7 +21393,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21653,7 +21677,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.86</v>
@@ -21781,7 +21805,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -21859,10 +21883,10 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR101">
         <v>1.26</v>
@@ -21987,7 +22011,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22065,10 +22089,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR102">
         <v>1.35</v>
@@ -22193,7 +22217,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22477,10 +22501,10 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AR104">
         <v>1.72</v>
@@ -22605,7 +22629,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22811,7 +22835,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23017,7 +23041,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23098,7 +23122,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ107">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR107">
         <v>1.93</v>
@@ -23301,7 +23325,7 @@
         <v>0.6</v>
       </c>
       <c r="AP108">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -23429,7 +23453,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23635,7 +23659,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23841,7 +23865,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24047,7 +24071,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24128,7 +24152,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ112">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.23</v>
@@ -24253,7 +24277,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24459,7 +24483,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24665,7 +24689,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24871,7 +24895,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -24949,7 +24973,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.33</v>
@@ -25077,7 +25101,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25283,7 +25307,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25489,7 +25513,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25646,6 +25670,1036 @@
       </c>
       <c r="BP119">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7491938</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>173</v>
+      </c>
+      <c r="P120" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q120">
+        <v>2.2</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.36</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>1.55</v>
+      </c>
+      <c r="AA120">
+        <v>3.9</v>
+      </c>
+      <c r="AB120">
+        <v>6</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>12</v>
+      </c>
+      <c r="AE120">
+        <v>1.3</v>
+      </c>
+      <c r="AF120">
+        <v>3.6</v>
+      </c>
+      <c r="AG120">
+        <v>1.73</v>
+      </c>
+      <c r="AH120">
+        <v>1.98</v>
+      </c>
+      <c r="AI120">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120">
+        <v>1.8</v>
+      </c>
+      <c r="AK120">
+        <v>1.12</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>2.45</v>
+      </c>
+      <c r="AN120">
+        <v>1.83</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>1.71</v>
+      </c>
+      <c r="AQ120">
+        <v>0.13</v>
+      </c>
+      <c r="AR120">
+        <v>1.27</v>
+      </c>
+      <c r="AS120">
+        <v>1.19</v>
+      </c>
+      <c r="AT120">
+        <v>2.46</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>14</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>23</v>
+      </c>
+      <c r="AZ120">
+        <v>14</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
+        <v>6</v>
+      </c>
+      <c r="BC120">
+        <v>13</v>
+      </c>
+      <c r="BD120">
+        <v>1.32</v>
+      </c>
+      <c r="BE120">
+        <v>7.5</v>
+      </c>
+      <c r="BF120">
+        <v>3.7</v>
+      </c>
+      <c r="BG120">
+        <v>1.27</v>
+      </c>
+      <c r="BH120">
+        <v>3.3</v>
+      </c>
+      <c r="BI120">
+        <v>1.48</v>
+      </c>
+      <c r="BJ120">
+        <v>2.45</v>
+      </c>
+      <c r="BK120">
+        <v>1.76</v>
+      </c>
+      <c r="BL120">
+        <v>1.94</v>
+      </c>
+      <c r="BM120">
+        <v>2.18</v>
+      </c>
+      <c r="BN120">
+        <v>1.58</v>
+      </c>
+      <c r="BO120">
+        <v>2.8</v>
+      </c>
+      <c r="BP120">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7491936</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s">
+        <v>87</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>174</v>
+      </c>
+      <c r="P121" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q121">
+        <v>5.5</v>
+      </c>
+      <c r="R121">
+        <v>2.5</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>1.29</v>
+      </c>
+      <c r="U121">
+        <v>3.5</v>
+      </c>
+      <c r="V121">
+        <v>2.25</v>
+      </c>
+      <c r="W121">
+        <v>1.57</v>
+      </c>
+      <c r="X121">
+        <v>5.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.14</v>
+      </c>
+      <c r="Z121">
+        <v>7.5</v>
+      </c>
+      <c r="AA121">
+        <v>5</v>
+      </c>
+      <c r="AB121">
+        <v>1.36</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>19</v>
+      </c>
+      <c r="AE121">
+        <v>1.18</v>
+      </c>
+      <c r="AF121">
+        <v>5</v>
+      </c>
+      <c r="AG121">
+        <v>1.53</v>
+      </c>
+      <c r="AH121">
+        <v>2.4</v>
+      </c>
+      <c r="AI121">
+        <v>1.67</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>2.8</v>
+      </c>
+      <c r="AL121">
+        <v>1.15</v>
+      </c>
+      <c r="AM121">
+        <v>1.1</v>
+      </c>
+      <c r="AN121">
+        <v>1.14</v>
+      </c>
+      <c r="AO121">
+        <v>2.43</v>
+      </c>
+      <c r="AP121">
+        <v>1.38</v>
+      </c>
+      <c r="AQ121">
+        <v>2.13</v>
+      </c>
+      <c r="AR121">
+        <v>1.51</v>
+      </c>
+      <c r="AS121">
+        <v>2.09</v>
+      </c>
+      <c r="AT121">
+        <v>3.6</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>4</v>
+      </c>
+      <c r="AX121">
+        <v>6</v>
+      </c>
+      <c r="AY121">
+        <v>9</v>
+      </c>
+      <c r="AZ121">
+        <v>14</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>5</v>
+      </c>
+      <c r="BD121">
+        <v>3.9</v>
+      </c>
+      <c r="BE121">
+        <v>7.5</v>
+      </c>
+      <c r="BF121">
+        <v>1.29</v>
+      </c>
+      <c r="BG121">
+        <v>1.34</v>
+      </c>
+      <c r="BH121">
+        <v>2.9</v>
+      </c>
+      <c r="BI121">
+        <v>1.56</v>
+      </c>
+      <c r="BJ121">
+        <v>2.23</v>
+      </c>
+      <c r="BK121">
+        <v>1.91</v>
+      </c>
+      <c r="BL121">
+        <v>1.78</v>
+      </c>
+      <c r="BM121">
+        <v>2.43</v>
+      </c>
+      <c r="BN121">
+        <v>1.48</v>
+      </c>
+      <c r="BO121">
+        <v>3.2</v>
+      </c>
+      <c r="BP121">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7491935</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>85</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>96</v>
+      </c>
+      <c r="P122" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q122">
+        <v>5.5</v>
+      </c>
+      <c r="R122">
+        <v>2.38</v>
+      </c>
+      <c r="S122">
+        <v>2.1</v>
+      </c>
+      <c r="T122">
+        <v>1.33</v>
+      </c>
+      <c r="U122">
+        <v>3.25</v>
+      </c>
+      <c r="V122">
+        <v>2.5</v>
+      </c>
+      <c r="W122">
+        <v>1.5</v>
+      </c>
+      <c r="X122">
+        <v>6</v>
+      </c>
+      <c r="Y122">
+        <v>1.13</v>
+      </c>
+      <c r="Z122">
+        <v>5</v>
+      </c>
+      <c r="AA122">
+        <v>4.2</v>
+      </c>
+      <c r="AB122">
+        <v>1.6</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>17</v>
+      </c>
+      <c r="AE122">
+        <v>1.2</v>
+      </c>
+      <c r="AF122">
+        <v>4.5</v>
+      </c>
+      <c r="AG122">
+        <v>1.64</v>
+      </c>
+      <c r="AH122">
+        <v>2.18</v>
+      </c>
+      <c r="AI122">
+        <v>1.7</v>
+      </c>
+      <c r="AJ122">
+        <v>2.05</v>
+      </c>
+      <c r="AK122">
+        <v>2.35</v>
+      </c>
+      <c r="AL122">
+        <v>1.19</v>
+      </c>
+      <c r="AM122">
+        <v>1.17</v>
+      </c>
+      <c r="AN122">
+        <v>2</v>
+      </c>
+      <c r="AO122">
+        <v>2</v>
+      </c>
+      <c r="AP122">
+        <v>1.75</v>
+      </c>
+      <c r="AQ122">
+        <v>2.14</v>
+      </c>
+      <c r="AR122">
+        <v>1.69</v>
+      </c>
+      <c r="AS122">
+        <v>1.55</v>
+      </c>
+      <c r="AT122">
+        <v>3.24</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>3</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>9</v>
+      </c>
+      <c r="AZ122">
+        <v>15</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>9</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>3.3</v>
+      </c>
+      <c r="BE122">
+        <v>7</v>
+      </c>
+      <c r="BF122">
+        <v>1.41</v>
+      </c>
+      <c r="BG122">
+        <v>1.29</v>
+      </c>
+      <c r="BH122">
+        <v>3.15</v>
+      </c>
+      <c r="BI122">
+        <v>1.5</v>
+      </c>
+      <c r="BJ122">
+        <v>2.35</v>
+      </c>
+      <c r="BK122">
+        <v>1.82</v>
+      </c>
+      <c r="BL122">
+        <v>1.86</v>
+      </c>
+      <c r="BM122">
+        <v>2.28</v>
+      </c>
+      <c r="BN122">
+        <v>1.54</v>
+      </c>
+      <c r="BO122">
+        <v>2.9</v>
+      </c>
+      <c r="BP122">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7491937</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>81</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>175</v>
+      </c>
+      <c r="P123" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q123">
+        <v>1.91</v>
+      </c>
+      <c r="R123">
+        <v>2.63</v>
+      </c>
+      <c r="S123">
+        <v>5.5</v>
+      </c>
+      <c r="T123">
+        <v>1.25</v>
+      </c>
+      <c r="U123">
+        <v>3.75</v>
+      </c>
+      <c r="V123">
+        <v>2.1</v>
+      </c>
+      <c r="W123">
+        <v>1.67</v>
+      </c>
+      <c r="X123">
+        <v>5</v>
+      </c>
+      <c r="Y123">
+        <v>1.17</v>
+      </c>
+      <c r="Z123">
+        <v>1.5</v>
+      </c>
+      <c r="AA123">
+        <v>4.5</v>
+      </c>
+      <c r="AB123">
+        <v>6</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>23</v>
+      </c>
+      <c r="AE123">
+        <v>1.15</v>
+      </c>
+      <c r="AF123">
+        <v>5.5</v>
+      </c>
+      <c r="AG123">
+        <v>1.6</v>
+      </c>
+      <c r="AH123">
+        <v>2.2</v>
+      </c>
+      <c r="AI123">
+        <v>1.57</v>
+      </c>
+      <c r="AJ123">
+        <v>2.25</v>
+      </c>
+      <c r="AK123">
+        <v>1.12</v>
+      </c>
+      <c r="AL123">
+        <v>1.15</v>
+      </c>
+      <c r="AM123">
+        <v>2.7</v>
+      </c>
+      <c r="AN123">
+        <v>1.86</v>
+      </c>
+      <c r="AO123">
+        <v>0.33</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+      <c r="AQ123">
+        <v>0.29</v>
+      </c>
+      <c r="AR123">
+        <v>1.56</v>
+      </c>
+      <c r="AS123">
+        <v>1.18</v>
+      </c>
+      <c r="AT123">
+        <v>2.74</v>
+      </c>
+      <c r="AU123">
+        <v>8</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>9</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>19</v>
+      </c>
+      <c r="AZ123">
+        <v>13</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>1.33</v>
+      </c>
+      <c r="BE123">
+        <v>7.5</v>
+      </c>
+      <c r="BF123">
+        <v>3.55</v>
+      </c>
+      <c r="BG123">
+        <v>1.2</v>
+      </c>
+      <c r="BH123">
+        <v>3.9</v>
+      </c>
+      <c r="BI123">
+        <v>1.36</v>
+      </c>
+      <c r="BJ123">
+        <v>2.8</v>
+      </c>
+      <c r="BK123">
+        <v>1.58</v>
+      </c>
+      <c r="BL123">
+        <v>2.18</v>
+      </c>
+      <c r="BM123">
+        <v>1.94</v>
+      </c>
+      <c r="BN123">
+        <v>1.76</v>
+      </c>
+      <c r="BO123">
+        <v>2.43</v>
+      </c>
+      <c r="BP123">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7491939</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45640.60416666666</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>96</v>
+      </c>
+      <c r="P124" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q124">
+        <v>3.25</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>3.25</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>8</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>2.53</v>
+      </c>
+      <c r="AA124">
+        <v>3.3</v>
+      </c>
+      <c r="AB124">
+        <v>2.61</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>12</v>
+      </c>
+      <c r="AE124">
+        <v>1.3</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.67</v>
+      </c>
+      <c r="AH124">
+        <v>2.21</v>
+      </c>
+      <c r="AI124">
+        <v>1.7</v>
+      </c>
+      <c r="AJ124">
+        <v>2.05</v>
+      </c>
+      <c r="AK124">
+        <v>1.52</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.52</v>
+      </c>
+      <c r="AN124">
+        <v>0.83</v>
+      </c>
+      <c r="AO124">
+        <v>1.86</v>
+      </c>
+      <c r="AP124">
+        <v>0.71</v>
+      </c>
+      <c r="AQ124">
+        <v>2</v>
+      </c>
+      <c r="AR124">
+        <v>1.24</v>
+      </c>
+      <c r="AS124">
+        <v>1.28</v>
+      </c>
+      <c r="AT124">
+        <v>2.52</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>5</v>
+      </c>
+      <c r="AW124">
+        <v>5</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>16</v>
+      </c>
+      <c r="AZ124">
+        <v>9</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>1.88</v>
+      </c>
+      <c r="BE124">
+        <v>6.25</v>
+      </c>
+      <c r="BF124">
+        <v>2.15</v>
+      </c>
+      <c r="BG124">
+        <v>1.35</v>
+      </c>
+      <c r="BH124">
+        <v>2.88</v>
+      </c>
+      <c r="BI124">
+        <v>1.6</v>
+      </c>
+      <c r="BJ124">
+        <v>2.17</v>
+      </c>
+      <c r="BK124">
+        <v>1.98</v>
+      </c>
+      <c r="BL124">
+        <v>1.72</v>
+      </c>
+      <c r="BM124">
+        <v>2.5</v>
+      </c>
+      <c r="BN124">
+        <v>1.46</v>
+      </c>
+      <c r="BO124">
+        <v>3.3</v>
+      </c>
+      <c r="BP124">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,15 @@
     <t>['1', '26', '43', '79']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['19', '51']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -791,6 +800,9 @@
   </si>
   <si>
     <t>['24', '54']</t>
+  </si>
+  <si>
+    <t>['20', '45+2', '85']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1423,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1695,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.13</v>
@@ -1823,7 +1835,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2029,7 +2041,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2110,7 +2122,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2235,7 +2247,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2441,7 +2453,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2725,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2853,7 +2865,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3059,7 +3071,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3471,7 +3483,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3677,7 +3689,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3883,7 +3895,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3964,7 +3976,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4089,7 +4101,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4501,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4785,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ18">
         <v>0.33</v>
@@ -5119,7 +5131,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5197,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>0.86</v>
@@ -5403,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.71</v>
@@ -5531,7 +5543,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5943,7 +5955,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6024,7 +6036,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>1.03</v>
@@ -6149,7 +6161,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6230,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>1.46</v>
@@ -6355,7 +6367,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6561,7 +6573,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6767,7 +6779,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6973,7 +6985,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7179,7 +7191,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7257,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
         <v>1.14</v>
@@ -7385,7 +7397,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7591,7 +7603,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7672,7 +7684,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>1.36</v>
@@ -7797,7 +7809,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8209,7 +8221,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8415,7 +8427,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8827,7 +8839,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8905,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ38">
         <v>0.13</v>
@@ -9239,7 +9251,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9445,7 +9457,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9526,7 +9538,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.28</v>
@@ -9651,7 +9663,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9935,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.33</v>
@@ -10063,7 +10075,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10269,7 +10281,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10350,7 +10362,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1</v>
@@ -10475,7 +10487,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10887,7 +10899,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11093,7 +11105,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11299,7 +11311,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11505,7 +11517,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11711,7 +11723,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11995,7 +12007,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ53">
         <v>1.86</v>
@@ -12123,7 +12135,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12329,7 +12341,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12410,7 +12422,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR55">
         <v>2.29</v>
@@ -12535,7 +12547,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12613,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12741,7 +12753,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12822,7 +12834,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
         <v>2.44</v>
@@ -13153,7 +13165,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13359,7 +13371,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13565,7 +13577,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13852,7 +13864,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.47</v>
@@ -13977,7 +13989,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14183,7 +14195,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14389,7 +14401,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14595,7 +14607,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15007,7 +15019,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15085,7 +15097,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.14</v>
@@ -15213,7 +15225,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15419,7 +15431,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15625,7 +15637,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15831,7 +15843,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15912,7 +15924,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR72">
         <v>1.22</v>
@@ -16115,10 +16127,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR73">
         <v>1.3</v>
@@ -16324,7 +16336,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>2.41</v>
@@ -16655,7 +16667,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16861,7 +16873,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17557,7 +17569,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ80">
         <v>1.86</v>
@@ -17891,7 +17903,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18303,7 +18315,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18509,7 +18521,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18715,7 +18727,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18921,7 +18933,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19205,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
         <v>0.83</v>
@@ -19414,7 +19426,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR89">
         <v>1.8</v>
@@ -19539,7 +19551,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19620,7 +19632,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR90">
         <v>2.13</v>
@@ -19745,7 +19757,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -19823,7 +19835,7 @@
         <v>1.75</v>
       </c>
       <c r="AP91">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ91">
         <v>1.86</v>
@@ -20157,7 +20169,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20647,7 +20659,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95">
         <v>1.14</v>
@@ -20775,7 +20787,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21393,7 +21405,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21805,7 +21817,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22011,7 +22023,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22217,7 +22229,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22629,7 +22641,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22707,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>1.86</v>
@@ -22835,7 +22847,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22916,7 +22928,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR106">
         <v>1.1</v>
@@ -23041,7 +23053,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23119,7 +23131,7 @@
         <v>2.67</v>
       </c>
       <c r="AP107">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107">
         <v>2.13</v>
@@ -23328,7 +23340,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR108">
         <v>1.45</v>
@@ -23453,7 +23465,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23531,10 +23543,10 @@
         <v>1.67</v>
       </c>
       <c r="AP109">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ109">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR109">
         <v>1.42</v>
@@ -23659,7 +23671,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23865,7 +23877,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24071,7 +24083,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24277,7 +24289,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24483,7 +24495,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24689,7 +24701,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24895,7 +24907,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25101,7 +25113,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25307,7 +25319,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25513,7 +25525,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25689,7 +25701,7 @@
         <v>45640.47916666666</v>
       </c>
       <c r="F120">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>79</v>
@@ -25719,7 +25731,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25925,7 +25937,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26101,7 +26113,7 @@
         <v>45640.47916666666</v>
       </c>
       <c r="F122">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>74</v>
@@ -26131,7 +26143,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26337,7 +26349,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>1.91</v>
@@ -26543,7 +26555,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26700,6 +26712,624 @@
       </c>
       <c r="BP124">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7491933</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45641.47916666666</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>86</v>
+      </c>
+      <c r="H125" t="s">
+        <v>80</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>176</v>
+      </c>
+      <c r="P125" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q125">
+        <v>4.33</v>
+      </c>
+      <c r="R125">
+        <v>2.3</v>
+      </c>
+      <c r="S125">
+        <v>2.5</v>
+      </c>
+      <c r="T125">
+        <v>1.33</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>6.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.11</v>
+      </c>
+      <c r="Z125">
+        <v>3.5</v>
+      </c>
+      <c r="AA125">
+        <v>3.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.9</v>
+      </c>
+      <c r="AC125">
+        <v>1.03</v>
+      </c>
+      <c r="AD125">
+        <v>15</v>
+      </c>
+      <c r="AE125">
+        <v>1.22</v>
+      </c>
+      <c r="AF125">
+        <v>4.33</v>
+      </c>
+      <c r="AG125">
+        <v>1.65</v>
+      </c>
+      <c r="AH125">
+        <v>2.2</v>
+      </c>
+      <c r="AI125">
+        <v>1.67</v>
+      </c>
+      <c r="AJ125">
+        <v>2.1</v>
+      </c>
+      <c r="AK125">
+        <v>1.98</v>
+      </c>
+      <c r="AL125">
+        <v>1.22</v>
+      </c>
+      <c r="AM125">
+        <v>1.26</v>
+      </c>
+      <c r="AN125">
+        <v>0.67</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
+        <v>0.57</v>
+      </c>
+      <c r="AQ125">
+        <v>1.29</v>
+      </c>
+      <c r="AR125">
+        <v>1.33</v>
+      </c>
+      <c r="AS125">
+        <v>1.05</v>
+      </c>
+      <c r="AT125">
+        <v>2.38</v>
+      </c>
+      <c r="AU125">
+        <v>3</v>
+      </c>
+      <c r="AV125">
+        <v>8</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>10</v>
+      </c>
+      <c r="AZ125">
+        <v>19</v>
+      </c>
+      <c r="BA125">
+        <v>9</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>15</v>
+      </c>
+      <c r="BD125">
+        <v>2.55</v>
+      </c>
+      <c r="BE125">
+        <v>6.5</v>
+      </c>
+      <c r="BF125">
+        <v>1.64</v>
+      </c>
+      <c r="BG125">
+        <v>1.3</v>
+      </c>
+      <c r="BH125">
+        <v>3.15</v>
+      </c>
+      <c r="BI125">
+        <v>1.52</v>
+      </c>
+      <c r="BJ125">
+        <v>2.33</v>
+      </c>
+      <c r="BK125">
+        <v>1.84</v>
+      </c>
+      <c r="BL125">
+        <v>1.84</v>
+      </c>
+      <c r="BM125">
+        <v>2.32</v>
+      </c>
+      <c r="BN125">
+        <v>1.52</v>
+      </c>
+      <c r="BO125">
+        <v>2.95</v>
+      </c>
+      <c r="BP125">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7491932</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45641.5625</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>72</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>177</v>
+      </c>
+      <c r="P126" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q126">
+        <v>1.83</v>
+      </c>
+      <c r="R126">
+        <v>2.75</v>
+      </c>
+      <c r="S126">
+        <v>5.5</v>
+      </c>
+      <c r="T126">
+        <v>1.22</v>
+      </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
+      <c r="V126">
+        <v>2</v>
+      </c>
+      <c r="W126">
+        <v>1.73</v>
+      </c>
+      <c r="X126">
+        <v>4.33</v>
+      </c>
+      <c r="Y126">
+        <v>1.2</v>
+      </c>
+      <c r="Z126">
+        <v>1.4</v>
+      </c>
+      <c r="AA126">
+        <v>4.7</v>
+      </c>
+      <c r="AB126">
+        <v>5.6</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>26</v>
+      </c>
+      <c r="AE126">
+        <v>1.12</v>
+      </c>
+      <c r="AF126">
+        <v>6.5</v>
+      </c>
+      <c r="AG126">
+        <v>1.38</v>
+      </c>
+      <c r="AH126">
+        <v>2.9</v>
+      </c>
+      <c r="AI126">
+        <v>1.57</v>
+      </c>
+      <c r="AJ126">
+        <v>2.25</v>
+      </c>
+      <c r="AK126">
+        <v>1.11</v>
+      </c>
+      <c r="AL126">
+        <v>1.13</v>
+      </c>
+      <c r="AM126">
+        <v>2.9</v>
+      </c>
+      <c r="AN126">
+        <v>2.71</v>
+      </c>
+      <c r="AO126">
+        <v>0.5</v>
+      </c>
+      <c r="AP126">
+        <v>2.5</v>
+      </c>
+      <c r="AQ126">
+        <v>0.57</v>
+      </c>
+      <c r="AR126">
+        <v>1.74</v>
+      </c>
+      <c r="AS126">
+        <v>1.09</v>
+      </c>
+      <c r="AT126">
+        <v>2.83</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
+        <v>3</v>
+      </c>
+      <c r="AX126">
+        <v>9</v>
+      </c>
+      <c r="AY126">
+        <v>7</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>9</v>
+      </c>
+      <c r="BC126">
+        <v>12</v>
+      </c>
+      <c r="BD126">
+        <v>1.28</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>3.95</v>
+      </c>
+      <c r="BG126">
+        <v>1.19</v>
+      </c>
+      <c r="BH126">
+        <v>4</v>
+      </c>
+      <c r="BI126">
+        <v>1.34</v>
+      </c>
+      <c r="BJ126">
+        <v>2.9</v>
+      </c>
+      <c r="BK126">
+        <v>1.58</v>
+      </c>
+      <c r="BL126">
+        <v>2.2</v>
+      </c>
+      <c r="BM126">
+        <v>1.9</v>
+      </c>
+      <c r="BN126">
+        <v>1.79</v>
+      </c>
+      <c r="BO126">
+        <v>2.33</v>
+      </c>
+      <c r="BP126">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7491931</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45641.64583333334</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>178</v>
+      </c>
+      <c r="P127" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q127">
+        <v>2.63</v>
+      </c>
+      <c r="R127">
+        <v>2.4</v>
+      </c>
+      <c r="S127">
+        <v>3.5</v>
+      </c>
+      <c r="T127">
+        <v>1.29</v>
+      </c>
+      <c r="U127">
+        <v>3.5</v>
+      </c>
+      <c r="V127">
+        <v>2.25</v>
+      </c>
+      <c r="W127">
+        <v>1.57</v>
+      </c>
+      <c r="X127">
+        <v>5.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.14</v>
+      </c>
+      <c r="Z127">
+        <v>2.17</v>
+      </c>
+      <c r="AA127">
+        <v>3.5</v>
+      </c>
+      <c r="AB127">
+        <v>2.8</v>
+      </c>
+      <c r="AC127">
+        <v>1.02</v>
+      </c>
+      <c r="AD127">
+        <v>19</v>
+      </c>
+      <c r="AE127">
+        <v>1.18</v>
+      </c>
+      <c r="AF127">
+        <v>5</v>
+      </c>
+      <c r="AG127">
+        <v>1.55</v>
+      </c>
+      <c r="AH127">
+        <v>2.3</v>
+      </c>
+      <c r="AI127">
+        <v>1.5</v>
+      </c>
+      <c r="AJ127">
+        <v>2.5</v>
+      </c>
+      <c r="AK127">
+        <v>1.38</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>1.78</v>
+      </c>
+      <c r="AN127">
+        <v>1.83</v>
+      </c>
+      <c r="AO127">
+        <v>1.86</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>1.63</v>
+      </c>
+      <c r="AR127">
+        <v>1.42</v>
+      </c>
+      <c r="AS127">
+        <v>1.41</v>
+      </c>
+      <c r="AT127">
+        <v>2.83</v>
+      </c>
+      <c r="AU127">
+        <v>10</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>20</v>
+      </c>
+      <c r="AZ127">
+        <v>17</v>
+      </c>
+      <c r="BA127">
+        <v>6</v>
+      </c>
+      <c r="BB127">
+        <v>7</v>
+      </c>
+      <c r="BC127">
+        <v>13</v>
+      </c>
+      <c r="BD127">
+        <v>1.68</v>
+      </c>
+      <c r="BE127">
+        <v>6.4</v>
+      </c>
+      <c r="BF127">
+        <v>2.45</v>
+      </c>
+      <c r="BG127">
+        <v>1.34</v>
+      </c>
+      <c r="BH127">
+        <v>2.9</v>
+      </c>
+      <c r="BI127">
+        <v>1.58</v>
+      </c>
+      <c r="BJ127">
+        <v>2.18</v>
+      </c>
+      <c r="BK127">
+        <v>1.95</v>
+      </c>
+      <c r="BL127">
+        <v>1.74</v>
+      </c>
+      <c r="BM127">
+        <v>2.43</v>
+      </c>
+      <c r="BN127">
+        <v>1.47</v>
+      </c>
+      <c r="BO127">
+        <v>3.15</v>
+      </c>
+      <c r="BP127">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -544,10 +544,10 @@
     <t>['1', '26', '43', '79']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['46']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['41']</t>
   </si>
   <si>
     <t>['19', '51']</t>
@@ -26719,7 +26719,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7491933</v>
+        <v>7491932</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26728,196 +26728,196 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45641.47916666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H125" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O125" t="s">
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q125">
+        <v>1.83</v>
+      </c>
+      <c r="R125">
+        <v>2.75</v>
+      </c>
+      <c r="S125">
+        <v>5.5</v>
+      </c>
+      <c r="T125">
+        <v>1.22</v>
+      </c>
+      <c r="U125">
+        <v>4</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>1.73</v>
+      </c>
+      <c r="X125">
         <v>4.33</v>
       </c>
-      <c r="R125">
-        <v>2.3</v>
-      </c>
-      <c r="S125">
+      <c r="Y125">
+        <v>1.2</v>
+      </c>
+      <c r="Z125">
+        <v>1.4</v>
+      </c>
+      <c r="AA125">
+        <v>4.7</v>
+      </c>
+      <c r="AB125">
+        <v>5.6</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>26</v>
+      </c>
+      <c r="AE125">
+        <v>1.12</v>
+      </c>
+      <c r="AF125">
+        <v>6.5</v>
+      </c>
+      <c r="AG125">
+        <v>1.38</v>
+      </c>
+      <c r="AH125">
+        <v>2.9</v>
+      </c>
+      <c r="AI125">
+        <v>1.57</v>
+      </c>
+      <c r="AJ125">
+        <v>2.25</v>
+      </c>
+      <c r="AK125">
+        <v>1.11</v>
+      </c>
+      <c r="AL125">
+        <v>1.13</v>
+      </c>
+      <c r="AM125">
+        <v>2.9</v>
+      </c>
+      <c r="AN125">
+        <v>2.71</v>
+      </c>
+      <c r="AO125">
+        <v>0.5</v>
+      </c>
+      <c r="AP125">
         <v>2.5</v>
       </c>
-      <c r="T125">
-        <v>1.33</v>
-      </c>
-      <c r="U125">
-        <v>3.25</v>
-      </c>
-      <c r="V125">
-        <v>2.5</v>
-      </c>
-      <c r="W125">
-        <v>1.5</v>
-      </c>
-      <c r="X125">
-        <v>6.5</v>
-      </c>
-      <c r="Y125">
-        <v>1.11</v>
-      </c>
-      <c r="Z125">
-        <v>3.5</v>
-      </c>
-      <c r="AA125">
-        <v>3.5</v>
-      </c>
-      <c r="AB125">
-        <v>1.9</v>
-      </c>
-      <c r="AC125">
-        <v>1.03</v>
-      </c>
-      <c r="AD125">
-        <v>15</v>
-      </c>
-      <c r="AE125">
-        <v>1.22</v>
-      </c>
-      <c r="AF125">
-        <v>4.33</v>
-      </c>
-      <c r="AG125">
-        <v>1.65</v>
-      </c>
-      <c r="AH125">
-        <v>2.2</v>
-      </c>
-      <c r="AI125">
-        <v>1.67</v>
-      </c>
-      <c r="AJ125">
-        <v>2.1</v>
-      </c>
-      <c r="AK125">
-        <v>1.98</v>
-      </c>
-      <c r="AL125">
-        <v>1.22</v>
-      </c>
-      <c r="AM125">
-        <v>1.26</v>
-      </c>
-      <c r="AN125">
-        <v>0.67</v>
-      </c>
-      <c r="AO125">
-        <v>1</v>
-      </c>
-      <c r="AP125">
+      <c r="AQ125">
         <v>0.57</v>
       </c>
-      <c r="AQ125">
-        <v>1.29</v>
-      </c>
       <c r="AR125">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AS125">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT125">
-        <v>2.38</v>
+        <v>2.83</v>
       </c>
       <c r="AU125">
         <v>3</v>
       </c>
       <c r="AV125">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW125">
         <v>3</v>
       </c>
       <c r="AX125">
+        <v>9</v>
+      </c>
+      <c r="AY125">
+        <v>7</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>9</v>
+      </c>
+      <c r="BC125">
+        <v>12</v>
+      </c>
+      <c r="BD125">
+        <v>1.28</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>3.95</v>
+      </c>
+      <c r="BG125">
+        <v>1.19</v>
+      </c>
+      <c r="BH125">
         <v>4</v>
       </c>
-      <c r="AY125">
-        <v>10</v>
-      </c>
-      <c r="AZ125">
-        <v>19</v>
-      </c>
-      <c r="BA125">
-        <v>9</v>
-      </c>
-      <c r="BB125">
-        <v>6</v>
-      </c>
-      <c r="BC125">
-        <v>15</v>
-      </c>
-      <c r="BD125">
-        <v>2.55</v>
-      </c>
-      <c r="BE125">
-        <v>6.5</v>
-      </c>
-      <c r="BF125">
-        <v>1.64</v>
-      </c>
-      <c r="BG125">
-        <v>1.3</v>
-      </c>
-      <c r="BH125">
-        <v>3.15</v>
-      </c>
       <c r="BI125">
+        <v>1.34</v>
+      </c>
+      <c r="BJ125">
+        <v>2.9</v>
+      </c>
+      <c r="BK125">
+        <v>1.58</v>
+      </c>
+      <c r="BL125">
+        <v>2.2</v>
+      </c>
+      <c r="BM125">
+        <v>1.9</v>
+      </c>
+      <c r="BN125">
+        <v>1.79</v>
+      </c>
+      <c r="BO125">
+        <v>2.33</v>
+      </c>
+      <c r="BP125">
         <v>1.52</v>
-      </c>
-      <c r="BJ125">
-        <v>2.33</v>
-      </c>
-      <c r="BK125">
-        <v>1.84</v>
-      </c>
-      <c r="BL125">
-        <v>1.84</v>
-      </c>
-      <c r="BM125">
-        <v>2.32</v>
-      </c>
-      <c r="BN125">
-        <v>1.52</v>
-      </c>
-      <c r="BO125">
-        <v>2.95</v>
-      </c>
-      <c r="BP125">
-        <v>1.33</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26925,7 +26925,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7491932</v>
+        <v>7491933</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26934,196 +26934,196 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45641.5625</v>
+        <v>45640.875</v>
       </c>
       <c r="F126">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H126" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O126" t="s">
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="Q126">
-        <v>1.83</v>
+        <v>4.33</v>
       </c>
       <c r="R126">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S126">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.5</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>6.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.11</v>
+      </c>
+      <c r="Z126">
+        <v>3.5</v>
+      </c>
+      <c r="AA126">
+        <v>3.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.9</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>15</v>
+      </c>
+      <c r="AE126">
         <v>1.22</v>
       </c>
-      <c r="U126">
-        <v>4</v>
-      </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
-      <c r="W126">
-        <v>1.73</v>
-      </c>
-      <c r="X126">
+      <c r="AF126">
         <v>4.33</v>
       </c>
-      <c r="Y126">
-        <v>1.2</v>
-      </c>
-      <c r="Z126">
-        <v>1.4</v>
-      </c>
-      <c r="AA126">
-        <v>4.7</v>
-      </c>
-      <c r="AB126">
-        <v>5.6</v>
-      </c>
-      <c r="AC126">
-        <v>1.01</v>
-      </c>
-      <c r="AD126">
-        <v>26</v>
-      </c>
-      <c r="AE126">
-        <v>1.12</v>
-      </c>
-      <c r="AF126">
-        <v>6.5</v>
-      </c>
       <c r="AG126">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AH126">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AI126">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ126">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK126">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
       <c r="AL126">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AM126">
-        <v>2.9</v>
+        <v>1.26</v>
       </c>
       <c r="AN126">
-        <v>2.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AR126">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AS126">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT126">
-        <v>2.83</v>
+        <v>2.38</v>
       </c>
       <c r="AU126">
         <v>3</v>
       </c>
       <c r="AV126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW126">
         <v>3</v>
       </c>
       <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>10</v>
+      </c>
+      <c r="AZ126">
+        <v>19</v>
+      </c>
+      <c r="BA126">
         <v>9</v>
       </c>
-      <c r="AY126">
-        <v>7</v>
-      </c>
-      <c r="AZ126">
-        <v>13</v>
-      </c>
-      <c r="BA126">
-        <v>3</v>
-      </c>
       <c r="BB126">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC126">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD126">
-        <v>1.28</v>
+        <v>2.55</v>
       </c>
       <c r="BE126">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BF126">
-        <v>3.95</v>
+        <v>1.64</v>
       </c>
       <c r="BG126">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BH126">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="BI126">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="BJ126">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="BK126">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="BL126">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="BM126">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="BN126">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="BO126">
-        <v>2.33</v>
+        <v>2.95</v>
       </c>
       <c r="BP126">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="127" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -544,10 +544,10 @@
     <t>['1', '26', '43', '79']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['41']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['46']</t>
   </si>
   <si>
     <t>['19', '51']</t>
@@ -26719,7 +26719,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7491932</v>
+        <v>7491933</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26728,196 +26728,196 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45640.875</v>
+        <v>45641.47916666666</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H125" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O125" t="s">
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="Q125">
-        <v>1.83</v>
+        <v>4.33</v>
       </c>
       <c r="R125">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S125">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="T125">
+        <v>1.33</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.5</v>
+      </c>
+      <c r="X125">
+        <v>6.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.11</v>
+      </c>
+      <c r="Z125">
+        <v>3.5</v>
+      </c>
+      <c r="AA125">
+        <v>3.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.9</v>
+      </c>
+      <c r="AC125">
+        <v>1.03</v>
+      </c>
+      <c r="AD125">
+        <v>15</v>
+      </c>
+      <c r="AE125">
         <v>1.22</v>
       </c>
-      <c r="U125">
-        <v>4</v>
-      </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
-      <c r="W125">
-        <v>1.73</v>
-      </c>
-      <c r="X125">
+      <c r="AF125">
         <v>4.33</v>
       </c>
-      <c r="Y125">
-        <v>1.2</v>
-      </c>
-      <c r="Z125">
-        <v>1.4</v>
-      </c>
-      <c r="AA125">
-        <v>4.7</v>
-      </c>
-      <c r="AB125">
-        <v>5.6</v>
-      </c>
-      <c r="AC125">
-        <v>1.01</v>
-      </c>
-      <c r="AD125">
-        <v>26</v>
-      </c>
-      <c r="AE125">
-        <v>1.12</v>
-      </c>
-      <c r="AF125">
-        <v>6.5</v>
-      </c>
       <c r="AG125">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AH125">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AI125">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ125">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK125">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
       <c r="AL125">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AM125">
-        <v>2.9</v>
+        <v>1.26</v>
       </c>
       <c r="AN125">
-        <v>2.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO125">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP125">
-        <v>2.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ125">
-        <v>0.57</v>
+        <v>1.29</v>
       </c>
       <c r="AR125">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT125">
-        <v>2.83</v>
+        <v>2.38</v>
       </c>
       <c r="AU125">
         <v>3</v>
       </c>
       <c r="AV125">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW125">
         <v>3</v>
       </c>
       <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>10</v>
+      </c>
+      <c r="AZ125">
+        <v>19</v>
+      </c>
+      <c r="BA125">
         <v>9</v>
       </c>
-      <c r="AY125">
-        <v>7</v>
-      </c>
-      <c r="AZ125">
-        <v>13</v>
-      </c>
-      <c r="BA125">
-        <v>3</v>
-      </c>
       <c r="BB125">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC125">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD125">
-        <v>1.28</v>
+        <v>2.55</v>
       </c>
       <c r="BE125">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="BF125">
-        <v>3.95</v>
+        <v>1.64</v>
       </c>
       <c r="BG125">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BH125">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="BI125">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="BJ125">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="BK125">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="BL125">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="BM125">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="BN125">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="BO125">
-        <v>2.33</v>
+        <v>2.95</v>
       </c>
       <c r="BP125">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26925,7 +26925,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7491933</v>
+        <v>7491932</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26934,196 +26934,196 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45640.875</v>
+        <v>45641.5625</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H126" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O126" t="s">
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q126">
+        <v>1.83</v>
+      </c>
+      <c r="R126">
+        <v>2.75</v>
+      </c>
+      <c r="S126">
+        <v>5.5</v>
+      </c>
+      <c r="T126">
+        <v>1.22</v>
+      </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
+      <c r="V126">
+        <v>2</v>
+      </c>
+      <c r="W126">
+        <v>1.73</v>
+      </c>
+      <c r="X126">
         <v>4.33</v>
       </c>
-      <c r="R126">
-        <v>2.3</v>
-      </c>
-      <c r="S126">
+      <c r="Y126">
+        <v>1.2</v>
+      </c>
+      <c r="Z126">
+        <v>1.4</v>
+      </c>
+      <c r="AA126">
+        <v>4.7</v>
+      </c>
+      <c r="AB126">
+        <v>5.6</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>26</v>
+      </c>
+      <c r="AE126">
+        <v>1.12</v>
+      </c>
+      <c r="AF126">
+        <v>6.5</v>
+      </c>
+      <c r="AG126">
+        <v>1.38</v>
+      </c>
+      <c r="AH126">
+        <v>2.9</v>
+      </c>
+      <c r="AI126">
+        <v>1.57</v>
+      </c>
+      <c r="AJ126">
+        <v>2.25</v>
+      </c>
+      <c r="AK126">
+        <v>1.11</v>
+      </c>
+      <c r="AL126">
+        <v>1.13</v>
+      </c>
+      <c r="AM126">
+        <v>2.9</v>
+      </c>
+      <c r="AN126">
+        <v>2.71</v>
+      </c>
+      <c r="AO126">
+        <v>0.5</v>
+      </c>
+      <c r="AP126">
         <v>2.5</v>
       </c>
-      <c r="T126">
-        <v>1.33</v>
-      </c>
-      <c r="U126">
-        <v>3.25</v>
-      </c>
-      <c r="V126">
-        <v>2.5</v>
-      </c>
-      <c r="W126">
-        <v>1.5</v>
-      </c>
-      <c r="X126">
-        <v>6.5</v>
-      </c>
-      <c r="Y126">
-        <v>1.11</v>
-      </c>
-      <c r="Z126">
-        <v>3.5</v>
-      </c>
-      <c r="AA126">
-        <v>3.5</v>
-      </c>
-      <c r="AB126">
-        <v>1.9</v>
-      </c>
-      <c r="AC126">
-        <v>1.03</v>
-      </c>
-      <c r="AD126">
-        <v>15</v>
-      </c>
-      <c r="AE126">
-        <v>1.22</v>
-      </c>
-      <c r="AF126">
-        <v>4.33</v>
-      </c>
-      <c r="AG126">
-        <v>1.65</v>
-      </c>
-      <c r="AH126">
-        <v>2.2</v>
-      </c>
-      <c r="AI126">
-        <v>1.67</v>
-      </c>
-      <c r="AJ126">
-        <v>2.1</v>
-      </c>
-      <c r="AK126">
-        <v>1.98</v>
-      </c>
-      <c r="AL126">
-        <v>1.22</v>
-      </c>
-      <c r="AM126">
-        <v>1.26</v>
-      </c>
-      <c r="AN126">
-        <v>0.67</v>
-      </c>
-      <c r="AO126">
-        <v>1</v>
-      </c>
-      <c r="AP126">
+      <c r="AQ126">
         <v>0.57</v>
       </c>
-      <c r="AQ126">
-        <v>1.29</v>
-      </c>
       <c r="AR126">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AS126">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT126">
-        <v>2.38</v>
+        <v>2.83</v>
       </c>
       <c r="AU126">
         <v>3</v>
       </c>
       <c r="AV126">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW126">
         <v>3</v>
       </c>
       <c r="AX126">
+        <v>9</v>
+      </c>
+      <c r="AY126">
+        <v>7</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>9</v>
+      </c>
+      <c r="BC126">
+        <v>12</v>
+      </c>
+      <c r="BD126">
+        <v>1.28</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>3.95</v>
+      </c>
+      <c r="BG126">
+        <v>1.19</v>
+      </c>
+      <c r="BH126">
         <v>4</v>
       </c>
-      <c r="AY126">
-        <v>10</v>
-      </c>
-      <c r="AZ126">
-        <v>19</v>
-      </c>
-      <c r="BA126">
-        <v>9</v>
-      </c>
-      <c r="BB126">
-        <v>6</v>
-      </c>
-      <c r="BC126">
-        <v>15</v>
-      </c>
-      <c r="BD126">
-        <v>2.55</v>
-      </c>
-      <c r="BE126">
-        <v>6.5</v>
-      </c>
-      <c r="BF126">
-        <v>1.64</v>
-      </c>
-      <c r="BG126">
-        <v>1.3</v>
-      </c>
-      <c r="BH126">
-        <v>3.15</v>
-      </c>
       <c r="BI126">
+        <v>1.34</v>
+      </c>
+      <c r="BJ126">
+        <v>2.9</v>
+      </c>
+      <c r="BK126">
+        <v>1.58</v>
+      </c>
+      <c r="BL126">
+        <v>2.2</v>
+      </c>
+      <c r="BM126">
+        <v>1.9</v>
+      </c>
+      <c r="BN126">
+        <v>1.79</v>
+      </c>
+      <c r="BO126">
+        <v>2.33</v>
+      </c>
+      <c r="BP126">
         <v>1.52</v>
-      </c>
-      <c r="BJ126">
-        <v>2.33</v>
-      </c>
-      <c r="BK126">
-        <v>1.84</v>
-      </c>
-      <c r="BL126">
-        <v>1.84</v>
-      </c>
-      <c r="BM126">
-        <v>2.32</v>
-      </c>
-      <c r="BN126">
-        <v>1.52</v>
-      </c>
-      <c r="BO126">
-        <v>2.95</v>
-      </c>
-      <c r="BP126">
-        <v>1.33</v>
       </c>
     </row>
     <row r="127" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>['19', '51']</t>
+  </si>
+  <si>
+    <t>['1', '25', '36', '75', '78']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -1164,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1426,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1835,7 +1838,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2041,7 +2044,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2247,7 +2250,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2453,7 +2456,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2865,7 +2868,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3071,7 +3074,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3483,7 +3486,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3689,7 +3692,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3895,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4101,7 +4104,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4513,7 +4516,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4594,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5003,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ19">
         <v>1.14</v>
@@ -5131,7 +5134,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5543,7 +5546,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5955,7 +5958,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6161,7 +6164,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6367,7 +6370,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6573,7 +6576,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6779,7 +6782,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6985,7 +6988,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7191,7 +7194,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7397,7 +7400,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7603,7 +7606,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7809,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8221,7 +8224,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8427,7 +8430,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8714,7 +8717,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
         <v>1.27</v>
@@ -8839,7 +8842,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9251,7 +9254,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9457,7 +9460,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9663,7 +9666,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10075,7 +10078,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10153,7 +10156,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ44">
         <v>2.14</v>
@@ -10281,7 +10284,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10487,7 +10490,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10899,7 +10902,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11105,7 +11108,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11311,7 +11314,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11517,7 +11520,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11723,7 +11726,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12010,7 +12013,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ53">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12135,7 +12138,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12341,7 +12344,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12547,7 +12550,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12753,7 +12756,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13165,7 +13168,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13371,7 +13374,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13452,7 +13455,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
         <v>1.26</v>
@@ -13577,7 +13580,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13861,7 +13864,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -13989,7 +13992,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14195,7 +14198,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14401,7 +14404,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14607,7 +14610,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15019,7 +15022,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15225,7 +15228,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15431,7 +15434,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15637,7 +15640,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15843,7 +15846,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16539,7 +16542,7 @@
         <v>1.25</v>
       </c>
       <c r="AP75">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ75">
         <v>0.71</v>
@@ -16667,7 +16670,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16873,7 +16876,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17572,7 +17575,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ80">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.88</v>
@@ -17903,7 +17906,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18315,7 +18318,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18521,7 +18524,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18727,7 +18730,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18933,7 +18936,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19551,7 +19554,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19757,7 +19760,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20041,7 +20044,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ92">
         <v>0.33</v>
@@ -20169,7 +20172,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20787,7 +20790,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -20868,7 +20871,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21405,7 +21408,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21817,7 +21820,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22023,7 +22026,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22229,7 +22232,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22641,7 +22644,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22847,7 +22850,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23053,7 +23056,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23465,7 +23468,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23671,7 +23674,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23877,7 +23880,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -23958,7 +23961,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ111">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24083,7 +24086,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24289,7 +24292,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24495,7 +24498,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24573,7 +24576,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -24701,7 +24704,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24907,7 +24910,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25113,7 +25116,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25319,7 +25322,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25525,7 +25528,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25731,7 +25734,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25937,7 +25940,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26143,7 +26146,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26349,7 +26352,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>1.91</v>
@@ -26555,7 +26558,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26761,7 +26764,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26967,7 +26970,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27173,7 +27176,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27330,6 +27333,212 @@
       </c>
       <c r="BP127">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7491942</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45646.6875</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>87</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>179</v>
+      </c>
+      <c r="P128" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q128">
+        <v>1.73</v>
+      </c>
+      <c r="R128">
+        <v>2.88</v>
+      </c>
+      <c r="S128">
+        <v>6.5</v>
+      </c>
+      <c r="T128">
+        <v>1.2</v>
+      </c>
+      <c r="U128">
+        <v>4.33</v>
+      </c>
+      <c r="V128">
+        <v>1.91</v>
+      </c>
+      <c r="W128">
+        <v>1.8</v>
+      </c>
+      <c r="X128">
+        <v>4</v>
+      </c>
+      <c r="Y128">
+        <v>1.22</v>
+      </c>
+      <c r="Z128">
+        <v>1.5</v>
+      </c>
+      <c r="AA128">
+        <v>5</v>
+      </c>
+      <c r="AB128">
+        <v>5.25</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>1.1</v>
+      </c>
+      <c r="AF128">
+        <v>7</v>
+      </c>
+      <c r="AG128">
+        <v>1.33</v>
+      </c>
+      <c r="AH128">
+        <v>3.2</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>1.04</v>
+      </c>
+      <c r="AL128">
+        <v>1.1</v>
+      </c>
+      <c r="AM128">
+        <v>3.5</v>
+      </c>
+      <c r="AN128">
+        <v>2.67</v>
+      </c>
+      <c r="AO128">
+        <v>1.86</v>
+      </c>
+      <c r="AP128">
+        <v>2.71</v>
+      </c>
+      <c r="AQ128">
+        <v>1.63</v>
+      </c>
+      <c r="AR128">
+        <v>2.15</v>
+      </c>
+      <c r="AS128">
+        <v>1.2</v>
+      </c>
+      <c r="AT128">
+        <v>3.35</v>
+      </c>
+      <c r="AU128">
+        <v>10</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>8</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>23</v>
+      </c>
+      <c r="AZ128">
+        <v>5</v>
+      </c>
+      <c r="BA128">
+        <v>8</v>
+      </c>
+      <c r="BB128">
+        <v>1</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>1.17</v>
+      </c>
+      <c r="BE128">
+        <v>8.5</v>
+      </c>
+      <c r="BF128">
+        <v>5.4</v>
+      </c>
+      <c r="BG128">
+        <v>1.32</v>
+      </c>
+      <c r="BH128">
+        <v>3.05</v>
+      </c>
+      <c r="BI128">
+        <v>1.54</v>
+      </c>
+      <c r="BJ128">
+        <v>2.3</v>
+      </c>
+      <c r="BK128">
+        <v>1.86</v>
+      </c>
+      <c r="BL128">
+        <v>1.82</v>
+      </c>
+      <c r="BM128">
+        <v>2.35</v>
+      </c>
+      <c r="BN128">
+        <v>1.5</v>
+      </c>
+      <c r="BO128">
+        <v>3.05</v>
+      </c>
+      <c r="BP128">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,21 @@
     <t>['1', '25', '36', '75', '78']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['12', '32', '35', '39', '90+1']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['13', '17', '45', '87']</t>
+  </si>
+  <si>
+    <t>['45+1', '51', '67', '74', '77']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -626,9 +641,6 @@
   </si>
   <si>
     <t>['5', '37', '45+1']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['16', '21']</t>
@@ -806,6 +818,18 @@
   </si>
   <si>
     <t>['20', '45+2', '85']</t>
+  </si>
+  <si>
+    <t>['15', '27', '58']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['23', '61']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1450,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1838,7 +1862,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -1916,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
         <v>0.29</v>
@@ -2044,7 +2068,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2250,7 +2274,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2456,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2537,7 +2561,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2868,7 +2892,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3074,7 +3098,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3361,7 +3385,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3486,7 +3510,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3564,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3692,7 +3716,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3770,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13">
         <v>1.86</v>
@@ -3898,7 +3922,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3976,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.57</v>
@@ -4104,7 +4128,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4185,7 +4209,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4388,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4516,7 +4540,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4594,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
         <v>1.63</v>
@@ -4803,7 +4827,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5009,7 +5033,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ19">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5134,7 +5158,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5421,7 +5445,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR21">
         <v>1.16</v>
@@ -5546,7 +5570,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5624,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>2.14</v>
@@ -5958,7 +5982,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6164,7 +6188,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6370,7 +6394,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6448,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>2.13</v>
@@ -6576,7 +6600,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6657,7 +6681,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6782,7 +6806,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6988,7 +7012,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7069,7 +7093,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.7</v>
@@ -7194,7 +7218,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7275,7 +7299,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7400,7 +7424,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7478,7 +7502,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
         <v>2.13</v>
@@ -7606,7 +7630,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7812,7 +7836,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8096,10 +8120,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.86</v>
@@ -8224,7 +8248,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8302,7 +8326,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
         <v>1.86</v>
@@ -8430,7 +8454,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8508,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8842,7 +8866,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9129,7 +9153,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9254,7 +9278,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9460,7 +9484,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9666,7 +9690,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -9747,7 +9771,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>1.82</v>
@@ -9953,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR43">
         <v>1.14</v>
@@ -10078,7 +10102,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10284,7 +10308,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10362,7 +10386,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10490,7 +10514,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10568,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10777,7 +10801,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR47">
         <v>2.02</v>
@@ -10902,7 +10926,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -10980,7 +11004,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
         <v>0.29</v>
@@ -11108,7 +11132,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11186,10 +11210,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
+        <v>1.29</v>
+      </c>
+      <c r="AQ49">
         <v>1</v>
-      </c>
-      <c r="AQ49">
-        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>0.41</v>
@@ -11314,7 +11338,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11520,7 +11544,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11726,7 +11750,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11807,7 +11831,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12138,7 +12162,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12216,7 +12240,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>2.13</v>
@@ -12344,7 +12368,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12422,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>0.57</v>
@@ -12550,7 +12574,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12631,7 +12655,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.91</v>
@@ -12756,7 +12780,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -12834,7 +12858,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ57">
         <v>1.63</v>
@@ -13040,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>0.13</v>
@@ -13168,7 +13192,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13249,7 +13273,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13374,7 +13398,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13580,7 +13604,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13992,7 +14016,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14070,10 +14094,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
         <v>1.07</v>
@@ -14198,7 +14222,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14404,7 +14428,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14485,7 +14509,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -14610,7 +14634,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15022,7 +15046,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15103,7 +15127,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15228,7 +15252,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15306,7 +15330,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
         <v>0.29</v>
@@ -15434,7 +15458,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15512,7 +15536,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>2.14</v>
@@ -15640,7 +15664,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15846,7 +15870,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16336,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74">
         <v>1.29</v>
@@ -16545,7 +16569,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.82</v>
@@ -16670,7 +16694,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16748,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>0.13</v>
@@ -16876,7 +16900,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16954,10 +16978,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.67</v>
@@ -17160,7 +17184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ78">
         <v>0.86</v>
@@ -17369,7 +17393,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ79">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR79">
         <v>1.14</v>
@@ -17781,7 +17805,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ81">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.64</v>
@@ -17906,7 +17930,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18193,7 +18217,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.3</v>
@@ -18318,7 +18342,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18524,7 +18548,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18602,7 +18626,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85">
         <v>0.29</v>
@@ -18730,7 +18754,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18936,7 +18960,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19223,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>1.44</v>
@@ -19554,7 +19578,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19632,7 +19656,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ90">
         <v>1.63</v>
@@ -19760,7 +19784,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20047,7 +20071,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ92">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR92">
         <v>1.83</v>
@@ -20172,7 +20196,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20250,7 +20274,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
         <v>0.86</v>
@@ -20456,7 +20480,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94">
         <v>0.13</v>
@@ -20665,7 +20689,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ95">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.86</v>
@@ -20790,7 +20814,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -20868,7 +20892,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -21077,7 +21101,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
         <v>1.25</v>
@@ -21280,7 +21304,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>2</v>
@@ -21408,7 +21432,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21486,10 +21510,10 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -21695,7 +21719,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
         <v>1.65</v>
@@ -21820,7 +21844,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22026,7 +22050,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22232,7 +22256,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22313,7 +22337,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ103">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
         <v>1.49</v>
@@ -22644,7 +22668,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22850,7 +22874,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -22928,7 +22952,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
         <v>1.29</v>
@@ -23056,7 +23080,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23468,7 +23492,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23674,7 +23698,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23752,10 +23776,10 @@
         <v>0.83</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR110">
         <v>2.1</v>
@@ -23880,7 +23904,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -23958,7 +23982,7 @@
         <v>1.67</v>
       </c>
       <c r="AP111">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ111">
         <v>1.63</v>
@@ -24086,7 +24110,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24292,7 +24316,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24370,10 +24394,10 @@
         <v>0.2</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR113">
         <v>1.55</v>
@@ -24498,7 +24522,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24704,7 +24728,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24782,10 +24806,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>2.31</v>
@@ -24910,7 +24934,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25116,7 +25140,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25197,7 +25221,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ117">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25322,7 +25346,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25400,10 +25424,10 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.77</v>
@@ -25528,7 +25552,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25734,7 +25758,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25940,7 +25964,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26146,7 +26170,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26352,7 +26376,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>1.91</v>
@@ -26558,7 +26582,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26764,7 +26788,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26970,7 +26994,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27176,7 +27200,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27382,7 +27406,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -27539,6 +27563,1242 @@
       </c>
       <c r="BP128">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7491943</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>82</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>180</v>
+      </c>
+      <c r="P129" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q129">
+        <v>2.4</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>4.33</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
+        <v>3.25</v>
+      </c>
+      <c r="V129">
+        <v>2.5</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>6</v>
+      </c>
+      <c r="Y129">
+        <v>1.13</v>
+      </c>
+      <c r="Z129">
+        <v>1.39</v>
+      </c>
+      <c r="AA129">
+        <v>5.18</v>
+      </c>
+      <c r="AB129">
+        <v>5.1</v>
+      </c>
+      <c r="AC129">
+        <v>1.03</v>
+      </c>
+      <c r="AD129">
+        <v>15</v>
+      </c>
+      <c r="AE129">
+        <v>1.22</v>
+      </c>
+      <c r="AF129">
+        <v>4.33</v>
+      </c>
+      <c r="AG129">
+        <v>1.65</v>
+      </c>
+      <c r="AH129">
+        <v>2.2</v>
+      </c>
+      <c r="AI129">
+        <v>1.62</v>
+      </c>
+      <c r="AJ129">
+        <v>2.2</v>
+      </c>
+      <c r="AK129">
+        <v>1.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.22</v>
+      </c>
+      <c r="AM129">
+        <v>2</v>
+      </c>
+      <c r="AN129">
+        <v>2.33</v>
+      </c>
+      <c r="AO129">
+        <v>1.83</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>2</v>
+      </c>
+      <c r="AR129">
+        <v>1.54</v>
+      </c>
+      <c r="AS129">
+        <v>1.22</v>
+      </c>
+      <c r="AT129">
+        <v>2.76</v>
+      </c>
+      <c r="AU129">
+        <v>11</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>16</v>
+      </c>
+      <c r="AX129">
+        <v>2</v>
+      </c>
+      <c r="AY129">
+        <v>36</v>
+      </c>
+      <c r="AZ129">
+        <v>10</v>
+      </c>
+      <c r="BA129">
+        <v>17</v>
+      </c>
+      <c r="BB129">
+        <v>2</v>
+      </c>
+      <c r="BC129">
+        <v>19</v>
+      </c>
+      <c r="BD129">
+        <v>1.65</v>
+      </c>
+      <c r="BE129">
+        <v>6.75</v>
+      </c>
+      <c r="BF129">
+        <v>2.43</v>
+      </c>
+      <c r="BG129">
+        <v>1.24</v>
+      </c>
+      <c r="BH129">
+        <v>3.55</v>
+      </c>
+      <c r="BI129">
+        <v>1.44</v>
+      </c>
+      <c r="BJ129">
+        <v>2.55</v>
+      </c>
+      <c r="BK129">
+        <v>1.71</v>
+      </c>
+      <c r="BL129">
+        <v>2</v>
+      </c>
+      <c r="BM129">
+        <v>2.08</v>
+      </c>
+      <c r="BN129">
+        <v>1.65</v>
+      </c>
+      <c r="BO129">
+        <v>2.65</v>
+      </c>
+      <c r="BP129">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7491948</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45647.47916666666</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>5</v>
+      </c>
+      <c r="L130">
+        <v>5</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130" t="s">
+        <v>181</v>
+      </c>
+      <c r="P130" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q130">
+        <v>3.5</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130">
+        <v>1.4</v>
+      </c>
+      <c r="U130">
+        <v>2.75</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>1.58</v>
+      </c>
+      <c r="AA130">
+        <v>5.49</v>
+      </c>
+      <c r="AB130">
+        <v>3.38</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>11</v>
+      </c>
+      <c r="AE130">
+        <v>1.3</v>
+      </c>
+      <c r="AF130">
+        <v>3.6</v>
+      </c>
+      <c r="AG130">
+        <v>1.91</v>
+      </c>
+      <c r="AH130">
+        <v>1.88</v>
+      </c>
+      <c r="AI130">
+        <v>1.75</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.6</v>
+      </c>
+      <c r="AL130">
+        <v>1.28</v>
+      </c>
+      <c r="AM130">
+        <v>1.4</v>
+      </c>
+      <c r="AN130">
+        <v>0.43</v>
+      </c>
+      <c r="AO130">
+        <v>0.33</v>
+      </c>
+      <c r="AP130">
+        <v>0.75</v>
+      </c>
+      <c r="AQ130">
+        <v>0.29</v>
+      </c>
+      <c r="AR130">
+        <v>1.19</v>
+      </c>
+      <c r="AS130">
+        <v>0.87</v>
+      </c>
+      <c r="AT130">
+        <v>2.06</v>
+      </c>
+      <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>1</v>
+      </c>
+      <c r="AX130">
+        <v>6</v>
+      </c>
+      <c r="AY130">
+        <v>10</v>
+      </c>
+      <c r="AZ130">
+        <v>18</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>8</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>2.23</v>
+      </c>
+      <c r="BE130">
+        <v>6.5</v>
+      </c>
+      <c r="BF130">
+        <v>1.79</v>
+      </c>
+      <c r="BG130">
+        <v>1.27</v>
+      </c>
+      <c r="BH130">
+        <v>3.3</v>
+      </c>
+      <c r="BI130">
+        <v>1.47</v>
+      </c>
+      <c r="BJ130">
+        <v>2.48</v>
+      </c>
+      <c r="BK130">
+        <v>1.76</v>
+      </c>
+      <c r="BL130">
+        <v>1.94</v>
+      </c>
+      <c r="BM130">
+        <v>2.18</v>
+      </c>
+      <c r="BN130">
+        <v>1.58</v>
+      </c>
+      <c r="BO130">
+        <v>2.8</v>
+      </c>
+      <c r="BP130">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7491941</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45647.47916666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>80</v>
+      </c>
+      <c r="H131" t="s">
+        <v>78</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>96</v>
+      </c>
+      <c r="P131" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>2.4</v>
+      </c>
+      <c r="S131">
+        <v>6</v>
+      </c>
+      <c r="T131">
+        <v>1.3</v>
+      </c>
+      <c r="U131">
+        <v>3.4</v>
+      </c>
+      <c r="V131">
+        <v>2.5</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>6</v>
+      </c>
+      <c r="Y131">
+        <v>1.13</v>
+      </c>
+      <c r="Z131">
+        <v>1.4</v>
+      </c>
+      <c r="AA131">
+        <v>4.89</v>
+      </c>
+      <c r="AB131">
+        <v>5.18</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>15</v>
+      </c>
+      <c r="AE131">
+        <v>1.2</v>
+      </c>
+      <c r="AF131">
+        <v>4.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.65</v>
+      </c>
+      <c r="AH131">
+        <v>2.2</v>
+      </c>
+      <c r="AI131">
+        <v>1.8</v>
+      </c>
+      <c r="AJ131">
+        <v>1.95</v>
+      </c>
+      <c r="AK131">
+        <v>1.12</v>
+      </c>
+      <c r="AL131">
+        <v>1.17</v>
+      </c>
+      <c r="AM131">
+        <v>2.65</v>
+      </c>
+      <c r="AN131">
+        <v>2</v>
+      </c>
+      <c r="AO131">
+        <v>0.86</v>
+      </c>
+      <c r="AP131">
+        <v>1.75</v>
+      </c>
+      <c r="AQ131">
+        <v>1.13</v>
+      </c>
+      <c r="AR131">
+        <v>1.98</v>
+      </c>
+      <c r="AS131">
+        <v>1.11</v>
+      </c>
+      <c r="AT131">
+        <v>3.09</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>26</v>
+      </c>
+      <c r="AZ131">
+        <v>12</v>
+      </c>
+      <c r="BA131">
+        <v>9</v>
+      </c>
+      <c r="BB131">
+        <v>1</v>
+      </c>
+      <c r="BC131">
+        <v>10</v>
+      </c>
+      <c r="BD131">
+        <v>1.3</v>
+      </c>
+      <c r="BE131">
+        <v>7</v>
+      </c>
+      <c r="BF131">
+        <v>3.9</v>
+      </c>
+      <c r="BG131">
+        <v>1.32</v>
+      </c>
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
+        <v>1.56</v>
+      </c>
+      <c r="BJ131">
+        <v>2.25</v>
+      </c>
+      <c r="BK131">
+        <v>1.9</v>
+      </c>
+      <c r="BL131">
+        <v>1.78</v>
+      </c>
+      <c r="BM131">
+        <v>2.4</v>
+      </c>
+      <c r="BN131">
+        <v>1.49</v>
+      </c>
+      <c r="BO131">
+        <v>3.05</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7491944</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45647.47916666666</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>70</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>182</v>
+      </c>
+      <c r="P132" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q132">
+        <v>2.88</v>
+      </c>
+      <c r="R132">
+        <v>2.38</v>
+      </c>
+      <c r="S132">
+        <v>3.25</v>
+      </c>
+      <c r="T132">
+        <v>1.29</v>
+      </c>
+      <c r="U132">
+        <v>3.5</v>
+      </c>
+      <c r="V132">
+        <v>2.38</v>
+      </c>
+      <c r="W132">
+        <v>1.53</v>
+      </c>
+      <c r="X132">
+        <v>5.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.14</v>
+      </c>
+      <c r="Z132">
+        <v>1.6</v>
+      </c>
+      <c r="AA132">
+        <v>4.55</v>
+      </c>
+      <c r="AB132">
+        <v>3.76</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>19</v>
+      </c>
+      <c r="AE132">
+        <v>1.18</v>
+      </c>
+      <c r="AF132">
+        <v>5</v>
+      </c>
+      <c r="AG132">
+        <v>1.6</v>
+      </c>
+      <c r="AH132">
+        <v>2.3</v>
+      </c>
+      <c r="AI132">
+        <v>1.5</v>
+      </c>
+      <c r="AJ132">
+        <v>2.5</v>
+      </c>
+      <c r="AK132">
+        <v>1.42</v>
+      </c>
+      <c r="AL132">
+        <v>1.24</v>
+      </c>
+      <c r="AM132">
+        <v>1.65</v>
+      </c>
+      <c r="AN132">
+        <v>1.43</v>
+      </c>
+      <c r="AO132">
+        <v>0.83</v>
+      </c>
+      <c r="AP132">
+        <v>1.25</v>
+      </c>
+      <c r="AQ132">
+        <v>1.14</v>
+      </c>
+      <c r="AR132">
+        <v>1.76</v>
+      </c>
+      <c r="AS132">
+        <v>1.43</v>
+      </c>
+      <c r="AT132">
+        <v>3.19</v>
+      </c>
+      <c r="AU132">
+        <v>9</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>1</v>
+      </c>
+      <c r="AY132">
+        <v>19</v>
+      </c>
+      <c r="AZ132">
+        <v>7</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>1.84</v>
+      </c>
+      <c r="BE132">
+        <v>6.75</v>
+      </c>
+      <c r="BF132">
+        <v>2.17</v>
+      </c>
+      <c r="BG132">
+        <v>1.21</v>
+      </c>
+      <c r="BH132">
+        <v>3.8</v>
+      </c>
+      <c r="BI132">
+        <v>1.4</v>
+      </c>
+      <c r="BJ132">
+        <v>2.7</v>
+      </c>
+      <c r="BK132">
+        <v>1.65</v>
+      </c>
+      <c r="BL132">
+        <v>2.08</v>
+      </c>
+      <c r="BM132">
+        <v>2</v>
+      </c>
+      <c r="BN132">
+        <v>1.71</v>
+      </c>
+      <c r="BO132">
+        <v>2.5</v>
+      </c>
+      <c r="BP132">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7491945</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45647.47916666666</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>84</v>
+      </c>
+      <c r="H133" t="s">
+        <v>79</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>4</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>183</v>
+      </c>
+      <c r="P133" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q133">
+        <v>2.75</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>9</v>
+      </c>
+      <c r="Y133">
+        <v>1.07</v>
+      </c>
+      <c r="Z133">
+        <v>1.53</v>
+      </c>
+      <c r="AA133">
+        <v>3.31</v>
+      </c>
+      <c r="AB133">
+        <v>6.42</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>10</v>
+      </c>
+      <c r="AE133">
+        <v>1.33</v>
+      </c>
+      <c r="AF133">
+        <v>3.3</v>
+      </c>
+      <c r="AG133">
+        <v>2</v>
+      </c>
+      <c r="AH133">
+        <v>1.78</v>
+      </c>
+      <c r="AI133">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>1.3</v>
+      </c>
+      <c r="AL133">
+        <v>1.26</v>
+      </c>
+      <c r="AM133">
+        <v>1.78</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>0.71</v>
+      </c>
+      <c r="AP133">
+        <v>1.29</v>
+      </c>
+      <c r="AQ133">
+        <v>0.63</v>
+      </c>
+      <c r="AR133">
+        <v>1.24</v>
+      </c>
+      <c r="AS133">
+        <v>1.15</v>
+      </c>
+      <c r="AT133">
+        <v>2.39</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>4</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>11</v>
+      </c>
+      <c r="AZ133">
+        <v>17</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>9</v>
+      </c>
+      <c r="BC133">
+        <v>13</v>
+      </c>
+      <c r="BD133">
+        <v>1.78</v>
+      </c>
+      <c r="BE133">
+        <v>6.4</v>
+      </c>
+      <c r="BF133">
+        <v>2.23</v>
+      </c>
+      <c r="BG133">
+        <v>1.27</v>
+      </c>
+      <c r="BH133">
+        <v>3.3</v>
+      </c>
+      <c r="BI133">
+        <v>1.48</v>
+      </c>
+      <c r="BJ133">
+        <v>2.45</v>
+      </c>
+      <c r="BK133">
+        <v>1.77</v>
+      </c>
+      <c r="BL133">
+        <v>1.92</v>
+      </c>
+      <c r="BM133">
+        <v>2.2</v>
+      </c>
+      <c r="BN133">
+        <v>1.58</v>
+      </c>
+      <c r="BO133">
+        <v>2.8</v>
+      </c>
+      <c r="BP133">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7491940</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45647.60416666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>85</v>
+      </c>
+      <c r="H134" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>5</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>6</v>
+      </c>
+      <c r="O134" t="s">
+        <v>184</v>
+      </c>
+      <c r="P134" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q134">
+        <v>1.91</v>
+      </c>
+      <c r="R134">
+        <v>2.5</v>
+      </c>
+      <c r="S134">
+        <v>6.5</v>
+      </c>
+      <c r="T134">
+        <v>1.3</v>
+      </c>
+      <c r="U134">
+        <v>3.4</v>
+      </c>
+      <c r="V134">
+        <v>2.38</v>
+      </c>
+      <c r="W134">
+        <v>1.53</v>
+      </c>
+      <c r="X134">
+        <v>6</v>
+      </c>
+      <c r="Y134">
+        <v>1.13</v>
+      </c>
+      <c r="Z134">
+        <v>1.6</v>
+      </c>
+      <c r="AA134">
+        <v>4.13</v>
+      </c>
+      <c r="AB134">
+        <v>4.11</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>19</v>
+      </c>
+      <c r="AE134">
+        <v>1.19</v>
+      </c>
+      <c r="AF134">
+        <v>4.75</v>
+      </c>
+      <c r="AG134">
+        <v>1.6</v>
+      </c>
+      <c r="AH134">
+        <v>2.34</v>
+      </c>
+      <c r="AI134">
+        <v>1.91</v>
+      </c>
+      <c r="AJ134">
+        <v>1.91</v>
+      </c>
+      <c r="AK134">
+        <v>1.09</v>
+      </c>
+      <c r="AL134">
+        <v>1.15</v>
+      </c>
+      <c r="AM134">
+        <v>2.95</v>
+      </c>
+      <c r="AN134">
+        <v>2</v>
+      </c>
+      <c r="AO134">
+        <v>1.14</v>
+      </c>
+      <c r="AP134">
+        <v>2.13</v>
+      </c>
+      <c r="AQ134">
+        <v>1</v>
+      </c>
+      <c r="AR134">
+        <v>2.13</v>
+      </c>
+      <c r="AS134">
+        <v>1.31</v>
+      </c>
+      <c r="AT134">
+        <v>3.44</v>
+      </c>
+      <c r="AU134">
+        <v>13</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>21</v>
+      </c>
+      <c r="AZ134">
+        <v>9</v>
+      </c>
+      <c r="BA134">
+        <v>4</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>6</v>
+      </c>
+      <c r="BD134">
+        <v>1.2</v>
+      </c>
+      <c r="BE134">
+        <v>8.5</v>
+      </c>
+      <c r="BF134">
+        <v>4.9</v>
+      </c>
+      <c r="BG134">
+        <v>1.28</v>
+      </c>
+      <c r="BH134">
+        <v>3.3</v>
+      </c>
+      <c r="BI134">
+        <v>1.49</v>
+      </c>
+      <c r="BJ134">
+        <v>2.4</v>
+      </c>
+      <c r="BK134">
+        <v>1.79</v>
+      </c>
+      <c r="BL134">
+        <v>1.9</v>
+      </c>
+      <c r="BM134">
+        <v>2.23</v>
+      </c>
+      <c r="BN134">
+        <v>1.57</v>
+      </c>
+      <c r="BO134">
+        <v>2.8</v>
+      </c>
+      <c r="BP134">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,10 +556,10 @@
     <t>['1', '25', '36', '75', '78']</t>
   </si>
   <si>
-    <t>['75']</t>
+    <t>['12', '32', '35', '39', '90+1']</t>
   </si>
   <si>
-    <t>['12', '32', '35', '39', '90+1']</t>
+    <t>['75']</t>
   </si>
   <si>
     <t>['58']</t>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>['45+1', '51', '67', '74', '77']</t>
+  </si>
+  <si>
+    <t>['6', '38']</t>
   </si>
   <si>
     <t>['12', '38', '90+11']</t>
@@ -820,16 +823,19 @@
     <t>['20', '45+2', '85']</t>
   </si>
   <si>
-    <t>['15', '27', '58']</t>
-  </si>
-  <si>
     <t>['5']</t>
   </si>
   <si>
     <t>['21']</t>
   </si>
   <si>
+    <t>['15', '27', '58']</t>
+  </si>
+  <si>
     <t>['23', '61']</t>
+  </si>
+  <si>
+    <t>['25', '28', '30']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1456,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1862,7 +1868,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2068,7 +2074,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2274,7 +2280,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2480,7 +2486,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2892,7 +2898,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -2970,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>2.13</v>
@@ -3098,7 +3104,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3179,7 +3185,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3510,7 +3516,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3716,7 +3722,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3922,7 +3928,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4128,7 +4134,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4206,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4415,7 +4421,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4540,7 +4546,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5158,7 +5164,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5239,7 +5245,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>1.89</v>
@@ -5570,7 +5576,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5982,7 +5988,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6060,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.63</v>
@@ -6188,7 +6194,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6394,7 +6400,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6600,7 +6606,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6806,7 +6812,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7012,7 +7018,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7218,7 +7224,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7424,7 +7430,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7630,7 +7636,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7836,7 +7842,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7914,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ33">
         <v>0.29</v>
@@ -8248,7 +8254,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8454,7 +8460,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>2.75</v>
@@ -8535,7 +8541,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR36">
         <v>2.62</v>
@@ -8866,7 +8872,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -9278,7 +9284,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9359,7 +9365,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9484,7 +9490,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9562,7 +9568,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.29</v>
@@ -9690,7 +9696,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10102,7 +10108,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10308,7 +10314,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10514,7 +10520,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10926,7 +10932,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11132,7 +11138,7 @@
         <v>96</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3.1</v>
@@ -11338,7 +11344,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11419,7 +11425,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11544,7 +11550,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11622,7 +11628,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ51">
         <v>1.86</v>
@@ -11750,7 +11756,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12162,7 +12168,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12368,7 +12374,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12574,7 +12580,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12780,7 +12786,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13192,7 +13198,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13398,7 +13404,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13604,7 +13610,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13685,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -14016,7 +14022,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14222,7 +14228,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14300,7 +14306,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14428,7 +14434,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14634,7 +14640,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14715,7 +14721,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -15046,7 +15052,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15252,7 +15258,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15458,7 +15464,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15664,7 +15670,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15742,7 +15748,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ71">
         <v>2.13</v>
@@ -15870,7 +15876,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16694,7 +16700,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16900,7 +16906,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17187,7 +17193,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17390,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>0.29</v>
@@ -17930,7 +17936,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q82">
         <v>2.6</v>
@@ -18342,7 +18348,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18548,7 +18554,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18754,7 +18760,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18835,7 +18841,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -18960,7 +18966,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19038,7 +19044,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ87">
         <v>2.14</v>
@@ -19578,7 +19584,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19784,7 +19790,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20196,7 +20202,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20277,7 +20283,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR93">
         <v>2.3</v>
@@ -20814,7 +20820,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21098,7 +21104,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>0.63</v>
@@ -21432,7 +21438,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21844,7 +21850,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22050,7 +22056,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22256,7 +22262,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22668,7 +22674,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22874,7 +22880,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23080,7 +23086,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23492,7 +23498,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23698,7 +23704,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23904,7 +23910,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24110,7 +24116,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24188,7 +24194,7 @@
         <v>1.67</v>
       </c>
       <c r="AP112">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24316,7 +24322,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24522,7 +24528,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24603,7 +24609,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
         <v>2.04</v>
@@ -24728,7 +24734,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24934,7 +24940,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25015,7 +25021,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>1.64</v>
@@ -25140,7 +25146,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25218,7 +25224,7 @@
         <v>2.2</v>
       </c>
       <c r="AP117">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
         <v>2</v>
@@ -25346,7 +25352,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25552,7 +25558,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25758,7 +25764,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25964,7 +25970,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26170,7 +26176,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26376,7 +26382,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>1.91</v>
@@ -26582,7 +26588,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26788,7 +26794,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -26994,7 +27000,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27200,7 +27206,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27406,7 +27412,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -27570,7 +27576,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7491943</v>
+        <v>7491948</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27579,196 +27585,196 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45646.875</v>
+        <v>45647.47916666666</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O129" t="s">
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q129">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="R129">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S129">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T129">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U129">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V129">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W129">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>1.58</v>
+      </c>
+      <c r="AA129">
+        <v>5.49</v>
+      </c>
+      <c r="AB129">
+        <v>3.38</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>11</v>
+      </c>
+      <c r="AE129">
+        <v>1.3</v>
+      </c>
+      <c r="AF129">
+        <v>3.6</v>
+      </c>
+      <c r="AG129">
+        <v>1.91</v>
+      </c>
+      <c r="AH129">
+        <v>1.88</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.6</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.4</v>
+      </c>
+      <c r="AN129">
+        <v>0.43</v>
+      </c>
+      <c r="AO129">
+        <v>0.33</v>
+      </c>
+      <c r="AP129">
+        <v>0.75</v>
+      </c>
+      <c r="AQ129">
+        <v>0.29</v>
+      </c>
+      <c r="AR129">
+        <v>1.19</v>
+      </c>
+      <c r="AS129">
+        <v>0.87</v>
+      </c>
+      <c r="AT129">
+        <v>2.06</v>
+      </c>
+      <c r="AU129">
+        <v>7</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>1</v>
+      </c>
+      <c r="AX129">
         <v>6</v>
       </c>
-      <c r="Y129">
-        <v>1.13</v>
-      </c>
-      <c r="Z129">
-        <v>1.39</v>
-      </c>
-      <c r="AA129">
-        <v>5.18</v>
-      </c>
-      <c r="AB129">
-        <v>5.1</v>
-      </c>
-      <c r="AC129">
-        <v>1.03</v>
-      </c>
-      <c r="AD129">
-        <v>15</v>
-      </c>
-      <c r="AE129">
-        <v>1.22</v>
-      </c>
-      <c r="AF129">
-        <v>4.33</v>
-      </c>
-      <c r="AG129">
-        <v>1.65</v>
-      </c>
-      <c r="AH129">
-        <v>2.2</v>
-      </c>
-      <c r="AI129">
-        <v>1.62</v>
-      </c>
-      <c r="AJ129">
-        <v>2.2</v>
-      </c>
-      <c r="AK129">
-        <v>1.25</v>
-      </c>
-      <c r="AL129">
-        <v>1.22</v>
-      </c>
-      <c r="AM129">
-        <v>2</v>
-      </c>
-      <c r="AN129">
-        <v>2.33</v>
-      </c>
-      <c r="AO129">
-        <v>1.83</v>
-      </c>
-      <c r="AP129">
-        <v>2</v>
-      </c>
-      <c r="AQ129">
-        <v>2</v>
-      </c>
-      <c r="AR129">
-        <v>1.54</v>
-      </c>
-      <c r="AS129">
-        <v>1.22</v>
-      </c>
-      <c r="AT129">
-        <v>2.76</v>
-      </c>
-      <c r="AU129">
+      <c r="AY129">
+        <v>10</v>
+      </c>
+      <c r="AZ129">
+        <v>18</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
         <v>11</v>
       </c>
-      <c r="AV129">
-        <v>4</v>
-      </c>
-      <c r="AW129">
-        <v>16</v>
-      </c>
-      <c r="AX129">
-        <v>2</v>
-      </c>
-      <c r="AY129">
-        <v>36</v>
-      </c>
-      <c r="AZ129">
-        <v>10</v>
-      </c>
-      <c r="BA129">
-        <v>17</v>
-      </c>
-      <c r="BB129">
-        <v>2</v>
-      </c>
-      <c r="BC129">
-        <v>19</v>
-      </c>
       <c r="BD129">
-        <v>1.65</v>
+        <v>2.23</v>
       </c>
       <c r="BE129">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF129">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="BG129">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH129">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI129">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="BJ129">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK129">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="BL129">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="BM129">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BN129">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO129">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP129">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27776,7 +27782,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7491948</v>
+        <v>7491941</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27791,190 +27797,190 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>1</v>
       </c>
       <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>96</v>
+      </c>
+      <c r="P130" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>2.4</v>
+      </c>
+      <c r="S130">
+        <v>6</v>
+      </c>
+      <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.5</v>
+      </c>
+      <c r="W130">
+        <v>1.5</v>
+      </c>
+      <c r="X130">
+        <v>6</v>
+      </c>
+      <c r="Y130">
+        <v>1.13</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>4.89</v>
+      </c>
+      <c r="AB130">
+        <v>5.18</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>15</v>
+      </c>
+      <c r="AE130">
+        <v>1.2</v>
+      </c>
+      <c r="AF130">
+        <v>4.5</v>
+      </c>
+      <c r="AG130">
+        <v>1.65</v>
+      </c>
+      <c r="AH130">
+        <v>2.2</v>
+      </c>
+      <c r="AI130">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.95</v>
+      </c>
+      <c r="AK130">
+        <v>1.12</v>
+      </c>
+      <c r="AL130">
+        <v>1.17</v>
+      </c>
+      <c r="AM130">
+        <v>2.65</v>
+      </c>
+      <c r="AN130">
+        <v>2</v>
+      </c>
+      <c r="AO130">
+        <v>0.86</v>
+      </c>
+      <c r="AP130">
+        <v>1.75</v>
+      </c>
+      <c r="AQ130">
+        <v>1.13</v>
+      </c>
+      <c r="AR130">
+        <v>1.98</v>
+      </c>
+      <c r="AS130">
+        <v>1.11</v>
+      </c>
+      <c r="AT130">
+        <v>3.09</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>7</v>
+      </c>
+      <c r="AX130">
         <v>5</v>
       </c>
-      <c r="L130">
-        <v>5</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <v>6</v>
-      </c>
-      <c r="O130" t="s">
-        <v>181</v>
-      </c>
-      <c r="P130" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q130">
-        <v>3.5</v>
-      </c>
-      <c r="R130">
-        <v>2.1</v>
-      </c>
-      <c r="S130">
+      <c r="AY130">
+        <v>26</v>
+      </c>
+      <c r="AZ130">
+        <v>12</v>
+      </c>
+      <c r="BA130">
+        <v>9</v>
+      </c>
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
+        <v>10</v>
+      </c>
+      <c r="BD130">
+        <v>1.3</v>
+      </c>
+      <c r="BE130">
+        <v>7</v>
+      </c>
+      <c r="BF130">
+        <v>3.9</v>
+      </c>
+      <c r="BG130">
+        <v>1.32</v>
+      </c>
+      <c r="BH130">
         <v>3</v>
       </c>
-      <c r="T130">
-        <v>1.4</v>
-      </c>
-      <c r="U130">
-        <v>2.75</v>
-      </c>
-      <c r="V130">
-        <v>3</v>
-      </c>
-      <c r="W130">
-        <v>1.36</v>
-      </c>
-      <c r="X130">
-        <v>8</v>
-      </c>
-      <c r="Y130">
-        <v>1.08</v>
-      </c>
-      <c r="Z130">
-        <v>1.58</v>
-      </c>
-      <c r="AA130">
-        <v>5.49</v>
-      </c>
-      <c r="AB130">
-        <v>3.38</v>
-      </c>
-      <c r="AC130">
-        <v>1.05</v>
-      </c>
-      <c r="AD130">
-        <v>11</v>
-      </c>
-      <c r="AE130">
+      <c r="BI130">
+        <v>1.56</v>
+      </c>
+      <c r="BJ130">
+        <v>2.25</v>
+      </c>
+      <c r="BK130">
+        <v>1.9</v>
+      </c>
+      <c r="BL130">
+        <v>1.78</v>
+      </c>
+      <c r="BM130">
+        <v>2.4</v>
+      </c>
+      <c r="BN130">
+        <v>1.49</v>
+      </c>
+      <c r="BO130">
+        <v>3.05</v>
+      </c>
+      <c r="BP130">
         <v>1.3</v>
-      </c>
-      <c r="AF130">
-        <v>3.6</v>
-      </c>
-      <c r="AG130">
-        <v>1.91</v>
-      </c>
-      <c r="AH130">
-        <v>1.88</v>
-      </c>
-      <c r="AI130">
-        <v>1.75</v>
-      </c>
-      <c r="AJ130">
-        <v>2</v>
-      </c>
-      <c r="AK130">
-        <v>1.6</v>
-      </c>
-      <c r="AL130">
-        <v>1.28</v>
-      </c>
-      <c r="AM130">
-        <v>1.4</v>
-      </c>
-      <c r="AN130">
-        <v>0.43</v>
-      </c>
-      <c r="AO130">
-        <v>0.33</v>
-      </c>
-      <c r="AP130">
-        <v>0.75</v>
-      </c>
-      <c r="AQ130">
-        <v>0.29</v>
-      </c>
-      <c r="AR130">
-        <v>1.19</v>
-      </c>
-      <c r="AS130">
-        <v>0.87</v>
-      </c>
-      <c r="AT130">
-        <v>2.06</v>
-      </c>
-      <c r="AU130">
-        <v>7</v>
-      </c>
-      <c r="AV130">
-        <v>5</v>
-      </c>
-      <c r="AW130">
-        <v>1</v>
-      </c>
-      <c r="AX130">
-        <v>6</v>
-      </c>
-      <c r="AY130">
-        <v>10</v>
-      </c>
-      <c r="AZ130">
-        <v>18</v>
-      </c>
-      <c r="BA130">
-        <v>3</v>
-      </c>
-      <c r="BB130">
-        <v>8</v>
-      </c>
-      <c r="BC130">
-        <v>11</v>
-      </c>
-      <c r="BD130">
-        <v>2.23</v>
-      </c>
-      <c r="BE130">
-        <v>6.5</v>
-      </c>
-      <c r="BF130">
-        <v>1.79</v>
-      </c>
-      <c r="BG130">
-        <v>1.27</v>
-      </c>
-      <c r="BH130">
-        <v>3.3</v>
-      </c>
-      <c r="BI130">
-        <v>1.47</v>
-      </c>
-      <c r="BJ130">
-        <v>2.48</v>
-      </c>
-      <c r="BK130">
-        <v>1.76</v>
-      </c>
-      <c r="BL130">
-        <v>1.94</v>
-      </c>
-      <c r="BM130">
-        <v>2.18</v>
-      </c>
-      <c r="BN130">
-        <v>1.58</v>
-      </c>
-      <c r="BO130">
-        <v>2.8</v>
-      </c>
-      <c r="BP130">
-        <v>1.37</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27982,7 +27988,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7491941</v>
+        <v>7491943</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27997,49 +28003,49 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H131" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O131" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q131">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="R131">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S131">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T131">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U131">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V131">
         <v>2.5</v>
@@ -28054,13 +28060,13 @@
         <v>1.13</v>
       </c>
       <c r="Z131">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AA131">
-        <v>4.89</v>
+        <v>5.18</v>
       </c>
       <c r="AB131">
-        <v>5.18</v>
+        <v>5.1</v>
       </c>
       <c r="AC131">
         <v>1.03</v>
@@ -28069,10 +28075,10 @@
         <v>15</v>
       </c>
       <c r="AE131">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF131">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG131">
         <v>1.65</v>
@@ -28081,106 +28087,106 @@
         <v>2.2</v>
       </c>
       <c r="AI131">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ131">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK131">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AL131">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>2.33</v>
+      </c>
+      <c r="AO131">
+        <v>1.83</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>1.54</v>
+      </c>
+      <c r="AS131">
+        <v>1.22</v>
+      </c>
+      <c r="AT131">
+        <v>2.76</v>
+      </c>
+      <c r="AU131">
+        <v>11</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>16</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>36</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>17</v>
+      </c>
+      <c r="BB131">
+        <v>2</v>
+      </c>
+      <c r="BC131">
+        <v>19</v>
+      </c>
+      <c r="BD131">
+        <v>1.65</v>
+      </c>
+      <c r="BE131">
+        <v>6.75</v>
+      </c>
+      <c r="BF131">
+        <v>2.43</v>
+      </c>
+      <c r="BG131">
+        <v>1.24</v>
+      </c>
+      <c r="BH131">
+        <v>3.55</v>
+      </c>
+      <c r="BI131">
+        <v>1.44</v>
+      </c>
+      <c r="BJ131">
+        <v>2.55</v>
+      </c>
+      <c r="BK131">
+        <v>1.71</v>
+      </c>
+      <c r="BL131">
+        <v>2</v>
+      </c>
+      <c r="BM131">
+        <v>2.08</v>
+      </c>
+      <c r="BN131">
+        <v>1.65</v>
+      </c>
+      <c r="BO131">
         <v>2.65</v>
       </c>
-      <c r="AN131">
-        <v>2</v>
-      </c>
-      <c r="AO131">
-        <v>0.86</v>
-      </c>
-      <c r="AP131">
-        <v>1.75</v>
-      </c>
-      <c r="AQ131">
-        <v>1.13</v>
-      </c>
-      <c r="AR131">
-        <v>1.98</v>
-      </c>
-      <c r="AS131">
-        <v>1.11</v>
-      </c>
-      <c r="AT131">
-        <v>3.09</v>
-      </c>
-      <c r="AU131">
-        <v>6</v>
-      </c>
-      <c r="AV131">
-        <v>6</v>
-      </c>
-      <c r="AW131">
-        <v>7</v>
-      </c>
-      <c r="AX131">
-        <v>5</v>
-      </c>
-      <c r="AY131">
-        <v>26</v>
-      </c>
-      <c r="AZ131">
-        <v>12</v>
-      </c>
-      <c r="BA131">
-        <v>9</v>
-      </c>
-      <c r="BB131">
-        <v>1</v>
-      </c>
-      <c r="BC131">
-        <v>10</v>
-      </c>
-      <c r="BD131">
-        <v>1.3</v>
-      </c>
-      <c r="BE131">
-        <v>7</v>
-      </c>
-      <c r="BF131">
-        <v>3.9</v>
-      </c>
-      <c r="BG131">
-        <v>1.32</v>
-      </c>
-      <c r="BH131">
-        <v>3</v>
-      </c>
-      <c r="BI131">
-        <v>1.56</v>
-      </c>
-      <c r="BJ131">
-        <v>2.25</v>
-      </c>
-      <c r="BK131">
-        <v>1.9</v>
-      </c>
-      <c r="BL131">
-        <v>1.78</v>
-      </c>
-      <c r="BM131">
-        <v>2.4</v>
-      </c>
-      <c r="BN131">
-        <v>1.49</v>
-      </c>
-      <c r="BO131">
-        <v>3.05</v>
-      </c>
       <c r="BP131">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28230,7 +28236,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28436,7 +28442,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -28799,6 +28805,418 @@
       </c>
       <c r="BP134">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7491947</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45648.47916666666</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>86</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>185</v>
+      </c>
+      <c r="P135" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q135">
+        <v>2.88</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>3.4</v>
+      </c>
+      <c r="T135">
+        <v>1.33</v>
+      </c>
+      <c r="U135">
+        <v>3.25</v>
+      </c>
+      <c r="V135">
+        <v>2.63</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>6.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.11</v>
+      </c>
+      <c r="Z135">
+        <v>2.46</v>
+      </c>
+      <c r="AA135">
+        <v>3.61</v>
+      </c>
+      <c r="AB135">
+        <v>2.85</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>13</v>
+      </c>
+      <c r="AE135">
+        <v>1.25</v>
+      </c>
+      <c r="AF135">
+        <v>4</v>
+      </c>
+      <c r="AG135">
+        <v>1.65</v>
+      </c>
+      <c r="AH135">
+        <v>2.1</v>
+      </c>
+      <c r="AI135">
+        <v>1.62</v>
+      </c>
+      <c r="AJ135">
+        <v>2.2</v>
+      </c>
+      <c r="AK135">
+        <v>1.42</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.63</v>
+      </c>
+      <c r="AN135">
+        <v>0.33</v>
+      </c>
+      <c r="AO135">
+        <v>0.86</v>
+      </c>
+      <c r="AP135">
+        <v>0.71</v>
+      </c>
+      <c r="AQ135">
+        <v>0.75</v>
+      </c>
+      <c r="AR135">
+        <v>1.23</v>
+      </c>
+      <c r="AS135">
+        <v>1.16</v>
+      </c>
+      <c r="AT135">
+        <v>2.39</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>15</v>
+      </c>
+      <c r="AZ135">
+        <v>11</v>
+      </c>
+      <c r="BA135">
+        <v>5</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>7</v>
+      </c>
+      <c r="BD135">
+        <v>1.98</v>
+      </c>
+      <c r="BE135">
+        <v>6.4</v>
+      </c>
+      <c r="BF135">
+        <v>2</v>
+      </c>
+      <c r="BG135">
+        <v>1.27</v>
+      </c>
+      <c r="BH135">
+        <v>3.3</v>
+      </c>
+      <c r="BI135">
+        <v>1.48</v>
+      </c>
+      <c r="BJ135">
+        <v>2.45</v>
+      </c>
+      <c r="BK135">
+        <v>1.76</v>
+      </c>
+      <c r="BL135">
+        <v>1.93</v>
+      </c>
+      <c r="BM135">
+        <v>2.18</v>
+      </c>
+      <c r="BN135">
+        <v>1.58</v>
+      </c>
+      <c r="BO135">
+        <v>2.8</v>
+      </c>
+      <c r="BP135">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7491946</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45648.5625</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" t="s">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>182</v>
+      </c>
+      <c r="P136" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q136">
+        <v>3.4</v>
+      </c>
+      <c r="R136">
+        <v>2.38</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
+        <v>1.29</v>
+      </c>
+      <c r="U136">
+        <v>3.5</v>
+      </c>
+      <c r="V136">
+        <v>2.38</v>
+      </c>
+      <c r="W136">
+        <v>1.53</v>
+      </c>
+      <c r="X136">
+        <v>5.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.14</v>
+      </c>
+      <c r="Z136">
+        <v>3.15</v>
+      </c>
+      <c r="AA136">
+        <v>3.73</v>
+      </c>
+      <c r="AB136">
+        <v>2.23</v>
+      </c>
+      <c r="AC136">
+        <v>1.03</v>
+      </c>
+      <c r="AD136">
+        <v>17</v>
+      </c>
+      <c r="AE136">
+        <v>1.19</v>
+      </c>
+      <c r="AF136">
+        <v>4.75</v>
+      </c>
+      <c r="AG136">
+        <v>1.6</v>
+      </c>
+      <c r="AH136">
+        <v>2.2</v>
+      </c>
+      <c r="AI136">
+        <v>1.5</v>
+      </c>
+      <c r="AJ136">
+        <v>2.5</v>
+      </c>
+      <c r="AK136">
+        <v>1.7</v>
+      </c>
+      <c r="AL136">
+        <v>1.24</v>
+      </c>
+      <c r="AM136">
+        <v>1.38</v>
+      </c>
+      <c r="AN136">
+        <v>1.14</v>
+      </c>
+      <c r="AO136">
+        <v>0.33</v>
+      </c>
+      <c r="AP136">
+        <v>1</v>
+      </c>
+      <c r="AQ136">
+        <v>0.71</v>
+      </c>
+      <c r="AR136">
+        <v>1.28</v>
+      </c>
+      <c r="AS136">
+        <v>1.07</v>
+      </c>
+      <c r="AT136">
+        <v>2.35</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>5</v>
+      </c>
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>6</v>
+      </c>
+      <c r="AY136">
+        <v>15</v>
+      </c>
+      <c r="AZ136">
+        <v>13</v>
+      </c>
+      <c r="BA136">
+        <v>10</v>
+      </c>
+      <c r="BB136">
+        <v>4</v>
+      </c>
+      <c r="BC136">
+        <v>14</v>
+      </c>
+      <c r="BD136">
+        <v>2.25</v>
+      </c>
+      <c r="BE136">
+        <v>6.75</v>
+      </c>
+      <c r="BF136">
+        <v>1.76</v>
+      </c>
+      <c r="BG136">
+        <v>1.25</v>
+      </c>
+      <c r="BH136">
+        <v>3.4</v>
+      </c>
+      <c r="BI136">
+        <v>1.44</v>
+      </c>
+      <c r="BJ136">
+        <v>2.55</v>
+      </c>
+      <c r="BK136">
+        <v>1.72</v>
+      </c>
+      <c r="BL136">
+        <v>1.98</v>
+      </c>
+      <c r="BM136">
+        <v>2.1</v>
+      </c>
+      <c r="BN136">
+        <v>1.64</v>
+      </c>
+      <c r="BO136">
+        <v>2.65</v>
+      </c>
+      <c r="BP136">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -28821,7 +28821,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45648.47916666666</v>
+        <v>45647.875</v>
       </c>
       <c r="F135">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -28821,7 +28821,7 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45647.875</v>
+        <v>45648.47916666666</v>
       </c>
       <c r="F135">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['6', '38']</t>
   </si>
   <si>
+    <t>['12', '79']</t>
+  </si>
+  <si>
     <t>['12', '38', '90+11']</t>
   </si>
   <si>
@@ -836,6 +839,9 @@
   </si>
   <si>
     <t>['25', '28', '30']</t>
+  </si>
+  <si>
+    <t>['1', '8', '19']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1462,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>4.75</v>
@@ -1537,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1868,7 +1874,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>2.1</v>
@@ -2074,7 +2080,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2280,7 +2286,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2486,7 +2492,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2770,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ8">
         <v>1.63</v>
@@ -2898,7 +2904,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>5.5</v>
@@ -3104,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>2.75</v>
@@ -3516,7 +3522,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3722,7 +3728,7 @@
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3928,7 +3934,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4134,7 +4140,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4546,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5164,7 +5170,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>1.8</v>
@@ -5242,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5576,7 +5582,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5657,7 +5663,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>2.26</v>
@@ -5988,7 +5994,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6194,7 +6200,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6400,7 +6406,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>7.5</v>
@@ -6606,7 +6612,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.63</v>
@@ -6812,7 +6818,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7018,7 +7024,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7224,7 +7230,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7430,7 +7436,7 @@
         <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>5.5</v>
@@ -7636,7 +7642,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7842,7 +7848,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8254,7 +8260,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>1.73</v>
@@ -8872,7 +8878,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>1.62</v>
@@ -8950,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ38">
         <v>0.13</v>
@@ -9284,7 +9290,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>2.38</v>
@@ -9490,7 +9496,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9696,7 +9702,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>2.2</v>
@@ -10108,7 +10114,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10189,7 +10195,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ44">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10314,7 +10320,7 @@
         <v>121</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>4.5</v>
@@ -10520,7 +10526,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10932,7 +10938,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>1.36</v>
@@ -11344,7 +11350,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11550,7 +11556,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11756,7 +11762,7 @@
         <v>96</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12168,7 +12174,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -12374,7 +12380,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>1.67</v>
@@ -12580,7 +12586,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>1.67</v>
@@ -12658,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -12786,7 +12792,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>1.83</v>
@@ -13198,7 +13204,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>2.38</v>
@@ -13404,7 +13410,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>4.33</v>
@@ -13610,7 +13616,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -14022,7 +14028,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14228,7 +14234,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>2.75</v>
@@ -14434,7 +14440,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>2.6</v>
@@ -14640,7 +14646,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -15052,7 +15058,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>2.1</v>
@@ -15258,7 +15264,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>1.8</v>
@@ -15464,7 +15470,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15545,7 +15551,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ70">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR70">
         <v>0.6899999999999999</v>
@@ -15670,7 +15676,7 @@
         <v>96</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15876,7 +15882,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16700,7 +16706,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>1.73</v>
@@ -16906,7 +16912,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17602,7 +17608,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ80">
         <v>1.63</v>
@@ -18348,7 +18354,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18554,7 +18560,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>2.1</v>
@@ -18760,7 +18766,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18966,7 +18972,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -19047,7 +19053,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ87">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR87">
         <v>1.27</v>
@@ -19584,7 +19590,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>2.3</v>
@@ -19790,7 +19796,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>3.25</v>
@@ -20202,7 +20208,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>1.53</v>
@@ -20692,7 +20698,7 @@
         <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20820,7 +20826,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>3.6</v>
@@ -21438,7 +21444,7 @@
         <v>96</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21850,7 +21856,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.5</v>
@@ -22056,7 +22062,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22137,7 +22143,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR102">
         <v>1.35</v>
@@ -22262,7 +22268,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>2.5</v>
@@ -22674,7 +22680,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2.2</v>
@@ -22880,7 +22886,7 @@
         <v>164</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23086,7 +23092,7 @@
         <v>107</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>4.33</v>
@@ -23164,7 +23170,7 @@
         <v>2.67</v>
       </c>
       <c r="AP107">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ107">
         <v>2.13</v>
@@ -23498,7 +23504,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -23704,7 +23710,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.3</v>
@@ -23910,7 +23916,7 @@
         <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>4.75</v>
@@ -24116,7 +24122,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>3.4</v>
@@ -24322,7 +24328,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>2.05</v>
@@ -24528,7 +24534,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>1.4</v>
@@ -24734,7 +24740,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>1.62</v>
@@ -24940,7 +24946,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>3.4</v>
@@ -25146,7 +25152,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25352,7 +25358,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -25558,7 +25564,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>2.75</v>
@@ -25764,7 +25770,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25970,7 +25976,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>5.5</v>
@@ -26176,7 +26182,7 @@
         <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>5.5</v>
@@ -26257,7 +26263,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ122">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR122">
         <v>1.69</v>
@@ -26382,7 +26388,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>1.91</v>
@@ -26588,7 +26594,7 @@
         <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26794,7 +26800,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>4.33</v>
@@ -27000,7 +27006,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>1.83</v>
@@ -27078,7 +27084,7 @@
         <v>0.5</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ126">
         <v>0.57</v>
@@ -27206,7 +27212,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27412,7 +27418,7 @@
         <v>179</v>
       </c>
       <c r="P128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q128">
         <v>1.73</v>
@@ -27618,7 +27624,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27824,7 +27830,7 @@
         <v>96</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -28030,7 +28036,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>2.4</v>
@@ -28236,7 +28242,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28442,7 +28448,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>2.75</v>
@@ -29060,7 +29066,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29217,6 +29223,212 @@
       </c>
       <c r="BP136">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7491950</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45667.69791666666</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>85</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137" t="s">
+        <v>186</v>
+      </c>
+      <c r="P137" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q137">
+        <v>3.2</v>
+      </c>
+      <c r="R137">
+        <v>2.38</v>
+      </c>
+      <c r="S137">
+        <v>2.88</v>
+      </c>
+      <c r="T137">
+        <v>1.29</v>
+      </c>
+      <c r="U137">
+        <v>3.5</v>
+      </c>
+      <c r="V137">
+        <v>2.38</v>
+      </c>
+      <c r="W137">
+        <v>1.53</v>
+      </c>
+      <c r="X137">
+        <v>5.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.14</v>
+      </c>
+      <c r="Z137">
+        <v>2.7</v>
+      </c>
+      <c r="AA137">
+        <v>3.4</v>
+      </c>
+      <c r="AB137">
+        <v>2.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>17</v>
+      </c>
+      <c r="AE137">
+        <v>1.18</v>
+      </c>
+      <c r="AF137">
+        <v>5</v>
+      </c>
+      <c r="AG137">
+        <v>1.6</v>
+      </c>
+      <c r="AH137">
+        <v>2.3</v>
+      </c>
+      <c r="AI137">
+        <v>1.5</v>
+      </c>
+      <c r="AJ137">
+        <v>2.5</v>
+      </c>
+      <c r="AK137">
+        <v>1.51</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.46</v>
+      </c>
+      <c r="AN137">
+        <v>2.5</v>
+      </c>
+      <c r="AO137">
+        <v>2.14</v>
+      </c>
+      <c r="AP137">
+        <v>2.22</v>
+      </c>
+      <c r="AQ137">
+        <v>2.25</v>
+      </c>
+      <c r="AR137">
+        <v>1.63</v>
+      </c>
+      <c r="AS137">
+        <v>1.51</v>
+      </c>
+      <c r="AT137">
+        <v>3.14</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>16</v>
+      </c>
+      <c r="AZ137">
+        <v>8</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>7</v>
+      </c>
+      <c r="BD137">
+        <v>2.15</v>
+      </c>
+      <c r="BE137">
+        <v>6.4</v>
+      </c>
+      <c r="BF137">
+        <v>1.86</v>
+      </c>
+      <c r="BG137">
+        <v>1.3</v>
+      </c>
+      <c r="BH137">
+        <v>3.05</v>
+      </c>
+      <c r="BI137">
+        <v>1.55</v>
+      </c>
+      <c r="BJ137">
+        <v>2.28</v>
+      </c>
+      <c r="BK137">
+        <v>1.9</v>
+      </c>
+      <c r="BL137">
+        <v>1.79</v>
+      </c>
+      <c r="BM137">
+        <v>2.4</v>
+      </c>
+      <c r="BN137">
+        <v>1.49</v>
+      </c>
+      <c r="BO137">
+        <v>3.15</v>
+      </c>
+      <c r="BP137">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
